--- a/quantitative_analysis.xlsx
+++ b/quantitative_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Downloads\IRB 14000 Research Project-20230130T163639Z-001\IRB 14000 Research Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\two-armed-robots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B01AB40-B030-497A-A105-F91CFC597091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6230F0C8-A4EB-4C29-ABB3-F547C5A10517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Duplo Data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="261">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -836,6 +836,21 @@
   </si>
   <si>
     <t>5 years and over</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Did not complete</t>
+  </si>
+  <si>
+    <t>Pick up Spacer</t>
+  </si>
+  <si>
+    <t>Pick up Gear</t>
+  </si>
+  <si>
+    <t>Pick up Propeller</t>
   </si>
 </sst>
 </file>
@@ -1705,15 +1720,98 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Success Rate'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Completed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="008E40"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Success Rate'!$C$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Pick up Spacer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Place Spacer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pick up Gear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Place Gear</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pick up Propeller</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Place Propeller</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Success Rate'!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.88461538461538458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73076923076923073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57692307692307687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46153846153846156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C43D-44B4-94F6-095BE6468189}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Success Rate'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Failure</c:v>
+                  <c:v>Did not complete</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1734,19 +1832,19 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Pick Spacer</c:v>
+                  <c:v>Pick up Spacer</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Place Spacer</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Pick Gear</c:v>
+                  <c:v>Pick up Gear</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Place Gear</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Pick Propeller</c:v>
+                  <c:v>Pick up Propeller</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Place Propeller</c:v>
@@ -1784,89 +1882,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C43D-44B4-94F6-095BE6468189}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Success Rate'!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Success</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="008E40"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Success Rate'!$C$3:$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Pick Spacer</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Place Spacer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Pick Gear</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Place Gear</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Pick Propeller</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Place Propeller</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Success Rate'!$C$5:$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.88461538461538458</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.80769230769230771</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.84615384615384615</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73076923076923073</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.57692307692307687</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.46153846153846156</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C43D-44B4-94F6-095BE6468189}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2020,7 +2035,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>Percentage</a:t>
+                  <a:t>Participants</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2263,15 +2278,98 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Success Rate'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Completed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="008E40"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Success Rate'!$C$7:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Pick up Spacer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Place Spacer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pick up Gear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Place Gear</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pick up Propeller</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Place Propeller</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Success Rate'!$C$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96153846153846156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84615384615384615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C43D-44B4-94F6-095BE6468189}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Success Rate'!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Failure</c:v>
+                  <c:v>Did not complete</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2292,19 +2390,19 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Pick Spacer</c:v>
+                  <c:v>Pick up Spacer</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Place Spacer</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Pick Gear</c:v>
+                  <c:v>Pick up Gear</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Place Gear</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Pick Propeller</c:v>
+                  <c:v>Pick up Propeller</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Place Propeller</c:v>
@@ -2342,89 +2440,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C43D-44B4-94F6-095BE6468189}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Success Rate'!$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Success</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="008E40"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Success Rate'!$C$7:$H$8</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Pick Spacer</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Place Spacer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Pick Gear</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Place Gear</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Pick Propeller</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Place Propeller</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Success Rate'!$C$9:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96153846153846156</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84615384615384615</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84615384615384615</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C43D-44B4-94F6-095BE6468189}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6738,15 +6753,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6774,15 +6789,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>69849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8642,8 +8657,8 @@
   </sheetPr>
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -12559,7 +12574,7 @@
   </sheetPr>
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="AP23" sqref="AP23"/>
     </sheetView>
   </sheetViews>
@@ -26411,8 +26426,8 @@
   </sheetPr>
   <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -26445,19 +26460,19 @@
     <row r="4" spans="2:8">
       <c r="B4" s="101"/>
       <c r="C4" s="102" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="D4" s="102" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="102" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="F4" s="102" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="H4" s="102" t="s">
         <v>27</v>
@@ -26465,7 +26480,7 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="90" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="C5" s="105">
         <f xml:space="preserve"> 23 / 26</f>
@@ -26494,7 +26509,7 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="90" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="C6" s="104">
         <f xml:space="preserve"> 3 / 26</f>
@@ -26535,19 +26550,19 @@
     <row r="8" spans="2:8">
       <c r="B8" s="103"/>
       <c r="C8" s="103" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="D8" s="103" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="103" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="F8" s="103" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="103" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="H8" s="103" t="s">
         <v>27</v>
@@ -26555,7 +26570,7 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="90" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="C9" s="104">
         <f xml:space="preserve"> 26 / 26</f>
@@ -26584,7 +26599,7 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="90" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="C10" s="104">
         <f xml:space="preserve"> 0 / 26</f>
@@ -28336,7 +28351,7 @@
   </sheetPr>
   <dimension ref="B2:H87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>

--- a/quantitative_analysis.xlsx
+++ b/quantitative_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\two-armed-robots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9A4B8F-8DB1-4CEE-8FC2-42102AA39E5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932B7B71-ED9A-4628-A0C0-0F9261441258}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,15 @@
     <sheet name="Analysis_duplo_vs_ORS_Total_Con" sheetId="6" state="hidden" r:id="rId6"/>
     <sheet name="Copy Analysis_duplo_vs_ORS_Tota" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="229">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -706,6 +709,51 @@
   <si>
     <t># Robot Collisions</t>
   </si>
+  <si>
+    <t>Descriptive Statistics</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Geometric Mean</t>
+  </si>
+  <si>
+    <t>Harmonic Mean</t>
+  </si>
+  <si>
+    <t>AAD</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>IQR</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
 </sst>
 </file>
 
@@ -718,11 +766,18 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1005,7 +1060,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1132,112 +1187,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="19" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="19" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="19" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="19" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="19" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="21" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="18" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="18" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="21" fontId="18" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="18" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="19" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="19" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="19" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="19" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="21" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="18" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="18" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="18" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="18" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="18" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="22" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="19" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="19" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="19" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="19" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="19" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1248,58 +1312,58 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="19" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="19" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="46" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="19" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="46" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1311,20 +1375,20 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1334,76 +1398,82 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="19" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="19" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3253,7 +3323,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B518F78F-ECD5-42D8-946F-558AD94C9EFD}" type="CELLRANGE">
+                    <a:fld id="{1DD91008-715C-49C7-90A3-ADC7FBC23EA1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3287,7 +3357,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E94721E-791A-4A3E-A3D4-3AB29CEDE67B}" type="CELLRANGE">
+                    <a:fld id="{EF596EE1-18FB-471B-A1A2-D31B28E4BB90}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3321,7 +3391,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{247EE295-CC0A-4FEC-B034-972972906378}" type="CELLRANGE">
+                    <a:fld id="{3058CBE3-416A-4005-BA63-75B66DEFB494}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3355,7 +3425,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D225DB87-1231-4007-AAE0-D3A83293B656}" type="CELLRANGE">
+                    <a:fld id="{B173CCB7-176A-4B45-A587-255577C5202F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3389,7 +3459,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A5055FE-E9EE-4B41-B683-8C824A803D97}" type="CELLRANGE">
+                    <a:fld id="{946AA123-925E-4F51-92C1-2D43EE6CB07F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3423,7 +3493,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF07A4B9-2397-440D-8414-29AC98842848}" type="CELLRANGE">
+                    <a:fld id="{A49AC798-4942-48F0-A035-3199CD8A3B6A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3623,7 +3693,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2395702D-084E-494D-B11E-4A2ABA31A9D2}" type="CELLRANGE">
+                    <a:fld id="{F64FD1FA-8F4C-4AAA-9DF7-A25E90457BBE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3657,7 +3727,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB1A06AA-C4E7-4DDC-8604-B967A17AC768}" type="CELLRANGE">
+                    <a:fld id="{CD29489E-F7D0-43AC-8F78-089949462A7D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3691,7 +3761,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B02EE7F-9061-4E78-92C5-7613B30372DE}" type="CELLRANGE">
+                    <a:fld id="{834CFA64-1DA7-4BDB-B1AB-CADA7225192D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3725,7 +3795,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93C99912-B676-4994-8937-4BBC3ABCA598}" type="CELLRANGE">
+                    <a:fld id="{BBB2ECD6-DF3D-4B7F-BDDE-15C75E2D9B89}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3759,7 +3829,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B3013A1-A447-4BBC-BCC7-31CA0BF3B35F}" type="CELLRANGE">
+                    <a:fld id="{384089C2-5E45-4BB8-8425-612798F00BE3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3793,7 +3863,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45E4FC7B-8DA9-475B-917E-3913E46BEF85}" type="CELLRANGE">
+                    <a:fld id="{DE3CE294-545D-4FBA-818B-A7935DBA1250}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4385,7 +4455,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FDEBB4FF-FD72-46E9-A2E7-61484599044D}" type="CELLRANGE">
+                    <a:fld id="{7B2D26E9-CF4F-4A8A-A4CE-3F6FC782AF28}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4419,7 +4489,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7F64029-84AF-4E48-9488-B8A0B4D474DC}" type="CELLRANGE">
+                    <a:fld id="{E9B49879-B1EC-40D5-A6F3-9830AA81B720}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4453,7 +4523,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C470AF3-7547-4E9C-BD3C-706683D4B2DA}" type="CELLRANGE">
+                    <a:fld id="{05E4EADC-77DF-4A27-9450-53549F91F198}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4487,7 +4557,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81D802E9-E3F2-4C14-8C8E-55F38D17A7F1}" type="CELLRANGE">
+                    <a:fld id="{24C86D37-F9AA-4562-A759-95C4F558CF90}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4521,7 +4591,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E7F8E4C-4F48-4CF5-8F38-F1E82C45BE58}" type="CELLRANGE">
+                    <a:fld id="{04EC915D-1999-4B47-A256-1420E840F935}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4555,7 +4625,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A2EC7D0-6A8C-4E93-BA89-F9AA046D6BD7}" type="CELLRANGE">
+                    <a:fld id="{A20AC2C1-E1A5-41DB-83E2-E711E852AA10}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4784,7 +4854,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75696B8A-C13B-44FE-8BE6-9D1CFF4EB122}" type="CELLRANGE">
+                    <a:fld id="{0CDADF83-B216-44E9-84D0-24A3FACBE346}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4818,7 +4888,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CFF6CBA-83CE-4CEE-8D75-618E5CA385B3}" type="CELLRANGE">
+                    <a:fld id="{93809E09-A482-4AE4-A67F-E49F6B9C35D5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4852,7 +4922,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BF62C7F-BE57-43AF-A3C4-BFD65E1900CB}" type="CELLRANGE">
+                    <a:fld id="{63908C07-5E7E-4E41-BCAD-5BD6E66075CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5667,7 +5737,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -7772,6 +7842,63 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Config"/>
+      <sheetName val="Wilcoxon Table"/>
+      <sheetName val="Mann Table"/>
+      <sheetName val="Runs Table"/>
+      <sheetName val="KS Table"/>
+      <sheetName val="KS2 Table"/>
+      <sheetName val="Lil Table"/>
+      <sheetName val="AD Table"/>
+      <sheetName val="AD2 Table"/>
+      <sheetName val="SW Table"/>
+      <sheetName val="Stud. Q Table"/>
+      <sheetName val="Stud. Q Table 2"/>
+      <sheetName val="Sp Rho Table"/>
+      <sheetName val="Ken Tau Table"/>
+      <sheetName val="Durbin Table"/>
+      <sheetName val="Dunnett Table"/>
+      <sheetName val="Dunnett 1"/>
+      <sheetName val="Prime"/>
+      <sheetName val="MSSD"/>
+      <sheetName val="Dict"/>
+      <sheetName val="ADict"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="IQR"/>
+      <definedName name="MAD"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -8167,8 +8294,8 @@
   </sheetPr>
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS23" sqref="AS23"/>
+    <sheetView topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -8186,100 +8313,100 @@
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="108" t="s">
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="107"/>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="114"/>
+      <c r="AJ1" s="114"/>
+      <c r="AK1" s="114"/>
+      <c r="AL1" s="114"/>
+      <c r="AM1" s="114"/>
+      <c r="AN1" s="114"/>
     </row>
     <row r="2" spans="1:42" ht="14.5">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="110" t="s">
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="111" t="s">
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="112" t="s">
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="110" t="s">
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="114"/>
+      <c r="AC2" s="114"/>
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="113" t="s">
+      <c r="AG2" s="114"/>
+      <c r="AH2" s="114"/>
+      <c r="AI2" s="114"/>
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="114"/>
+      <c r="AM2" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="107"/>
+      <c r="AN2" s="114"/>
     </row>
     <row r="3" spans="1:42" ht="39.75" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -8402,7 +8529,7 @@
       <c r="AN3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AP3" s="122" t="s">
+      <c r="AP3" s="107" t="s">
         <v>203</v>
       </c>
     </row>
@@ -11724,7 +11851,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" ht="15" customHeight="1">
-      <c r="AO30" s="123" t="s">
+      <c r="AO30" s="108" t="s">
         <v>194</v>
       </c>
       <c r="AP30" s="60">
@@ -11733,7 +11860,7 @@
       </c>
     </row>
     <row r="31" spans="1:42" ht="15" customHeight="1">
-      <c r="AO31" s="123" t="s">
+      <c r="AO31" s="108" t="s">
         <v>195</v>
       </c>
       <c r="AP31" s="60">
@@ -11755,7 +11882,7 @@
       <c r="S32" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="AO32" s="123" t="s">
+      <c r="AO32" s="108" t="s">
         <v>196</v>
       </c>
       <c r="AP32" s="105">
@@ -11802,7 +11929,7 @@
       <c r="AE33" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="AO33" s="123" t="s">
+      <c r="AO33" s="108" t="s">
         <v>197</v>
       </c>
       <c r="AP33" s="105">
@@ -11857,7 +11984,7 @@
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="AO34" s="123" t="s">
+      <c r="AO34" s="108" t="s">
         <v>199</v>
       </c>
       <c r="AP34" s="105">
@@ -11912,7 +12039,7 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="AO35" s="123" t="s">
+      <c r="AO35" s="108" t="s">
         <v>198</v>
       </c>
       <c r="AP35" s="105">
@@ -11947,7 +12074,7 @@
       <c r="AC36" s="18"/>
       <c r="AD36" s="18"/>
       <c r="AE36" s="18"/>
-      <c r="AO36" s="123" t="s">
+      <c r="AO36" s="108" t="s">
         <v>200</v>
       </c>
       <c r="AP36" s="105">
@@ -12245,8 +12372,8 @@
   </sheetPr>
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -12263,100 +12390,100 @@
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="108" t="s">
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="107"/>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="114"/>
+      <c r="AJ1" s="114"/>
+      <c r="AK1" s="114"/>
+      <c r="AL1" s="114"/>
+      <c r="AM1" s="114"/>
+      <c r="AN1" s="114"/>
     </row>
     <row r="2" spans="1:42" ht="14.5">
       <c r="A2" s="19"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="110" t="s">
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="111" t="s">
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="112" t="s">
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="110" t="s">
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="114"/>
+      <c r="AC2" s="114"/>
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="113" t="s">
+      <c r="AG2" s="114"/>
+      <c r="AH2" s="114"/>
+      <c r="AI2" s="114"/>
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="114"/>
+      <c r="AM2" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="107"/>
+      <c r="AN2" s="114"/>
     </row>
     <row r="3" spans="1:42" ht="39.75" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -12479,7 +12606,7 @@
       <c r="AN3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AP3" s="122" t="s">
+      <c r="AP3" s="107" t="s">
         <v>203</v>
       </c>
     </row>
@@ -15754,7 +15881,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" ht="15" customHeight="1">
-      <c r="AO30" s="123" t="s">
+      <c r="AO30" s="108" t="s">
         <v>194</v>
       </c>
       <c r="AP30" s="60">
@@ -15764,7 +15891,7 @@
     </row>
     <row r="31" spans="1:42" ht="15" customHeight="1">
       <c r="AM31" s="65"/>
-      <c r="AO31" s="123" t="s">
+      <c r="AO31" s="108" t="s">
         <v>195</v>
       </c>
       <c r="AP31" s="60">
@@ -15785,7 +15912,7 @@
       <c r="S32" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="AO32" s="123" t="s">
+      <c r="AO32" s="108" t="s">
         <v>196</v>
       </c>
       <c r="AP32">
@@ -15831,7 +15958,7 @@
       <c r="AE33" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="AO33" s="123" t="s">
+      <c r="AO33" s="108" t="s">
         <v>197</v>
       </c>
       <c r="AP33">
@@ -15887,7 +16014,7 @@
         <v>12</v>
       </c>
       <c r="AL34" s="21"/>
-      <c r="AO34" s="123" t="s">
+      <c r="AO34" s="108" t="s">
         <v>199</v>
       </c>
       <c r="AP34">
@@ -15942,7 +16069,7 @@
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="AO35" s="123" t="s">
+      <c r="AO35" s="108" t="s">
         <v>198</v>
       </c>
       <c r="AP35">
@@ -15970,7 +16097,7 @@
         <f t="shared" si="10"/>
         <v>2.4494897427831779</v>
       </c>
-      <c r="AO36" s="123" t="s">
+      <c r="AO36" s="108" t="s">
         <v>200</v>
       </c>
       <c r="AP36">
@@ -16272,8 +16399,8 @@
   </sheetPr>
   <dimension ref="B2:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16289,48 +16416,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="39.75" customHeight="1">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="121"/>
+      <c r="F2" s="122" t="s">
         <v>212</v>
       </c>
-      <c r="G2" s="118"/>
-      <c r="H2" s="119" t="s">
+      <c r="G2" s="122"/>
+      <c r="H2" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="119"/>
+      <c r="I2" s="123"/>
       <c r="M2"/>
       <c r="N2"/>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="124" t="s">
+      <c r="I3" s="109" t="s">
         <v>156</v>
       </c>
       <c r="M3"/>
@@ -17292,36 +17419,36 @@
       <c r="N29"/>
     </row>
     <row r="30" spans="2:16" s="105" customFormat="1">
-      <c r="B30" s="114" t="s">
+      <c r="B30" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="I30" s="131" t="s">
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="I30" s="125" t="s">
         <v>212</v>
       </c>
-      <c r="J30" s="131"/>
-      <c r="K30" s="131"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
     </row>
     <row r="31" spans="2:16" s="105" customFormat="1">
-      <c r="B31" s="129" t="s">
+      <c r="B31" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="129">
+      <c r="C31" s="111">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D31" s="129"/>
+      <c r="D31" s="111"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="I31" s="129" t="s">
+      <c r="I31" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="J31" s="129">
+      <c r="J31" s="111">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K31" s="129"/>
+      <c r="K31" s="111"/>
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
@@ -17329,33 +17456,33 @@
       <c r="P31"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="129"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
       <c r="F32"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="129"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
       <c r="M32"/>
       <c r="N32"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="129"/>
-      <c r="C33" s="130" t="str">
+      <c r="B33" s="111"/>
+      <c r="C33" s="112" t="str">
         <f>B3</f>
         <v>Duplo</v>
       </c>
-      <c r="D33" s="130" t="str">
+      <c r="D33" s="112" t="str">
         <f>C3</f>
         <v>RSOY</v>
       </c>
       <c r="F33"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="130" t="str">
+      <c r="I33" s="111"/>
+      <c r="J33" s="112" t="str">
         <f>F3</f>
         <v>Duplo</v>
       </c>
-      <c r="K33" s="130" t="str">
+      <c r="K33" s="112" t="str">
         <f>G3</f>
         <v>RSOY</v>
       </c>
@@ -17363,26 +17490,26 @@
       <c r="N33"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="129" t="s">
+      <c r="B34" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="129">
+      <c r="C34" s="111">
         <f>C41-$C48</f>
         <v>0</v>
       </c>
-      <c r="D34" s="129">
+      <c r="D34" s="111">
         <f>D41-$C48</f>
         <v>1</v>
       </c>
       <c r="F34"/>
-      <c r="I34" s="129" t="s">
+      <c r="I34" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="J34" s="129">
+      <c r="J34" s="111">
         <f>J41-$J48</f>
         <v>0</v>
       </c>
-      <c r="K34" s="129">
+      <c r="K34" s="111">
         <f>K41-$J48</f>
         <v>0</v>
       </c>
@@ -17390,26 +17517,26 @@
       <c r="N34"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="129" t="s">
+      <c r="B35" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="129">
+      <c r="C35" s="111">
         <f>MAX(C42-C41,0)</f>
         <v>2</v>
       </c>
-      <c r="D35" s="129">
+      <c r="D35" s="111">
         <f>MAX(D42-D41,0)</f>
         <v>2</v>
       </c>
       <c r="F35"/>
-      <c r="I35" s="129" t="s">
+      <c r="I35" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="J35" s="129">
+      <c r="J35" s="111">
         <f>MAX(J42-J41,0)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="129">
+      <c r="K35" s="111">
         <f>MAX(K42-K41,0)</f>
         <v>0</v>
       </c>
@@ -17417,26 +17544,26 @@
       <c r="N35"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="129" t="s">
+      <c r="B36" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="129">
+      <c r="C36" s="111">
         <f t="shared" ref="C36:D38" si="0">MAX(C43-C42,0)</f>
         <v>1</v>
       </c>
-      <c r="D36" s="129">
+      <c r="D36" s="111">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F36"/>
-      <c r="I36" s="129" t="s">
+      <c r="I36" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="J36" s="129">
+      <c r="J36" s="111">
         <f t="shared" ref="J36:K38" si="1">MAX(J43-J42,0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="129">
+      <c r="K36" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -17444,26 +17571,26 @@
       <c r="N36"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="129" t="s">
+      <c r="B37" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="C37" s="129">
+      <c r="C37" s="111">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D37" s="129">
+      <c r="D37" s="111">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F37"/>
-      <c r="I37" s="129" t="s">
+      <c r="I37" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="J37" s="129">
+      <c r="J37" s="111">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K37" s="129">
+      <c r="K37" s="111">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -17471,26 +17598,26 @@
       <c r="N37"/>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="129" t="s">
+      <c r="B38" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="C38" s="129">
+      <c r="C38" s="111">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D38" s="129">
+      <c r="D38" s="111">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F38"/>
-      <c r="I38" s="129" t="s">
+      <c r="I38" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="129">
+      <c r="J38" s="111">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K38" s="129">
+      <c r="K38" s="111">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -17498,26 +17625,26 @@
       <c r="N38"/>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" s="129" t="s">
+      <c r="B39" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="C39" s="129">
+      <c r="C39" s="111">
         <f>C46-$C48</f>
         <v>4.72</v>
       </c>
-      <c r="D39" s="129">
+      <c r="D39" s="111">
         <f>D46-$C48</f>
         <v>6.92</v>
       </c>
       <c r="F39"/>
-      <c r="I39" s="129" t="s">
+      <c r="I39" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="J39" s="129">
+      <c r="J39" s="111">
         <f>J46-$J48</f>
         <v>2.3199999999999998</v>
       </c>
-      <c r="K39" s="129">
+      <c r="K39" s="111">
         <f>K46-$J48</f>
         <v>1.96</v>
       </c>
@@ -17525,37 +17652,37 @@
       <c r="N39"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="129"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
       <c r="F40"/>
-      <c r="I40" s="129"/>
-      <c r="J40" s="129"/>
-      <c r="K40" s="129"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
       <c r="M40"/>
       <c r="N40"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="C41" s="129">
+      <c r="C41" s="111">
         <f t="array" ref="C41">MIN(IF(ISBLANK(B4:B28),"",IF(B4:B28&gt;=C42-$C31*(C44-C42),B4:B28,"")))</f>
         <v>0</v>
       </c>
-      <c r="D41" s="129">
+      <c r="D41" s="111">
         <f t="array" ref="D41">MIN(IF(ISBLANK(C4:C28),"",IF(C4:C28&gt;=D42-$C31*(D44-D42),C4:C28,"")))</f>
         <v>1</v>
       </c>
       <c r="F41"/>
-      <c r="I41" s="129" t="s">
+      <c r="I41" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="J41" s="129">
+      <c r="J41" s="111">
         <f t="array" ref="J41">MIN(IF(ISBLANK(F4:F28),"",IF(F4:F28&gt;=J42-$J31*(J44-J42),F4:F28,"")))</f>
         <v>0</v>
       </c>
-      <c r="K41" s="129">
+      <c r="K41" s="111">
         <f t="array" ref="K41">MIN(IF(ISBLANK(G4:G28),"",IF(G4:G28&gt;=K42-$J31*(K44-K42),G4:G28,"")))</f>
         <v>0</v>
       </c>
@@ -17563,26 +17690,26 @@
       <c r="N41"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="129" t="s">
+      <c r="B42" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="129">
+      <c r="C42" s="111">
         <f>_xlfn.QUARTILE.INC(B4:B28,1)</f>
         <v>2</v>
       </c>
-      <c r="D42" s="129">
+      <c r="D42" s="111">
         <f>_xlfn.QUARTILE.INC(C4:C28,1)</f>
         <v>3</v>
       </c>
       <c r="F42"/>
-      <c r="I42" s="129" t="s">
+      <c r="I42" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="J42" s="129">
+      <c r="J42" s="111">
         <f>_xlfn.QUARTILE.INC(F4:F28,1)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="129">
+      <c r="K42" s="111">
         <f>_xlfn.QUARTILE.INC(G4:G28,1)</f>
         <v>0</v>
       </c>
@@ -17590,26 +17717,26 @@
       <c r="N42"/>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="129" t="s">
+      <c r="B43" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="129">
+      <c r="C43" s="111">
         <f>MEDIAN(B4:B28)</f>
         <v>3</v>
       </c>
-      <c r="D43" s="129">
+      <c r="D43" s="111">
         <f>MEDIAN(C4:C28)</f>
         <v>6</v>
       </c>
       <c r="F43"/>
-      <c r="I43" s="129" t="s">
+      <c r="I43" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="J43" s="129">
+      <c r="J43" s="111">
         <f>MEDIAN(F4:F28)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="129">
+      <c r="K43" s="111">
         <f>MEDIAN(G4:G28)</f>
         <v>1</v>
       </c>
@@ -17617,26 +17744,26 @@
       <c r="N43"/>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="129" t="s">
+      <c r="B44" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="129">
+      <c r="C44" s="111">
         <f>_xlfn.QUARTILE.INC(B4:B28,3)</f>
         <v>7</v>
       </c>
-      <c r="D44" s="129">
+      <c r="D44" s="111">
         <f>_xlfn.QUARTILE.INC(C4:C28,3)</f>
         <v>9</v>
       </c>
       <c r="F44"/>
-      <c r="I44" s="129" t="s">
+      <c r="I44" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="J44" s="129">
+      <c r="J44" s="111">
         <f>_xlfn.QUARTILE.INC(F4:F28,3)</f>
         <v>5</v>
       </c>
-      <c r="K44" s="129">
+      <c r="K44" s="111">
         <f>_xlfn.QUARTILE.INC(G4:G28,3)</f>
         <v>3</v>
       </c>
@@ -17644,26 +17771,26 @@
       <c r="N44"/>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="129" t="s">
+      <c r="B45" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="C45" s="129">
+      <c r="C45" s="111">
         <f t="array" ref="C45">MAX(IF(ISBLANK(B4:B28),"",IF(B4:B28&lt;=C44+$C31*(C44-C42),B4:B28,"")))</f>
         <v>15</v>
       </c>
-      <c r="D45" s="129">
+      <c r="D45" s="111">
         <f t="array" ref="D45">MAX(IF(ISBLANK(C4:C28),"",IF(C4:C28&lt;=D44+$C31*(D44-D42),C4:C28,"")))</f>
         <v>21</v>
       </c>
       <c r="F45"/>
-      <c r="I45" s="129" t="s">
+      <c r="I45" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="J45" s="129">
+      <c r="J45" s="111">
         <f t="array" ref="J45">MAX(IF(ISBLANK(F4:F28),"",IF(F4:F28&lt;=J44+$J31*(J44-J42),F4:F28,"")))</f>
         <v>8</v>
       </c>
-      <c r="K45" s="129">
+      <c r="K45" s="111">
         <f t="array" ref="K45">MAX(IF(ISBLANK(G4:G28),"",IF(G4:G28&lt;=K44+$J31*(K44-K42),G4:G28,"")))</f>
         <v>9</v>
       </c>
@@ -17671,26 +17798,26 @@
       <c r="N45"/>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="129" t="s">
+      <c r="B46" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="129">
+      <c r="C46" s="111">
         <f>AVERAGE(B4:B28)</f>
         <v>4.72</v>
       </c>
-      <c r="D46" s="129">
+      <c r="D46" s="111">
         <f>AVERAGE(C4:C28)</f>
         <v>6.92</v>
       </c>
       <c r="F46"/>
-      <c r="I46" s="129" t="s">
+      <c r="I46" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="J46" s="129">
+      <c r="J46" s="111">
         <f>AVERAGE(F4:F28)</f>
         <v>2.3199999999999998</v>
       </c>
-      <c r="K46" s="129">
+      <c r="K46" s="111">
         <f>AVERAGE(G4:G28)</f>
         <v>1.96</v>
       </c>
@@ -17698,66 +17825,82 @@
       <c r="N46"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="129"/>
-      <c r="C47" s="129"/>
-      <c r="D47" s="129"/>
+      <c r="B47" s="135" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" s="111">
+        <f>STDEV(B4:B28)</f>
+        <v>4.2673176586703736</v>
+      </c>
+      <c r="D47" s="111">
+        <f>STDEV(C4:C28)</f>
+        <v>5.2274914315249399</v>
+      </c>
       <c r="F47"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="129"/>
-      <c r="K47" s="129"/>
+      <c r="I47" s="135" t="s">
+        <v>228</v>
+      </c>
+      <c r="J47" s="111">
+        <f>STDEV(F4:F28)</f>
+        <v>3.0919249667480613</v>
+      </c>
+      <c r="K47" s="111">
+        <f>STDEV(G4:G28)</f>
+        <v>2.5409971795865234</v>
+      </c>
       <c r="M47"/>
       <c r="N47"/>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="129" t="s">
+      <c r="B48" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="C48" s="129">
+      <c r="C48" s="111">
         <f>IF(MIN(C41:D41)&gt;=0,0,MIN(C41:D41))</f>
         <v>0</v>
       </c>
-      <c r="D48" s="129"/>
+      <c r="D48" s="111"/>
       <c r="F48"/>
-      <c r="I48" s="129" t="s">
+      <c r="I48" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="J48" s="129">
+      <c r="J48" s="111">
         <f>IF(MIN(J41:K41)&gt;=0,0,MIN(J41:K41))</f>
         <v>0</v>
       </c>
-      <c r="K48" s="129"/>
+      <c r="K48" s="111"/>
       <c r="M48"/>
       <c r="N48"/>
     </row>
     <row r="49" spans="2:14">
-      <c r="B49" s="129"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="129"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
       <c r="F49"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="129"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
       <c r="M49"/>
       <c r="N49"/>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="129" t="s">
+      <c r="B50" s="111" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="129" t="s">
+      <c r="C50" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="129" t="s">
+      <c r="D50" s="111" t="s">
         <v>155</v>
       </c>
       <c r="F50"/>
-      <c r="I50" s="129" t="s">
+      <c r="I50" s="111" t="s">
         <v>206</v>
       </c>
-      <c r="J50" s="129" t="s">
+      <c r="J50" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="K50" s="129" t="s">
+      <c r="K50" s="111" t="s">
         <v>155</v>
       </c>
       <c r="M50"/>
@@ -17771,67 +17914,67 @@
       <c r="N51"/>
     </row>
     <row r="52" spans="2:14">
-      <c r="B52" s="114" t="s">
+      <c r="B52" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="124"/>
       <c r="F52"/>
-      <c r="I52" s="114" t="s">
+      <c r="I52" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="J52" s="114"/>
-      <c r="K52" s="114"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="124"/>
       <c r="M52"/>
       <c r="N52"/>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="129" t="s">
+      <c r="B53" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="C53" s="129">
+      <c r="C53" s="111">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D53" s="129"/>
+      <c r="D53" s="111"/>
       <c r="F53"/>
-      <c r="I53" s="129" t="s">
+      <c r="I53" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="J53" s="129">
+      <c r="J53" s="111">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K53" s="129"/>
+      <c r="K53" s="111"/>
       <c r="M53"/>
       <c r="N53"/>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="129"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="129"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
       <c r="F54"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="129"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="111"/>
+      <c r="K54" s="111"/>
       <c r="M54"/>
       <c r="N54"/>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="129"/>
-      <c r="C55" s="130" t="str">
+      <c r="B55" s="111"/>
+      <c r="C55" s="112" t="str">
         <f>D3</f>
         <v>Duplo</v>
       </c>
-      <c r="D55" s="130" t="str">
+      <c r="D55" s="112" t="str">
         <f>E3</f>
         <v>RSOY</v>
       </c>
       <c r="F55"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="130" t="str">
+      <c r="I55" s="111"/>
+      <c r="J55" s="112" t="str">
         <f>H3</f>
         <v>Duplo</v>
       </c>
-      <c r="K55" s="130" t="str">
+      <c r="K55" s="112" t="str">
         <f>I3</f>
         <v>RSOY</v>
       </c>
@@ -17839,26 +17982,26 @@
       <c r="N55"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="129" t="s">
+      <c r="B56" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="C56" s="129">
+      <c r="C56" s="111">
         <f>C63-$C70</f>
         <v>1</v>
       </c>
-      <c r="D56" s="129">
+      <c r="D56" s="111">
         <f>D63-$C70</f>
         <v>7</v>
       </c>
       <c r="F56"/>
-      <c r="I56" s="129" t="s">
+      <c r="I56" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="129">
+      <c r="J56" s="111">
         <f>J63-$J70</f>
         <v>9</v>
       </c>
-      <c r="K56" s="129">
+      <c r="K56" s="111">
         <f>K63-$J70</f>
         <v>19</v>
       </c>
@@ -17866,26 +18009,26 @@
       <c r="N56"/>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="129" t="s">
+      <c r="B57" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="C57" s="129">
+      <c r="C57" s="111">
         <f>MAX(C64-C63,0)</f>
         <v>3</v>
       </c>
-      <c r="D57" s="129">
+      <c r="D57" s="111">
         <f>MAX(D64-D63,0)</f>
         <v>4</v>
       </c>
       <c r="F57"/>
-      <c r="I57" s="129" t="s">
+      <c r="I57" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="J57" s="129">
+      <c r="J57" s="111">
         <f>MAX(J64-J63,0)</f>
         <v>15</v>
       </c>
-      <c r="K57" s="129">
+      <c r="K57" s="111">
         <f>MAX(K64-K63,0)</f>
         <v>6</v>
       </c>
@@ -17893,26 +18036,26 @@
       <c r="N57"/>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="129" t="s">
+      <c r="B58" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="C58" s="129">
+      <c r="C58" s="111">
         <f t="shared" ref="C58:D60" si="2">MAX(C65-C64,0)</f>
         <v>5</v>
       </c>
-      <c r="D58" s="129">
+      <c r="D58" s="111">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F58"/>
-      <c r="I58" s="129" t="s">
+      <c r="I58" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="J58" s="129">
+      <c r="J58" s="111">
         <f t="shared" ref="J58:K60" si="3">MAX(J65-J64,0)</f>
         <v>11</v>
       </c>
-      <c r="K58" s="129">
+      <c r="K58" s="111">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -17920,26 +18063,26 @@
       <c r="N58"/>
     </row>
     <row r="59" spans="2:14">
-      <c r="B59" s="129" t="s">
+      <c r="B59" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="C59" s="129">
+      <c r="C59" s="111">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="D59" s="129">
+      <c r="D59" s="111">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F59"/>
-      <c r="I59" s="129" t="s">
+      <c r="I59" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="J59" s="129">
+      <c r="J59" s="111">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="K59" s="129">
+      <c r="K59" s="111">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
@@ -17947,26 +18090,26 @@
       <c r="N59"/>
     </row>
     <row r="60" spans="2:14">
-      <c r="B60" s="129" t="s">
+      <c r="B60" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="129">
+      <c r="C60" s="111">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="D60" s="129">
+      <c r="D60" s="111">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="F60"/>
-      <c r="I60" s="129" t="s">
+      <c r="I60" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="J60" s="129">
+      <c r="J60" s="111">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="K60" s="129">
+      <c r="K60" s="111">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
@@ -17974,26 +18117,26 @@
       <c r="N60"/>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="129">
+      <c r="C61" s="111">
         <f>C68-$C70</f>
         <v>10.72</v>
       </c>
-      <c r="D61" s="129">
+      <c r="D61" s="111">
         <f>D68-$C70</f>
         <v>15.12</v>
       </c>
       <c r="F61"/>
-      <c r="I61" s="129" t="s">
+      <c r="I61" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="J61" s="129">
+      <c r="J61" s="111">
         <f>J68-$J70</f>
         <v>37.4</v>
       </c>
-      <c r="K61" s="129">
+      <c r="K61" s="111">
         <f>K68-$J70</f>
         <v>37.119999999999997</v>
       </c>
@@ -18001,37 +18144,37 @@
       <c r="N61"/>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="129"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="111"/>
       <c r="F62"/>
-      <c r="I62" s="129"/>
-      <c r="J62" s="129"/>
-      <c r="K62" s="129"/>
+      <c r="I62" s="111"/>
+      <c r="J62" s="111"/>
+      <c r="K62" s="111"/>
       <c r="M62"/>
       <c r="N62"/>
     </row>
     <row r="63" spans="2:14">
-      <c r="B63" s="129" t="s">
+      <c r="B63" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="129">
+      <c r="C63" s="111">
         <f t="array" ref="C63">MIN(IF(ISBLANK(D4:D28),"",IF(D4:D28&gt;=C64-$C53*(C66-C64),D4:D28,"")))</f>
         <v>1</v>
       </c>
-      <c r="D63" s="129">
+      <c r="D63" s="111">
         <f t="array" ref="D63">MIN(IF(ISBLANK(E4:E28),"",IF(E4:E28&gt;=D64-$C53*(D66-D64),E4:E28,"")))</f>
         <v>7</v>
       </c>
       <c r="F63"/>
-      <c r="I63" s="129" t="s">
+      <c r="I63" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="J63" s="129">
+      <c r="J63" s="111">
         <f t="array" ref="J63">MIN(IF(ISBLANK(H4:H28),"",IF(H4:H28&gt;=J64-$J53*(J66-J64),H4:H28,"")))</f>
         <v>9</v>
       </c>
-      <c r="K63" s="129">
+      <c r="K63" s="111">
         <f t="array" ref="K63">MIN(IF(ISBLANK(I4:I28),"",IF(I4:I28&gt;=K64-$J53*(K66-K64),I4:I28,"")))</f>
         <v>19</v>
       </c>
@@ -18039,26 +18182,26 @@
       <c r="N63"/>
     </row>
     <row r="64" spans="2:14">
-      <c r="B64" s="129" t="s">
+      <c r="B64" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="C64" s="129">
+      <c r="C64" s="111">
         <f>_xlfn.QUARTILE.INC(D4:D28,1)</f>
         <v>4</v>
       </c>
-      <c r="D64" s="129">
+      <c r="D64" s="111">
         <f>_xlfn.QUARTILE.INC(E4:E28,1)</f>
         <v>11</v>
       </c>
       <c r="F64"/>
-      <c r="I64" s="129" t="s">
+      <c r="I64" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="J64" s="129">
+      <c r="J64" s="111">
         <f>_xlfn.QUARTILE.INC(H4:H28,1)</f>
         <v>24</v>
       </c>
-      <c r="K64" s="129">
+      <c r="K64" s="111">
         <f>_xlfn.QUARTILE.INC(I4:I28,1)</f>
         <v>25</v>
       </c>
@@ -18066,26 +18209,26 @@
       <c r="N64"/>
     </row>
     <row r="65" spans="2:14">
-      <c r="B65" s="129" t="s">
+      <c r="B65" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="C65" s="129">
+      <c r="C65" s="111">
         <f>MEDIAN(D4:D28)</f>
         <v>9</v>
       </c>
-      <c r="D65" s="129">
+      <c r="D65" s="111">
         <f>MEDIAN(E4:E28)</f>
         <v>15</v>
       </c>
       <c r="F65"/>
-      <c r="I65" s="129" t="s">
+      <c r="I65" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="J65" s="129">
+      <c r="J65" s="111">
         <f>MEDIAN(H4:H28)</f>
         <v>35</v>
       </c>
-      <c r="K65" s="129">
+      <c r="K65" s="111">
         <f>MEDIAN(I4:I28)</f>
         <v>34</v>
       </c>
@@ -18093,26 +18236,26 @@
       <c r="N65"/>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="129" t="s">
+      <c r="B66" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="C66" s="129">
+      <c r="C66" s="111">
         <f>_xlfn.QUARTILE.INC(D4:D28,3)</f>
         <v>12</v>
       </c>
-      <c r="D66" s="129">
+      <c r="D66" s="111">
         <f>_xlfn.QUARTILE.INC(E4:E28,3)</f>
         <v>19</v>
       </c>
       <c r="F66"/>
-      <c r="I66" s="129" t="s">
+      <c r="I66" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="J66" s="129">
+      <c r="J66" s="111">
         <f>_xlfn.QUARTILE.INC(H4:H28,3)</f>
         <v>46</v>
       </c>
-      <c r="K66" s="129">
+      <c r="K66" s="111">
         <f>_xlfn.QUARTILE.INC(I4:I28,3)</f>
         <v>47</v>
       </c>
@@ -18120,26 +18263,26 @@
       <c r="N66"/>
     </row>
     <row r="67" spans="2:14">
-      <c r="B67" s="129" t="s">
+      <c r="B67" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="129">
+      <c r="C67" s="111">
         <f t="array" ref="C67">MAX(IF(ISBLANK(D4:D28),"",IF(D4:D28&lt;=C66+$C53*(C66-C64),D4:D28,"")))</f>
         <v>27</v>
       </c>
-      <c r="D67" s="129">
+      <c r="D67" s="111">
         <f t="array" ref="D67">MAX(IF(ISBLANK(E4:E28),"",IF(E4:E28&lt;=D66+$C53*(D66-D64),E4:E28,"")))</f>
         <v>33</v>
       </c>
       <c r="F67"/>
-      <c r="I67" s="129" t="s">
+      <c r="I67" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="J67" s="129">
+      <c r="J67" s="111">
         <f t="array" ref="J67">MAX(IF(ISBLANK(H4:H28),"",IF(H4:H28&lt;=J66+$J53*(J66-J64),H4:H28,"")))</f>
         <v>85</v>
       </c>
-      <c r="K67" s="129">
+      <c r="K67" s="111">
         <f t="array" ref="K67">MAX(IF(ISBLANK(I4:I28),"",IF(I4:I28&lt;=K66+$J53*(K66-K64),I4:I28,"")))</f>
         <v>64</v>
       </c>
@@ -18147,26 +18290,26 @@
       <c r="N67"/>
     </row>
     <row r="68" spans="2:14">
-      <c r="B68" s="129" t="s">
+      <c r="B68" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="C68" s="129">
+      <c r="C68" s="111">
         <f>AVERAGE(D4:D28)</f>
         <v>10.72</v>
       </c>
-      <c r="D68" s="129">
+      <c r="D68" s="111">
         <f>AVERAGE(E4:E28)</f>
         <v>15.12</v>
       </c>
       <c r="F68"/>
-      <c r="I68" s="129" t="s">
+      <c r="I68" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="J68" s="129">
+      <c r="J68" s="111">
         <f>AVERAGE(H4:H28)</f>
         <v>37.4</v>
       </c>
-      <c r="K68" s="129">
+      <c r="K68" s="111">
         <f>AVERAGE(I4:I28)</f>
         <v>37.119999999999997</v>
       </c>
@@ -18174,67 +18317,83 @@
       <c r="N68"/>
     </row>
     <row r="69" spans="2:14">
-      <c r="B69" s="129"/>
-      <c r="C69" s="129"/>
-      <c r="D69" s="129"/>
+      <c r="B69" s="135" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69" s="111">
+        <f>STDEV(D4:D28)</f>
+        <v>8.8483520122864316</v>
+      </c>
+      <c r="D69" s="111">
+        <f>STDEV(E4:E28)</f>
+        <v>6.3266631541964262</v>
+      </c>
       <c r="F69"/>
-      <c r="I69" s="129"/>
-      <c r="J69" s="129"/>
-      <c r="K69" s="129"/>
+      <c r="I69" s="135" t="s">
+        <v>228</v>
+      </c>
+      <c r="J69" s="111">
+        <f>STDEV(H4:H28)</f>
+        <v>18.598835088969057</v>
+      </c>
+      <c r="K69" s="111">
+        <f>STDEV(I4:I28)</f>
+        <v>12.275721295847886</v>
+      </c>
       <c r="M69"/>
       <c r="N69"/>
     </row>
     <row r="70" spans="2:14">
-      <c r="B70" s="129" t="s">
+      <c r="B70" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="C70" s="129">
+      <c r="C70" s="111">
         <f>IF(MIN(C63:D63)&gt;=0,0,MIN(C63:D63))</f>
         <v>0</v>
       </c>
-      <c r="D70" s="129"/>
+      <c r="D70" s="111"/>
       <c r="F70"/>
-      <c r="I70" s="129" t="s">
+      <c r="I70" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="J70" s="129">
+      <c r="J70" s="111">
         <f>IF(MIN(J63:K63)&gt;=0,0,MIN(J63:K63))</f>
         <v>0</v>
       </c>
-      <c r="K70" s="129"/>
+      <c r="K70" s="111"/>
       <c r="M70"/>
       <c r="N70"/>
     </row>
     <row r="71" spans="2:14">
-      <c r="B71" s="129"/>
-      <c r="C71" s="129"/>
-      <c r="D71" s="129"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="111"/>
       <c r="F71"/>
-      <c r="I71" s="129"/>
-      <c r="J71" s="129"/>
-      <c r="K71" s="129"/>
+      <c r="I71" s="111"/>
+      <c r="J71" s="111"/>
+      <c r="K71" s="111"/>
       <c r="M71"/>
       <c r="N71"/>
     </row>
     <row r="72" spans="2:14">
-      <c r="B72" s="129" t="s">
+      <c r="B72" s="111" t="s">
         <v>206</v>
       </c>
-      <c r="C72" s="129">
+      <c r="C72" s="111">
         <f>D22</f>
         <v>37</v>
       </c>
-      <c r="D72" s="129" t="s">
+      <c r="D72" s="111" t="s">
         <v>155</v>
       </c>
       <c r="F72"/>
-      <c r="I72" s="129" t="s">
+      <c r="I72" s="111" t="s">
         <v>206</v>
       </c>
-      <c r="J72" s="129" t="s">
+      <c r="J72" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="K72" s="129" t="s">
+      <c r="K72" s="111" t="s">
         <v>155</v>
       </c>
       <c r="M72"/>
@@ -18473,14 +18632,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I52:K52"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I52:K52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18495,8 +18654,8 @@
   </sheetPr>
   <dimension ref="B2:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -18505,15 +18664,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="128" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="127" t="s">
@@ -18696,26 +18855,26 @@
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="100"/>
@@ -18864,20 +19023,23 @@
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="G21" s="128"/>
+      <c r="G21" s="110"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="119"/>
+      <c r="C22" s="123"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="124" t="s">
+      <c r="B23" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="124" t="s">
+      <c r="C23" s="109" t="s">
         <v>156</v>
+      </c>
+      <c r="E23" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -18899,6 +19061,15 @@
         <f>'RSOY (Raw)'!AM23 * 1440</f>
         <v>57.000000000000036</v>
       </c>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134" t="str">
+        <f>B23</f>
+        <v>Duplo</v>
+      </c>
+      <c r="G25" s="134" t="str">
+        <f>C23</f>
+        <v>RSOY</v>
+      </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="89">
@@ -18909,6 +19080,17 @@
         <f>'RSOY (Raw)'!AM21 * 1440</f>
         <v>70.000000000000071</v>
       </c>
+      <c r="E26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="89">
+        <f>AVERAGE(B24:B49)</f>
+        <v>66.961538461538481</v>
+      </c>
+      <c r="G26" s="89">
+        <f>AVERAGE(C24:C49)</f>
+        <v>92.692307692307708</v>
+      </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="89">
@@ -18919,6 +19101,17 @@
         <f>'RSOY (Raw)'!AM17 * 1440</f>
         <v>74.000000000000057</v>
       </c>
+      <c r="E27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27">
+        <f>_xlfn.STDEV.S(B24:B49)/SQRT(COUNT(B24:B49))</f>
+        <v>5.3626861148927851</v>
+      </c>
+      <c r="G27" s="106">
+        <f>_xlfn.STDEV.S(C24:C49)/SQRT(COUNT(C24:C49))</f>
+        <v>3.5720148293125007</v>
+      </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="89">
@@ -18929,6 +19122,17 @@
         <f>'RSOY (Raw)'!AM22 * 1440</f>
         <v>74.999999999999972</v>
       </c>
+      <c r="E28" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="89">
+        <f>MEDIAN(B24:B49)</f>
+        <v>63.50000000000005</v>
+      </c>
+      <c r="G28" s="89">
+        <f>MEDIAN(C24:C49)</f>
+        <v>104.99999999999994</v>
+      </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="89">
@@ -18939,6 +19143,17 @@
         <f>'RSOY (Raw)'!AM5 * 1440</f>
         <v>81.000000000000028</v>
       </c>
+      <c r="E29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29">
+        <f>MODE(B24:B49)</f>
+        <v>104.99999999999994</v>
+      </c>
+      <c r="G29" s="106">
+        <f>MODE(C24:C49)</f>
+        <v>104.99999999999994</v>
+      </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="89">
@@ -18949,6 +19164,17 @@
         <f>'RSOY (Raw)'!AM28 * 1440</f>
         <v>86.000000000000014</v>
       </c>
+      <c r="E30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30">
+        <f>_xlfn.STDEV.S(B24:B49)</f>
+        <v>27.344441145111389</v>
+      </c>
+      <c r="G30" s="106">
+        <f>_xlfn.STDEV.S(C24:C49)</f>
+        <v>18.21377331750724</v>
+      </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="89">
@@ -18959,6 +19185,17 @@
         <f>'RSOY (Raw)'!AM10 * 1440</f>
         <v>87.000000000000014</v>
       </c>
+      <c r="E31" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31">
+        <f>_xlfn.VAR.S(B24:B49)</f>
+        <v>747.7184615384607</v>
+      </c>
+      <c r="G31" s="106">
+        <f>_xlfn.VAR.S(C24:C49)</f>
+        <v>331.74153846153871</v>
+      </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="89">
@@ -18969,8 +19206,19 @@
         <f>'RSOY (Raw)'!AM11 * 1440</f>
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="2:3">
+      <c r="E32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32">
+        <f>KURT(B24:B49)</f>
+        <v>-1.4820628376530973</v>
+      </c>
+      <c r="G32" s="106">
+        <f>KURT(C24:C49)</f>
+        <v>2.8677376911807317</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="89">
         <f>'Duplo (Raw)'!AM27 * 1440</f>
         <v>48.999999999999986</v>
@@ -18979,8 +19227,19 @@
         <f>'RSOY (Raw)'!AM27 * 1440</f>
         <v>89</v>
       </c>
-    </row>
-    <row r="34" spans="2:3">
+      <c r="E33" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33">
+        <f>SKEW(B24:B49)</f>
+        <v>0.16550870075093296</v>
+      </c>
+      <c r="G33" s="106">
+        <f>SKEW(C24:C49)</f>
+        <v>-1.6886899202746464</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="89">
         <f>'Duplo (Raw)'!AM7 * 1440</f>
         <v>52.999999999999972</v>
@@ -18989,8 +19248,19 @@
         <f>'RSOY (Raw)'!AM20 * 1440</f>
         <v>92.000000000000071</v>
       </c>
-    </row>
-    <row r="35" spans="2:3">
+      <c r="E34" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34">
+        <f>F35-F36</f>
+        <v>77.000000000000057</v>
+      </c>
+      <c r="G34" s="106">
+        <f>G35-G36</f>
+        <v>70.000000000000156</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="89">
         <f>'Duplo (Raw)'!AM17 * 1440</f>
         <v>54.999999999999964</v>
@@ -18999,8 +19269,19 @@
         <f>'RSOY (Raw)'!AM4 * 1440</f>
         <v>104.99999999999994</v>
       </c>
-    </row>
-    <row r="36" spans="2:3">
+      <c r="E35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="89">
+        <f>MAX(B24:B49)</f>
+        <v>105.00000000000011</v>
+      </c>
+      <c r="G35" s="89">
+        <f>MAX(C24:C49)</f>
+        <v>105.00000000000011</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="89">
         <f>'Duplo (Raw)'!AM11 * 1440</f>
         <v>61.000000000000099</v>
@@ -19009,8 +19290,19 @@
         <f>'RSOY (Raw)'!AM7 * 1440</f>
         <v>104.99999999999994</v>
       </c>
-    </row>
-    <row r="37" spans="2:3">
+      <c r="E36" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="89">
+        <f>MIN(B24:B49)</f>
+        <v>28.00000000000006</v>
+      </c>
+      <c r="G36" s="89">
+        <f>MIN(C24:C49)</f>
+        <v>34.999999999999957</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="89">
         <f>'Duplo (Raw)'!AM18 * 1440</f>
         <v>66</v>
@@ -19019,8 +19311,19 @@
         <f>'RSOY (Raw)'!AM8 * 1440</f>
         <v>104.99999999999994</v>
       </c>
-    </row>
-    <row r="38" spans="2:3">
+      <c r="E37" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="89">
+        <f>SUM(B24:B49)</f>
+        <v>1741.0000000000005</v>
+      </c>
+      <c r="G37" s="89">
+        <f>SUM(C24:C49)</f>
+        <v>2410.0000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="89">
         <f>'Duplo (Raw)'!AM13 * 1440</f>
         <v>69.999999999999986</v>
@@ -19029,8 +19332,19 @@
         <f>'RSOY (Raw)'!AM13 * 1440</f>
         <v>104.99999999999994</v>
       </c>
-    </row>
-    <row r="39" spans="2:3">
+      <c r="E38" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38">
+        <f>COUNT(B24:B49)</f>
+        <v>26</v>
+      </c>
+      <c r="G38" s="106">
+        <f>COUNT(C24:C49)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="89">
         <f>'Duplo (Raw)'!AM4 * 1440</f>
         <v>74.000000000000057</v>
@@ -19039,8 +19353,19 @@
         <f>'RSOY (Raw)'!AM14 * 1440</f>
         <v>104.99999999999994</v>
       </c>
-    </row>
-    <row r="40" spans="2:3">
+      <c r="E39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F39">
+        <f>GEOMEAN(B24:B49)</f>
+        <v>61.310123422634391</v>
+      </c>
+      <c r="G39" s="106">
+        <f>GEOMEAN(C24:C49)</f>
+        <v>90.334893608702103</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="89">
         <f>'Duplo (Raw)'!AM25 * 1440</f>
         <v>78.000000000000043</v>
@@ -19049,8 +19374,19 @@
         <f>'RSOY (Raw)'!AM24 * 1440</f>
         <v>104.99999999999994</v>
       </c>
-    </row>
-    <row r="41" spans="2:3">
+      <c r="E40" t="s">
+        <v>224</v>
+      </c>
+      <c r="F40">
+        <f>HARMEAN(B24:B49)</f>
+        <v>55.7978952986875</v>
+      </c>
+      <c r="G40" s="106">
+        <f>HARMEAN(C24:C49)</f>
+        <v>86.981450680303425</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41" s="89">
         <f>'Duplo (Raw)'!AM15 * 1440</f>
         <v>84.999999999999943</v>
@@ -19059,8 +19395,19 @@
         <f>'RSOY (Raw)'!AM25 * 1440</f>
         <v>104.99999999999994</v>
       </c>
-    </row>
-    <row r="42" spans="2:3">
+      <c r="E41" t="s">
+        <v>225</v>
+      </c>
+      <c r="F41">
+        <f>AVEDEV(B24:B49)</f>
+        <v>23.958579881656799</v>
+      </c>
+      <c r="G41" s="106">
+        <f>AVEDEV(C24:C49)</f>
+        <v>14.201183431952652</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="89">
         <f>'Duplo (Raw)'!AM5 * 1440</f>
         <v>92</v>
@@ -19069,8 +19416,19 @@
         <f>'RSOY (Raw)'!AM26 * 1440</f>
         <v>104.99999999999994</v>
       </c>
-    </row>
-    <row r="43" spans="2:3">
+      <c r="E42" t="s">
+        <v>226</v>
+      </c>
+      <c r="F42">
+        <f>[1]!MAD(B24:B49)</f>
+        <v>24.500000000000028</v>
+      </c>
+      <c r="G42" s="106">
+        <f>[1]!MAD(C24:C49)</f>
+        <v>1.7053025658242404E-13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="89">
         <f>'Duplo (Raw)'!AM22 * 1440</f>
         <v>93.999999999999986</v>
@@ -19079,8 +19437,19 @@
         <f>'RSOY (Raw)'!AM6 * 1440</f>
         <v>105.00000000000003</v>
       </c>
-    </row>
-    <row r="44" spans="2:3">
+      <c r="E43" s="133" t="s">
+        <v>227</v>
+      </c>
+      <c r="F43" s="133">
+        <f>[1]!IQR(B24:B49,FALSE)</f>
+        <v>49.249999999999986</v>
+      </c>
+      <c r="G43" s="133">
+        <f>[1]!IQR(C24:C49,FALSE)</f>
+        <v>18.749999999999986</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" s="89">
         <f>'Duplo (Raw)'!AM26 * 1440</f>
         <v>96.999999999999972</v>
@@ -19090,7 +19459,7 @@
         <v>105.00000000000003</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:7">
       <c r="B45" s="89">
         <f>'Duplo (Raw)'!AM12 * 1440</f>
         <v>104.99999999999994</v>
@@ -19100,7 +19469,7 @@
         <v>105.00000000000011</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:7">
       <c r="B46" s="89">
         <f>'Duplo (Raw)'!AM14 * 1440</f>
         <v>104.99999999999994</v>
@@ -19110,7 +19479,7 @@
         <v>105.00000000000011</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:7">
       <c r="B47" s="89">
         <f>'Duplo (Raw)'!AM23 * 1440</f>
         <v>104.99999999999994</v>
@@ -19120,7 +19489,7 @@
         <v>105.00000000000011</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:7">
       <c r="B48" s="89">
         <f>'Duplo (Raw)'!AM6 * 1440</f>
         <v>105.00000000000011</v>
@@ -19141,7 +19510,7 @@
       </c>
     </row>
     <row r="53" spans="2:15">
-      <c r="O53" s="128" t="s">
+      <c r="O53" s="110" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19180,25 +19549,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="E4" s="121" t="s">
+      <c r="B4" s="114"/>
+      <c r="E4" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="107"/>
-      <c r="L4" s="121" t="s">
+      <c r="F4" s="114"/>
+      <c r="L4" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="M4" s="107"/>
+      <c r="M4" s="114"/>
     </row>
     <row r="5" spans="1:29">
       <c r="G5" s="22"/>

--- a/quantitative_analysis.xlsx
+++ b/quantitative_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\two-armed-robots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932B7B71-ED9A-4628-A0C0-0F9261441258}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD87AF3F-F737-4241-BA18-84EDA81A5216}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11963" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Duplo (Raw)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="230">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -754,6 +754,9 @@
   <si>
     <t>Std Dev</t>
   </si>
+  <si>
+    <t>ROY</t>
+  </si>
 </sst>
 </file>
 
@@ -766,11 +769,18 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -814,6 +824,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -821,6 +832,7 @@
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -828,42 +840,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF4A86E8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3C78D8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -874,6 +893,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -881,6 +901,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -889,18 +910,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1199,109 +1223,109 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="19" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="19" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="19" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="19" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="19" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="21" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="19" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="19" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="21" fontId="19" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="19" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="20" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="20" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="12" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="20" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="20" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="22" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="19" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="19" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="19" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="19" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="19" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="12" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="23" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="20" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="20" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="20" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="20" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="20" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1312,58 +1336,58 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="19" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="19" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="46" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="19" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="46" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1375,20 +1399,20 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1399,81 +1423,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="19" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="19" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3323,7 +3350,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1DD91008-715C-49C7-90A3-ADC7FBC23EA1}" type="CELLRANGE">
+                    <a:fld id="{6B3478AC-E08D-40C8-95AD-173A63F0831D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3357,7 +3384,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF596EE1-18FB-471B-A1A2-D31B28E4BB90}" type="CELLRANGE">
+                    <a:fld id="{A0C111BC-3593-4306-AADC-F55350CEE0E6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3391,7 +3418,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3058CBE3-416A-4005-BA63-75B66DEFB494}" type="CELLRANGE">
+                    <a:fld id="{FEF8CE44-8F5B-4F9D-B6F9-9F023BEE0EE8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3425,7 +3452,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B173CCB7-176A-4B45-A587-255577C5202F}" type="CELLRANGE">
+                    <a:fld id="{F96CB997-9E31-47A7-9E2F-E01E6D85D206}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3459,7 +3486,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{946AA123-925E-4F51-92C1-2D43EE6CB07F}" type="CELLRANGE">
+                    <a:fld id="{0630DD7E-1DF5-46C4-84F1-D670CC956801}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3493,7 +3520,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A49AC798-4942-48F0-A035-3199CD8A3B6A}" type="CELLRANGE">
+                    <a:fld id="{716A14DE-816D-47C9-9738-674579AD4614}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3693,7 +3720,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F64FD1FA-8F4C-4AAA-9DF7-A25E90457BBE}" type="CELLRANGE">
+                    <a:fld id="{E4983DB4-BF79-41E8-A016-5D3E3687E622}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3727,7 +3754,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD29489E-F7D0-43AC-8F78-089949462A7D}" type="CELLRANGE">
+                    <a:fld id="{8394B7D1-ADE9-4B71-8FE9-EF00A4336726}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3761,7 +3788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{834CFA64-1DA7-4BDB-B1AB-CADA7225192D}" type="CELLRANGE">
+                    <a:fld id="{477B8C91-52CF-4A86-A5B2-CD9E8DBC8714}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3795,7 +3822,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BBB2ECD6-DF3D-4B7F-BDDE-15C75E2D9B89}" type="CELLRANGE">
+                    <a:fld id="{AD1E8292-FAAF-431A-B7AF-CA9FBDB48275}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3829,7 +3856,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{384089C2-5E45-4BB8-8425-612798F00BE3}" type="CELLRANGE">
+                    <a:fld id="{91D3413C-45B7-46BA-A3BC-AD3C0478CCFC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3863,7 +3890,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE3CE294-545D-4FBA-818B-A7935DBA1250}" type="CELLRANGE">
+                    <a:fld id="{86AE4DA2-4AE9-429A-A5EA-8E69467050A4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4455,7 +4482,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B2D26E9-CF4F-4A8A-A4CE-3F6FC782AF28}" type="CELLRANGE">
+                    <a:fld id="{CC488BEB-C1B3-48C5-97C6-592B30014060}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4489,7 +4516,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9B49879-B1EC-40D5-A6F3-9830AA81B720}" type="CELLRANGE">
+                    <a:fld id="{5F722E06-E9E0-48D6-9A1A-35E22E789559}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4523,7 +4550,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05E4EADC-77DF-4A27-9450-53549F91F198}" type="CELLRANGE">
+                    <a:fld id="{1E6B5A51-CB91-4F2C-941E-4E581C6390CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4557,7 +4584,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24C86D37-F9AA-4562-A759-95C4F558CF90}" type="CELLRANGE">
+                    <a:fld id="{1AE8E06A-5192-47DE-93E0-585755E85223}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4591,7 +4618,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04EC915D-1999-4B47-A256-1420E840F935}" type="CELLRANGE">
+                    <a:fld id="{932C48C7-617F-43B5-A164-EA430F1C29C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4625,7 +4652,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A20AC2C1-E1A5-41DB-83E2-E711E852AA10}" type="CELLRANGE">
+                    <a:fld id="{3E05A002-7FAE-4A24-8B92-6E6F2A5EF041}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4854,7 +4881,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0CDADF83-B216-44E9-84D0-24A3FACBE346}" type="CELLRANGE">
+                    <a:fld id="{96C4CBCB-F3F2-48C4-89BD-51B2A4E6CC2F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4888,7 +4915,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93809E09-A482-4AE4-A67F-E49F6B9C35D5}" type="CELLRANGE">
+                    <a:fld id="{D77863D2-185B-4DB6-A1F2-84ECE2F6E2BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4922,7 +4949,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63908C07-5E7E-4E41-BCAD-5BD6E66075CC}" type="CELLRANGE">
+                    <a:fld id="{28211A58-1061-428D-8080-4D58DA9AEDB5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5543,7 +5570,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RSOY</c:v>
+                  <c:v>ROY</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7867,6 +7894,7 @@
       <sheetName val="MSSD"/>
       <sheetName val="Dict"/>
       <sheetName val="ADict"/>
+      <sheetName val="XRealStats"/>
     </sheetNames>
     <definedNames>
       <definedName name="IQR"/>
@@ -7894,6 +7922,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8298,115 +8327,115 @@
       <selection activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="38" width="20.81640625" customWidth="1"/>
-    <col min="39" max="39" width="11.54296875" customWidth="1"/>
-    <col min="40" max="40" width="24.08984375" customWidth="1"/>
-    <col min="42" max="42" width="17.1796875" customWidth="1"/>
+    <col min="1" max="38" width="20.796875" customWidth="1"/>
+    <col min="39" max="39" width="11.53125" customWidth="1"/>
+    <col min="40" max="40" width="24.06640625" customWidth="1"/>
+    <col min="42" max="42" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="14.5">
+    <row r="1" spans="1:42" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="115" t="s">
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
-      <c r="AH1" s="114"/>
-      <c r="AI1" s="114"/>
-      <c r="AJ1" s="114"/>
-      <c r="AK1" s="114"/>
-      <c r="AL1" s="114"/>
-      <c r="AM1" s="114"/>
-      <c r="AN1" s="114"/>
-    </row>
-    <row r="2" spans="1:42" ht="14.5">
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="118"/>
+    </row>
+    <row r="2" spans="1:42" ht="14.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="116" t="s">
+      <c r="E2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="117" t="s">
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="118" t="s">
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="119" t="s">
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="117" t="s">
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="114"/>
-      <c r="AH2" s="114"/>
-      <c r="AI2" s="114"/>
-      <c r="AJ2" s="114"/>
-      <c r="AK2" s="114"/>
-      <c r="AL2" s="114"/>
-      <c r="AM2" s="120" t="s">
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="118"/>
+      <c r="AM2" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="114"/>
+      <c r="AN2" s="118"/>
     </row>
     <row r="3" spans="1:42" ht="39.75" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -12372,118 +12401,118 @@
   </sheetPr>
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AD48" sqref="AD48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="38" width="20.81640625" customWidth="1"/>
-    <col min="39" max="39" width="11.54296875" customWidth="1"/>
-    <col min="40" max="40" width="61.81640625" customWidth="1"/>
-    <col min="41" max="41" width="18.36328125" customWidth="1"/>
-    <col min="42" max="42" width="16.54296875" customWidth="1"/>
+    <col min="1" max="38" width="20.796875" customWidth="1"/>
+    <col min="39" max="39" width="11.53125" customWidth="1"/>
+    <col min="40" max="40" width="61.796875" customWidth="1"/>
+    <col min="41" max="41" width="18.33203125" customWidth="1"/>
+    <col min="42" max="42" width="16.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="14.5">
+    <row r="1" spans="1:42" ht="14.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="115" t="s">
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
-      <c r="AH1" s="114"/>
-      <c r="AI1" s="114"/>
-      <c r="AJ1" s="114"/>
-      <c r="AK1" s="114"/>
-      <c r="AL1" s="114"/>
-      <c r="AM1" s="114"/>
-      <c r="AN1" s="114"/>
-    </row>
-    <row r="2" spans="1:42" ht="14.5">
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="118"/>
+    </row>
+    <row r="2" spans="1:42" ht="14.25">
       <c r="A2" s="19"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="116" t="s">
+      <c r="E2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="117" t="s">
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="118" t="s">
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="119" t="s">
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="117" t="s">
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="114"/>
-      <c r="AH2" s="114"/>
-      <c r="AI2" s="114"/>
-      <c r="AJ2" s="114"/>
-      <c r="AK2" s="114"/>
-      <c r="AL2" s="114"/>
-      <c r="AM2" s="120" t="s">
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="118"/>
+      <c r="AM2" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="114"/>
+      <c r="AN2" s="118"/>
     </row>
     <row r="3" spans="1:42" ht="39.75" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -16395,43 +16424,43 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D5577A-CBE1-4F77-992F-738935A50D96}">
   <sheetPr>
-    <tabColor theme="5"/>
+    <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" style="99" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" style="99" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" style="99" customWidth="1"/>
-    <col min="7" max="12" width="17.6328125" customWidth="1"/>
-    <col min="13" max="14" width="17.6328125" style="99" customWidth="1"/>
-    <col min="15" max="16" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="99" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" style="99" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" style="99" customWidth="1"/>
+    <col min="7" max="12" width="17.59765625" customWidth="1"/>
+    <col min="13" max="14" width="17.59765625" style="99" customWidth="1"/>
+    <col min="15" max="16" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="39.75" customHeight="1">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122" t="s">
+      <c r="E2" s="127"/>
+      <c r="F2" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="G2" s="122"/>
-      <c r="H2" s="123" t="s">
+      <c r="G2" s="128"/>
+      <c r="H2" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="123"/>
+      <c r="I2" s="129"/>
       <c r="M2"/>
       <c r="N2"/>
     </row>
@@ -17419,16 +17448,16 @@
       <c r="N29"/>
     </row>
     <row r="30" spans="2:16" s="105" customFormat="1">
-      <c r="B30" s="124" t="s">
+      <c r="B30" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="I30" s="125" t="s">
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="I30" s="126" t="s">
         <v>212</v>
       </c>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
     </row>
     <row r="31" spans="2:16" s="105" customFormat="1">
       <c r="B31" s="111" t="s">
@@ -17825,7 +17854,7 @@
       <c r="N46"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="135" t="s">
+      <c r="B47" s="115" t="s">
         <v>228</v>
       </c>
       <c r="C47" s="111">
@@ -17837,7 +17866,7 @@
         <v>5.2274914315249399</v>
       </c>
       <c r="F47"/>
-      <c r="I47" s="135" t="s">
+      <c r="I47" s="115" t="s">
         <v>228</v>
       </c>
       <c r="J47" s="111">
@@ -17914,17 +17943,17 @@
       <c r="N51"/>
     </row>
     <row r="52" spans="2:14">
-      <c r="B52" s="124" t="s">
+      <c r="B52" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="C52" s="124"/>
-      <c r="D52" s="124"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="125"/>
       <c r="F52"/>
-      <c r="I52" s="124" t="s">
+      <c r="I52" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="J52" s="124"/>
-      <c r="K52" s="124"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="125"/>
       <c r="M52"/>
       <c r="N52"/>
     </row>
@@ -18317,7 +18346,7 @@
       <c r="N68"/>
     </row>
     <row r="69" spans="2:14">
-      <c r="B69" s="135" t="s">
+      <c r="B69" s="115" t="s">
         <v>228</v>
       </c>
       <c r="C69" s="111">
@@ -18329,7 +18358,7 @@
         <v>6.3266631541964262</v>
       </c>
       <c r="F69"/>
-      <c r="I69" s="135" t="s">
+      <c r="I69" s="115" t="s">
         <v>228</v>
       </c>
       <c r="J69" s="111">
@@ -18654,36 +18683,36 @@
   </sheetPr>
   <dimension ref="B2:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="14" width="15.6328125" customWidth="1"/>
+    <col min="2" max="14" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="93"/>
@@ -18765,15 +18794,15 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="95"/>
@@ -18855,26 +18884,26 @@
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="133" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="134" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="100"/>
@@ -18944,15 +18973,15 @@
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="104"/>
@@ -19026,17 +19055,17 @@
       <c r="G21" s="110"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="129" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="123"/>
+      <c r="C22" s="129"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="109" t="s">
-        <v>156</v>
+      <c r="C23" s="116" t="s">
+        <v>229</v>
       </c>
       <c r="E23" t="s">
         <v>214</v>
@@ -19061,14 +19090,14 @@
         <f>'RSOY (Raw)'!AM23 * 1440</f>
         <v>57.000000000000036</v>
       </c>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134" t="str">
+      <c r="E25" s="114"/>
+      <c r="F25" s="114" t="str">
         <f>B23</f>
         <v>Duplo</v>
       </c>
-      <c r="G25" s="134" t="str">
+      <c r="G25" s="114" t="str">
         <f>C23</f>
-        <v>RSOY</v>
+        <v>ROY</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -19437,14 +19466,14 @@
         <f>'RSOY (Raw)'!AM6 * 1440</f>
         <v>105.00000000000003</v>
       </c>
-      <c r="E43" s="133" t="s">
+      <c r="E43" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="F43" s="133">
+      <c r="F43" s="113">
         <f>[1]!IQR(B24:B49,FALSE)</f>
         <v>49.249999999999986</v>
       </c>
-      <c r="G43" s="133">
+      <c r="G43" s="113">
         <f>[1]!IQR(C24:C49,FALSE)</f>
         <v>18.749999999999986</v>
       </c>
@@ -19542,32 +19571,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="4" max="4" width="3" customWidth="1"/>
     <col min="11" max="11" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:29">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="135" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="135" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="E4" s="132" t="s">
+      <c r="B4" s="118"/>
+      <c r="E4" s="136" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="114"/>
-      <c r="L4" s="132" t="s">
+      <c r="F4" s="118"/>
+      <c r="L4" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="M4" s="114"/>
+      <c r="M4" s="118"/>
     </row>
     <row r="5" spans="1:29">
       <c r="G5" s="22"/>
@@ -20869,9 +20898,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -22813,9 +22842,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/quantitative_analysis.xlsx
+++ b/quantitative_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\two-armed-robots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72CA202-8990-416A-BC92-35BC1658600E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574C5369-C68E-48F4-A354-58EEDABE4ACE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17063" windowHeight="7695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17063" windowHeight="7703" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Duplo (Raw)" sheetId="1" r:id="rId1"/>
@@ -27,22 +27,23 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Program Analysis'!$B$37</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Program Analysis'!$B$38</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Program Analysis'!$B$39</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Program Analysis'!$B$40</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Program Analysis'!$C$36:$D$36</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Program Analysis'!$C$37:$D$37</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Program Analysis'!$C$38:$D$38</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Program Analysis'!$C$39:$D$39</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Program Analysis'!$C$40:$D$40</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Program Analysis'!$B$81</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Program Analysis'!$B$82</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Program Analysis'!$B$83</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Program Analysis'!$B$84</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Program Analysis'!$C$80:$D$80</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Program Analysis'!$C$81:$D$81</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Program Analysis'!$C$82:$D$82</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Program Analysis'!$C$83:$D$83</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Program Analysis'!$C$84:$D$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="234">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -717,9 +718,6 @@
     <t># Predicted Collisions</t>
   </si>
   <si>
-    <t># Robot Collisions</t>
-  </si>
-  <si>
     <t>Descriptive Statistics</t>
   </si>
   <si>
@@ -762,9 +760,6 @@
     <t>IQR</t>
   </si>
   <si>
-    <t>Std Dev</t>
-  </si>
-  <si>
     <t>ROY</t>
   </si>
   <si>
@@ -801,11 +796,18 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1142,7 +1144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1278,189 +1280,112 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="19" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="19" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="19" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="19" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="19" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="21" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="22" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="22" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="14" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="21" fontId="22" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="22" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="23" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="23" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="15" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="23" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="23" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="14" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="25" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="22" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="22" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="22" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="22" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="22" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="15" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="26" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="23" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="23" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="23" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="23" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="23" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1471,58 +1396,58 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="19" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="19" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="46" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="19" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="46" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1534,20 +1459,20 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1558,112 +1483,115 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="19" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="19" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="19" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="29" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2021,7 +1949,7 @@
         <c:axId val="1176041392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40"/>
+          <c:max val="90"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2057,7 +1985,7 @@
         <c:crossAx val="1198167040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2103,6 +2031,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2116,7 +2045,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$B$34</c:f>
+              <c:f>'Program Analysis'!$B$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2140,7 +2069,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$C$33:$D$33</c:f>
+              <c:f>'Program Analysis'!$C$58:$D$58</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2154,22 +2083,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Programming Obstacles'!$C$34:$D$34</c:f>
+              <c:f>'Program Analysis'!$C$59:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5FED-4BF4-9426-34B6F71A3FC9}"/>
+              <c16:uniqueId val="{00000000-D6D3-442B-A28A-A26DF7ACBCAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2178,7 +2107,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$B$35</c:f>
+              <c:f>'Program Analysis'!$B$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2206,12 +2135,12 @@
             <c:noEndCap val="0"/>
             <c:val val="100"/>
             <c:spPr>
-              <a:ln w="19050"/>
+              <a:ln w="28575"/>
             </c:spPr>
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$C$33:$D$33</c:f>
+              <c:f>'Program Analysis'!$C$58:$D$58</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2225,22 +2154,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Programming Obstacles'!$C$35:$D$35</c:f>
+              <c:f>'Program Analysis'!$C$60:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>21.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5FED-4BF4-9426-34B6F71A3FC9}"/>
+              <c16:uniqueId val="{00000001-D6D3-442B-A28A-A26DF7ACBCAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2249,7 +2178,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$B$36</c:f>
+              <c:f>'Program Analysis'!$B$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2259,7 +2188,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050">
+            <a:ln w="28575">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2268,7 +2197,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$C$33:$D$33</c:f>
+              <c:f>'Program Analysis'!$C$58:$D$58</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2282,22 +2211,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Programming Obstacles'!$C$36:$D$36</c:f>
+              <c:f>'Program Analysis'!$C$61:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5FED-4BF4-9426-34B6F71A3FC9}"/>
+              <c16:uniqueId val="{00000002-D6D3-442B-A28A-A26DF7ACBCAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2306,7 +2235,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$B$37</c:f>
+              <c:f>'Program Analysis'!$B$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2319,7 +2248,7 @@
             <a:solidFill>
               <a:srgbClr val="FFDE53"/>
             </a:solidFill>
-            <a:ln w="19050">
+            <a:ln w="28575">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2332,26 +2261,26 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Programming Obstacles'!$C$38:$D$38</c:f>
+                <c:f>'Program Analysis'!$C$63:$D$63</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>8</c:v>
+                    <c:v>7</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>12</c:v>
+                    <c:v>21.25</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:spPr>
-              <a:ln w="19050"/>
+              <a:ln w="28575"/>
             </c:spPr>
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$C$33:$D$33</c:f>
+              <c:f>'Program Analysis'!$C$58:$D$58</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2365,22 +2294,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Programming Obstacles'!$C$37:$D$37</c:f>
+              <c:f>'Program Analysis'!$C$62:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5FED-4BF4-9426-34B6F71A3FC9}"/>
+              <c16:uniqueId val="{00000003-D6D3-442B-A28A-A26DF7ACBCAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2392,7 +2321,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="50"/>
         <c:overlap val="100"/>
         <c:axId val="1198167040"/>
         <c:axId val="1176041392"/>
@@ -2419,7 +2348,7 @@
         <c:axId val="1176041392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40"/>
+          <c:max val="90"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2436,8 +2365,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="0"/>
-                  <a:t>Occurrences</a:t>
+                  <a:t>#</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t> Blocks / Lines</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2450,7 +2384,7 @@
         <c:crossAx val="1198167040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2462,14 +2396,8 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -2506,17 +2434,7 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21079834296804514"/>
-          <c:y val="5.7291643171078092E-2"/>
-          <c:w val="0.72859960570081128"/>
-          <c:h val="0.5831940685719863"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -2526,7 +2444,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$B$56</c:f>
+              <c:f>'Program Analysis'!$B$81</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2550,7 +2468,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$C$55:$D$55</c:f>
+              <c:f>'Program Analysis'!$C$80:$D$80</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2564,22 +2482,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Programming Obstacles'!$C$56:$D$56</c:f>
+              <c:f>'Program Analysis'!$C$81:$D$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5FED-4BF4-9426-34B6F71A3FC9}"/>
+              <c16:uniqueId val="{00000000-D6D3-442B-A28A-A26DF7ACBCAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2588,7 +2506,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$B$57</c:f>
+              <c:f>'Program Analysis'!$B$82</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2616,12 +2534,12 @@
             <c:noEndCap val="0"/>
             <c:val val="100"/>
             <c:spPr>
-              <a:ln w="19050"/>
+              <a:ln w="28575"/>
             </c:spPr>
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$C$55:$D$55</c:f>
+              <c:f>'Program Analysis'!$C$80:$D$80</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2635,22 +2553,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Programming Obstacles'!$C$57:$D$57</c:f>
+              <c:f>'Program Analysis'!$C$82:$D$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>14.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5FED-4BF4-9426-34B6F71A3FC9}"/>
+              <c16:uniqueId val="{00000001-D6D3-442B-A28A-A26DF7ACBCAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2659,7 +2577,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$B$58</c:f>
+              <c:f>'Program Analysis'!$B$83</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2669,7 +2587,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050">
+            <a:ln w="28575">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2678,7 +2596,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$C$55:$D$55</c:f>
+              <c:f>'Program Analysis'!$C$80:$D$80</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2692,22 +2610,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Programming Obstacles'!$C$58:$D$58</c:f>
+              <c:f>'Program Analysis'!$C$83:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5FED-4BF4-9426-34B6F71A3FC9}"/>
+              <c16:uniqueId val="{00000002-D6D3-442B-A28A-A26DF7ACBCAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2716,7 +2634,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$B$59</c:f>
+              <c:f>'Program Analysis'!$B$84</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2727,12 +2645,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="70AD47">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:srgbClr>
+              <a:srgbClr val="FFDE53"/>
             </a:solidFill>
-            <a:ln w="19050">
+            <a:ln w="28575">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2745,26 +2660,26 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Programming Obstacles'!$C$60:$D$60</c:f>
+                <c:f>'Program Analysis'!$C$85:$D$85</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>15</c:v>
+                    <c:v>39</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>14</c:v>
+                    <c:v>17.25</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:spPr>
-              <a:ln w="19050"/>
+              <a:ln w="28575"/>
             </c:spPr>
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$C$55:$D$55</c:f>
+              <c:f>'Program Analysis'!$C$80:$D$80</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2778,59 +2693,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Programming Obstacles'!$C$59:$D$59</c:f>
+              <c:f>'Program Analysis'!$C$84:$D$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5FED-4BF4-9426-34B6F71A3FC9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>x</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:solidFill>
-                    <a:srgbClr val="4472C4"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Programming Obstacles'!$C$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AF8B-473E-A1F4-D055AACAA33D}"/>
+              <c16:uniqueId val="{00000003-D6D3-442B-A28A-A26DF7ACBCAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2842,7 +2720,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="50"/>
         <c:overlap val="100"/>
         <c:axId val="1198167040"/>
         <c:axId val="1176041392"/>
@@ -2869,7 +2747,7 @@
         <c:axId val="1176041392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40"/>
+          <c:max val="90"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2885,12 +2763,9 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Occurrences</a:t>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t># Executions</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2903,7 +2778,7 @@
         <c:crossAx val="1198167040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2953,17 +2828,7 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21079834296804514"/>
-          <c:y val="5.7291643171078092E-2"/>
-          <c:w val="0.72859960570081128"/>
-          <c:h val="0.5831940685719863"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -2973,7 +2838,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$I$34</c:f>
+              <c:f>'Programming Obstacles'!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2997,7 +2862,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$J$33:$K$33</c:f>
+              <c:f>'Programming Obstacles'!$C$34:$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3011,7 +2876,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Programming Obstacles'!$J$34:$K$34</c:f>
+              <c:f>'Programming Obstacles'!$C$35:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3019,14 +2884,14 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5FED-4BF4-9426-34B6F71A3FC9}"/>
+              <c16:uniqueId val="{00000000-D6D3-442B-A28A-A26DF7ACBCAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3035,7 +2900,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$I$35</c:f>
+              <c:f>'Programming Obstacles'!$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3065,7 +2930,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$J$33:$K$33</c:f>
+              <c:f>'Programming Obstacles'!$C$34:$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3079,22 +2944,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Programming Obstacles'!$J$35:$K$35</c:f>
+              <c:f>'Programming Obstacles'!$C$36:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5FED-4BF4-9426-34B6F71A3FC9}"/>
+              <c16:uniqueId val="{00000001-D6D3-442B-A28A-A26DF7ACBCAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3103,7 +2968,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$I$36</c:f>
+              <c:f>'Programming Obstacles'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3113,7 +2978,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050">
+            <a:ln w="28575">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3122,7 +2987,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$J$33:$K$33</c:f>
+              <c:f>'Programming Obstacles'!$C$34:$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3136,22 +3001,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Programming Obstacles'!$J$36:$K$36</c:f>
+              <c:f>'Programming Obstacles'!$C$37:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5FED-4BF4-9426-34B6F71A3FC9}"/>
+              <c16:uniqueId val="{00000002-D6D3-442B-A28A-A26DF7ACBCAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3160,7 +3025,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$I$37</c:f>
+              <c:f>'Programming Obstacles'!$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3171,9 +3036,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="F09252"/>
+              <a:srgbClr val="FFDE53"/>
             </a:solidFill>
-            <a:ln w="19050">
+            <a:ln w="28575">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3186,26 +3051,23 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Programming Obstacles'!$J$38:$K$38</c:f>
+                <c:f>'Programming Obstacles'!$C$39:$D$39</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>3</c:v>
+                    <c:v>8.25</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6</c:v>
+                    <c:v>12</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
-            <c:spPr>
-              <a:ln w="19050"/>
-            </c:spPr>
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Programming Obstacles'!$J$33:$K$33</c:f>
+              <c:f>'Programming Obstacles'!$C$34:$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3219,22 +3081,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Programming Obstacles'!$J$37:$K$37</c:f>
+              <c:f>'Programming Obstacles'!$C$38:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5FED-4BF4-9426-34B6F71A3FC9}"/>
+              <c16:uniqueId val="{00000003-D6D3-442B-A28A-A26DF7ACBCAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3246,7 +3108,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="50"/>
         <c:overlap val="100"/>
         <c:axId val="1198167040"/>
         <c:axId val="1176041392"/>
@@ -3289,11 +3151,847 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t> Occurrences</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1198167040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Programming Obstacles'!$B$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="4472C4"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Programming Obstacles'!$C$56:$D$56</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Duplo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ROY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Programming Obstacles'!$C$57:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6D3-442B-A28A-A26DF7ACBCAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Programming Obstacles'!$B$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1-Min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="ED7D31"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="100"/>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Programming Obstacles'!$C$56:$D$56</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Duplo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ROY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Programming Obstacles'!$C$58:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D6D3-442B-A28A-A26DF7ACBCAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Programming Obstacles'!$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Med-Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Programming Obstacles'!$C$56:$D$56</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Duplo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ROY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Programming Obstacles'!$C$59:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D6D3-442B-A28A-A26DF7ACBCAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Programming Obstacles'!$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q3-Med</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFDE53"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Programming Obstacles'!$C$61:$D$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>15.25</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14.25</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Programming Obstacles'!$C$56:$D$56</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Duplo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ROY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Programming Obstacles'!$C$60:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D6D3-442B-A28A-A26DF7ACBCAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="1198167040"/>
+        <c:axId val="1176041392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1198167040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1176041392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1176041392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Occurrences</a:t>
+                  <a:t># Occurrences</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1198167040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Programming Obstacles'!$B$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="4472C4"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Programming Obstacles'!$C$78:$D$78</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Duplo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ROY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Programming Obstacles'!$C$79:$D$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6D3-442B-A28A-A26DF7ACBCAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Programming Obstacles'!$B$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1-Min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="ED7D31"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="100"/>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Programming Obstacles'!$C$78:$D$78</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Duplo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ROY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Programming Obstacles'!$C$80:$D$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D6D3-442B-A28A-A26DF7ACBCAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Programming Obstacles'!$B$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Med-Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Programming Obstacles'!$C$78:$D$78</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Duplo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ROY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Programming Obstacles'!$C$81:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D6D3-442B-A28A-A26DF7ACBCAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Programming Obstacles'!$B$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q3-Med</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFDE53"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Programming Obstacles'!$C$83:$D$83</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>3.25</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Programming Obstacles'!$C$78:$D$78</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Duplo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ROY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Programming Obstacles'!$C$82:$D$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D6D3-442B-A28A-A26DF7ACBCAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="1198167040"/>
+        <c:axId val="1176041392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1198167040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1176041392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1176041392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t># Occurrences</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
@@ -3340,7 +4038,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3442,7 +4140,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6977CAD2-A7CC-4C5A-8937-508736AFA51C}" type="CELLRANGE">
+                    <a:fld id="{D0A46BA0-4A08-40F0-A0AE-7790041D7631}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3476,7 +4174,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1625F45-0B5D-4A6F-B4DD-523CD53B25A9}" type="CELLRANGE">
+                    <a:fld id="{ED9ACDB1-9152-42AE-888A-B4586C4E3746}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3510,7 +4208,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AD0BBAD-EB59-4C8C-B943-61DDA250A110}" type="CELLRANGE">
+                    <a:fld id="{5EB69A25-5007-4325-8D30-48B5C5148A84}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3544,7 +4242,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DE7B2E6-5295-4EA9-8716-96EC08E59A68}" type="CELLRANGE">
+                    <a:fld id="{DA37CCB2-DE29-4D1C-9277-F9D1BCE577FD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3578,7 +4276,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FDC98A73-5718-4883-A4A4-E32CCFABFC44}" type="CELLRANGE">
+                    <a:fld id="{A7FF4E6F-177F-4251-BADC-63003C35F6D5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3612,7 +4310,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8A181E5-F374-4065-A12D-2C0D86BACC62}" type="CELLRANGE">
+                    <a:fld id="{F0279E4A-E90B-4AF9-BB13-8CD06EA221DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3812,7 +4510,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D474E02C-5883-45A2-8E5A-7A380C6D82BD}" type="CELLRANGE">
+                    <a:fld id="{0BA5C295-9DFF-4603-BBC7-9C5EBA93C723}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3846,7 +4544,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F79C267-AC47-416E-8AF0-2344A5086FBF}" type="CELLRANGE">
+                    <a:fld id="{23A8F91B-CB01-4F72-89BF-DD809943C6E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3880,7 +4578,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{215A6860-8463-4E66-9FD4-DB7F7015EFC7}" type="CELLRANGE">
+                    <a:fld id="{A74935B1-E7B2-482F-A738-F45EC5CACF88}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3914,7 +4612,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0676E8A3-5879-4B2F-954B-2FD39E3C2A55}" type="CELLRANGE">
+                    <a:fld id="{12A95C65-4E8D-46A2-A197-E9A9B14955EB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3948,7 +4646,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C22D4850-518E-44CA-85E4-B784B6750282}" type="CELLRANGE">
+                    <a:fld id="{234AE6F2-FB32-40E2-B5D6-07EFA0BCE739}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3982,7 +4680,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2AE7995F-CFE5-4910-A633-F3C909C9AD9C}" type="CELLRANGE">
+                    <a:fld id="{9CF94C53-D4E1-4217-A564-AA234C04D862}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4463,7 +5161,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4574,7 +5272,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59FD89FA-8377-4C40-BC51-B677EDABB7C5}" type="CELLRANGE">
+                    <a:fld id="{5EFE5548-15CA-4BBE-B847-6CC93443F788}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4608,7 +5306,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD4DB48F-36CF-4DF7-B3EE-B16FB76729FA}" type="CELLRANGE">
+                    <a:fld id="{8546F420-128E-4FBA-8055-A73AF5D051B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4642,7 +5340,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7F69468-A9AD-4253-92D0-D1BDD1EC7648}" type="CELLRANGE">
+                    <a:fld id="{34239542-002D-471E-A0CB-238B35C282E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4676,7 +5374,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CD9D805-67A7-4ACD-9E57-F11090FFE5BE}" type="CELLRANGE">
+                    <a:fld id="{814AAE3E-1828-49B2-BCFB-EE5B995B538C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4710,7 +5408,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{824A7CCA-7AA5-4361-8E7F-E20C6A55E2D4}" type="CELLRANGE">
+                    <a:fld id="{82F00E20-36B5-43E0-B08F-4E89FCAD0291}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4744,7 +5442,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4DC6B51E-5E31-48D8-98F0-3CEA3D1E68D4}" type="CELLRANGE">
+                    <a:fld id="{798ED0A2-E685-496F-B2EF-1C913255D962}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4973,7 +5671,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77D732FC-850B-4DC7-A8AB-82F474E2A32A}" type="CELLRANGE">
+                    <a:fld id="{71087802-C5FD-4F68-A938-DACEE4C7C4A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5007,7 +5705,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F0A066A-3B10-44C9-8C49-689CA2D0ACFA}" type="CELLRANGE">
+                    <a:fld id="{E591ADB2-1F93-4D5B-823B-47A68368FF05}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5041,7 +5739,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44BC668C-8E88-4483-B733-6C5977907AE2}" type="CELLRANGE">
+                    <a:fld id="{1AB52795-A514-433C-A35C-CC4A5AA2688C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5515,7 +6213,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6095,7 +6793,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{266CC5AB-FBBF-40D6-848C-8AB890C616FF}" type="CELLRANGE">
+                    <a:fld id="{3D115C59-A363-488F-9F08-EF0E38BBAF6F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6128,7 +6826,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F813055F-9A90-4F5D-BA4C-0197BF301A0A}" type="CELLRANGE">
+                    <a:fld id="{F902752F-6483-4B9D-A114-ACB07218BC48}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6162,7 +6860,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9CF37503-DA67-43E5-A91A-43169EAE4427}" type="CELLRANGE">
+                    <a:fld id="{6E7C2A46-B4F3-412A-9F93-3FB8C1EB1FAA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6196,7 +6894,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC653E55-4F14-40D0-A8B1-BE9FB1A0C1DB}" type="CELLRANGE">
+                    <a:fld id="{89AE1E0E-013A-4151-8C7F-C8D016A0F597}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6230,7 +6928,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3858F41B-943F-4CA6-A960-6532162479C3}" type="CELLRANGE">
+                    <a:fld id="{9014BEE9-122A-4FE0-B1AF-A8A11111423B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6264,7 +6962,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4AA7C06-EC7D-43A4-A82C-6CFFF16D9DA6}" type="CELLRANGE">
+                    <a:fld id="{FA4DC584-3836-4510-AE8F-E9DC783AA552}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6298,7 +6996,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C72B50D-51AD-41A3-B1CB-2887D44FA145}" type="CELLRANGE">
+                    <a:fld id="{B03D3895-A15C-4318-A22A-BAB7C0D467B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6332,7 +7030,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEF2A149-0417-4455-8F28-30DF3C51974A}" type="CELLRANGE">
+                    <a:fld id="{063B9292-514B-4E37-AB5E-EB3DE46411F5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6366,7 +7064,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93847D73-A790-4378-A658-B2248C81E604}" type="CELLRANGE">
+                    <a:fld id="{0620491E-D712-4118-8DBA-4AC85EEE8857}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6400,7 +7098,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2B6037F-E78A-449A-A198-F5AE784D5EA5}" type="CELLRANGE">
+                    <a:fld id="{9CB8780A-B720-4E23-86E7-253516F2D24D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6434,7 +7132,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A64200D-C18B-4BCE-AE18-F77577937384}" type="CELLRANGE">
+                    <a:fld id="{A7E7C959-E3FA-45E4-BA76-2C0D0242D453}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6468,7 +7166,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E66EA4DE-ADD9-4763-99D1-BB22A4B3A864}" type="CELLRANGE">
+                    <a:fld id="{405552EB-EFA3-4A49-8264-163D25F0E927}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6502,7 +7200,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{735BBC90-4941-4571-9DBB-0C0DFB8E211F}" type="CELLRANGE">
+                    <a:fld id="{5099A640-62CC-463D-8E11-07B851E981FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6536,7 +7234,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A92BF812-AED0-4625-A1C4-6F55EBD1AEFE}" type="CELLRANGE">
+                    <a:fld id="{CA03D0A1-6897-486B-B3DD-CB76E52BB2B1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6570,7 +7268,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09B325E9-BAD5-488E-9CB4-0DD4B9090E71}" type="CELLRANGE">
+                    <a:fld id="{82700AE4-567D-4041-8791-130F6AEE9977}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6604,7 +7302,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6077ED33-6B0C-4E61-8A79-6AE7D3DE3462}" type="CELLRANGE">
+                    <a:fld id="{ADE5D8C6-2481-4874-A9A5-2EFC5561E621}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6638,7 +7336,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEF8699C-875F-4EDE-9F2A-BDA25BE11F1E}" type="CELLRANGE">
+                    <a:fld id="{B401C86F-2963-4133-87C0-D831A82F620E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6672,7 +7370,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D4C7F13-D615-455F-9CC3-E65C96009B61}" type="CELLRANGE">
+                    <a:fld id="{93486C2B-5113-406C-A7F7-4A5FCFE3738C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6706,7 +7404,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{090542E0-0F03-4CF7-B713-680E30859D6E}" type="CELLRANGE">
+                    <a:fld id="{6811443A-8C31-426C-B116-55D014E41738}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6740,7 +7438,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF64D3F1-1328-4EF2-8C05-D003487EFB60}" type="CELLRANGE">
+                    <a:fld id="{2F2F1F43-CEED-4C7A-A547-0E761D3E863F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6774,7 +7472,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79B73C28-622C-4954-BE70-E28FDF4E1F5B}" type="CELLRANGE">
+                    <a:fld id="{76E0E867-84DC-4622-B308-EF966F2ABDCF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6808,7 +7506,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50A82585-7EEF-4AC3-8602-9CF2002C6D72}" type="CELLRANGE">
+                    <a:fld id="{33FF837D-7C34-462F-82D1-73F758410A4A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6842,7 +7540,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9470B1E-6FC6-4C59-9760-697691F81A29}" type="CELLRANGE">
+                    <a:fld id="{034F06D7-31AA-409E-92C1-0E9DAF150595}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6876,7 +7574,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06A03385-0E13-4B37-A4CF-31E04CCAE3F2}" type="CELLRANGE">
+                    <a:fld id="{4931ECEC-5109-4D21-B77F-DD8B908703EB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6910,7 +7608,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FB4C770-E162-4294-8BA8-799DB5679956}" type="CELLRANGE">
+                    <a:fld id="{34751890-489A-467A-B3B2-C751E7041E06}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6944,7 +7642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97A8FE90-675D-427B-ABDD-0D1A919EDD29}" type="CELLRANGE">
+                    <a:fld id="{0569AEFE-59F4-4EAC-B939-EB47B846CE68}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6978,7 +7676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9E0F9CA-3B90-4795-BEBD-0D9371D16E7B}" type="CELLRANGE">
+                    <a:fld id="{1B86B754-245A-4C59-9DE8-5A8CC3B7F062}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7012,7 +7710,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1711FB60-1607-4458-981F-F07E36F6A849}" type="CELLRANGE">
+                    <a:fld id="{2F2A0D7F-A3D4-4AD8-AB8B-A38AAAAAF96B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7046,7 +7744,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9771DC4C-BB2C-47A9-92ED-250520649BA7}" type="CELLRANGE">
+                    <a:fld id="{FE92F7B7-15A4-4163-B8DA-5E26B4BC128A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7080,7 +7778,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{720386EC-54DA-4B1F-A9D9-50A96758DF81}" type="CELLRANGE">
+                    <a:fld id="{FA2C92D3-3FF2-4881-8F6B-ED4AD6BB3EE8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7114,7 +7812,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF3992F6-8FE6-470E-BB5E-3E049EA1536B}" type="CELLRANGE">
+                    <a:fld id="{AC0710F9-98D0-4DAE-96B5-FFD543DE3765}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7148,7 +7846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5CAF830-B20A-4F58-B451-53CB4698B704}" type="CELLRANGE">
+                    <a:fld id="{F6619F7E-356D-469F-AD98-E64859C1C291}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7182,7 +7880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DEC39A3-A484-437B-91A1-162499EC081A}" type="CELLRANGE">
+                    <a:fld id="{D5A41245-BDBA-4990-93A0-E5F4B45E038E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7216,7 +7914,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8661DD6E-CCDE-491E-95A8-856FD6E2DAB9}" type="CELLRANGE">
+                    <a:fld id="{B8D091B0-5CED-48FD-BB0E-58EAD6B04E61}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7250,7 +7948,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41D6997E-4A02-4A1C-9A45-4EDA293A4FCA}" type="CELLRANGE">
+                    <a:fld id="{E2039F55-7509-4AF0-B325-FF2C99AA5754}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7284,7 +7982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DECAB25A-A1E2-42DA-AFF7-6F290EF75BB6}" type="CELLRANGE">
+                    <a:fld id="{12C199A2-BD39-4993-8A85-E13DAC773DCB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7318,7 +8016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A7CB7FE-73A5-4DC4-ACEF-CD8AB2163696}" type="CELLRANGE">
+                    <a:fld id="{EE62BC1B-F371-4A60-ABCC-324FDB5F980A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7352,7 +8050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F545FF0E-5AB5-40E9-8198-DD52E765D6CC}" type="CELLRANGE">
+                    <a:fld id="{D5A1220E-E90C-4436-BD67-3C2BDCB0EEFB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7386,7 +8084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBB47978-30F3-4EED-9262-FD8EF08E1020}" type="CELLRANGE">
+                    <a:fld id="{E3F46790-44F0-475F-8568-A7E9CB02B88E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7420,7 +8118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D03A61D-C980-4676-A4C4-9C5D4237786D}" type="CELLRANGE">
+                    <a:fld id="{D94C523B-062C-4E62-89C5-0DF6311B9EC9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7454,7 +8152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A46E586E-7FE3-4FBE-825D-3CDA13A6E256}" type="CELLRANGE">
+                    <a:fld id="{A83011CE-C3BD-4A52-8CE7-442EEFEC1243}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7488,7 +8186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11417739-EED2-437B-ABB7-B294AEE86387}" type="CELLRANGE">
+                    <a:fld id="{934CE096-E079-41C2-90BD-BF3E5A7C8288}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7522,7 +8220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFBB51B3-3F87-4F45-9940-EBF1A165D9EB}" type="CELLRANGE">
+                    <a:fld id="{21E42B8B-666D-4551-B349-37753841941D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7556,7 +8254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5A9602A-E119-4BBE-92D5-7907CC0190B4}" type="CELLRANGE">
+                    <a:fld id="{795DE472-CD0E-42F2-BD95-40FCF4586D59}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7590,7 +8288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55F5E604-0999-4383-B3ED-730ACC71D805}" type="CELLRANGE">
+                    <a:fld id="{3E636778-EEAE-40DB-8FA8-0A54224FF5CA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7624,7 +8322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{542CCA51-C2C8-4A30-9315-A5B51992209F}" type="CELLRANGE">
+                    <a:fld id="{A50E691B-E186-4BA6-90A9-70437DF1FD42}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7658,7 +8356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCD75D55-0F12-4F6E-AABE-8925BD101FAA}" type="CELLRANGE">
+                    <a:fld id="{528D6575-CCEE-483C-B275-2F200251C648}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7692,7 +8390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BDAA127-9BA3-49E8-9D33-0B911E7C83CA}" type="CELLRANGE">
+                    <a:fld id="{280DDC04-5A1D-4982-B745-00A5353825E6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7726,7 +8424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9C08D10-7C06-40A1-AD55-58E023DE5128}" type="CELLRANGE">
+                    <a:fld id="{A9698047-9D2D-4F87-ABA6-5C7E35A4FB93}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7760,7 +8458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB9992B8-2EAC-4786-B938-F2E816D7241D}" type="CELLRANGE">
+                    <a:fld id="{D44B46DA-C304-45A3-97AA-C921D44716BD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7794,7 +8492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2D9B0C1-A425-4B4D-975D-43FED56D0CAE}" type="CELLRANGE">
+                    <a:fld id="{32478E20-01DE-4C55-B883-9A3D72BFA0C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7828,7 +8526,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CAF20180-AAB6-4D7E-90E4-759A90A4509B}" type="CELLRANGE">
+                    <a:fld id="{A4389403-5A1F-4FD7-A184-D93EDB5FB6B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10169,6 +10867,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>555530</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>110377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>890027</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>15968</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DD57F3-56E8-45DC-9220-7F9167BD8D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>896469</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>47904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1299883</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>76479</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3952E906-C5E3-45F9-8F6F-404FA40962BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10177,22 +10947,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104773</xdr:rowOff>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>273049</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>149224</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23448104-96C1-4A1B-B092-3807ABD141D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F6F362-7273-4BD6-8906-4017104B70CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10213,22 +10983,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>58735</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55604A0-C910-465B-922C-E39B1E928621}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDC306A-D3A6-4C68-AA91-682D9036149D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10248,23 +11018,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>444499</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6FE03A0-5140-49F0-A55E-77A61EB5F88F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F11668D-88F6-4192-A6C6-57CC489F73D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10920,18 +11690,18 @@
 
 <file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
 <a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Sheets">
+  <a:clrScheme name="Office Theme">
     <a:dk1>
-      <a:srgbClr val="000000"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:dk1>
     <a:lt1>
-      <a:srgbClr val="FFFFFF"/>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
     </a:lt1>
     <a:dk2>
-      <a:srgbClr val="000000"/>
+      <a:srgbClr val="44546A"/>
     </a:dk2>
     <a:lt2>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="E7E6E6"/>
     </a:lt2>
     <a:accent1>
       <a:srgbClr val="4472C4"/>
@@ -10955,22 +11725,82 @@
       <a:srgbClr val="0563C1"/>
     </a:hlink>
     <a:folHlink>
-      <a:srgbClr val="0563C1"/>
+      <a:srgbClr val="954F72"/>
     </a:folHlink>
   </a:clrScheme>
-  <a:fontScheme name="Sheets">
+  <a:fontScheme name="Office Theme">
     <a:majorFont>
-      <a:latin typeface="Calibri"/>
-      <a:ea typeface="Calibri"/>
-      <a:cs typeface="Calibri"/>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Angsana New"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
     </a:majorFont>
     <a:minorFont>
-      <a:latin typeface="Calibri"/>
-      <a:ea typeface="Calibri"/>
-      <a:cs typeface="Calibri"/>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Cordia New"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
     </a:minorFont>
   </a:fontScheme>
-  <a:fmtScheme name="Office">
+  <a:fmtScheme name="Office Theme">
     <a:fillStyleLst>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
@@ -11112,18 +11942,18 @@
 
 <file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
 <a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Sheets">
+  <a:clrScheme name="Office Theme">
     <a:dk1>
-      <a:srgbClr val="000000"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:dk1>
     <a:lt1>
-      <a:srgbClr val="FFFFFF"/>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
     </a:lt1>
     <a:dk2>
-      <a:srgbClr val="000000"/>
+      <a:srgbClr val="44546A"/>
     </a:dk2>
     <a:lt2>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="E7E6E6"/>
     </a:lt2>
     <a:accent1>
       <a:srgbClr val="4472C4"/>
@@ -11147,22 +11977,82 @@
       <a:srgbClr val="0563C1"/>
     </a:hlink>
     <a:folHlink>
-      <a:srgbClr val="0563C1"/>
+      <a:srgbClr val="954F72"/>
     </a:folHlink>
   </a:clrScheme>
-  <a:fontScheme name="Sheets">
+  <a:fontScheme name="Office Theme">
     <a:majorFont>
-      <a:latin typeface="Calibri"/>
-      <a:ea typeface="Calibri"/>
-      <a:cs typeface="Calibri"/>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Angsana New"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
     </a:majorFont>
     <a:minorFont>
-      <a:latin typeface="Calibri"/>
-      <a:ea typeface="Calibri"/>
-      <a:cs typeface="Calibri"/>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Cordia New"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
     </a:minorFont>
   </a:fontScheme>
-  <a:fmtScheme name="Office">
+  <a:fmtScheme name="Office Theme">
     <a:fillStyleLst>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
@@ -11303,6 +12193,762 @@
 </file>
 
 <file path=xl/theme/themeOverride4.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office Theme">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office Theme">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Angsana New"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Cordia New"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office Theme">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride5.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office Theme">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office Theme">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Angsana New"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Cordia New"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office Theme">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride6.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office Theme">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office Theme">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Angsana New"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Cordia New"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office Theme">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride7.xml><?xml version="1.0" encoding="utf-8"?>
 <a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:clrScheme name="Sheets">
     <a:dk1>
@@ -11501,8 +13147,8 @@
   </sheetPr>
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView topLeftCell="AC13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO32" sqref="AO32"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -11520,100 +13166,100 @@
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="124" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131"/>
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
     </row>
     <row r="2" spans="1:42" ht="14.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="125" t="s">
+      <c r="E2" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="126" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="127" t="s">
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="128" t="s">
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="123"/>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="123"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="126" t="s">
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="123"/>
-      <c r="AH2" s="123"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="123"/>
-      <c r="AL2" s="123"/>
-      <c r="AM2" s="129" t="s">
+      <c r="AG2" s="131"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="123"/>
+      <c r="AN2" s="131"/>
     </row>
     <row r="3" spans="1:42" ht="39.75" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -11728,7 +13374,7 @@
         <v>33</v>
       </c>
       <c r="AL3" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AM3" s="16" t="s">
         <v>35</v>
@@ -14729,7 +16375,9 @@
       <c r="R27" s="60">
         <v>4</v>
       </c>
-      <c r="S27" s="64"/>
+      <c r="S27" s="60">
+        <v>0</v>
+      </c>
       <c r="T27" s="60" t="s">
         <v>38</v>
       </c>
@@ -15115,7 +16763,7 @@
       </c>
       <c r="S33" s="89">
         <f>AVERAGE(S4:S29)</f>
-        <v>2.3199999999999998</v>
+        <v>2.2307692307692308</v>
       </c>
       <c r="Y33" s="18"/>
       <c r="Z33" s="83" t="s">
@@ -15272,7 +16920,7 @@
       </c>
       <c r="S36" s="89">
         <f t="shared" si="9"/>
-        <v>3.029455396601838</v>
+        <v>3.0039421830410209</v>
       </c>
       <c r="Y36" s="18"/>
       <c r="Z36" s="18"/>
@@ -15579,8 +17227,8 @@
   </sheetPr>
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AI21" sqref="AI21"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -15597,100 +17245,100 @@
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="124" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131"/>
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
     </row>
     <row r="2" spans="1:42" ht="14.25">
       <c r="A2" s="19"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="125" t="s">
+      <c r="E2" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="126" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="127" t="s">
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="128" t="s">
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="123"/>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="123"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="126" t="s">
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="123"/>
-      <c r="AH2" s="123"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="123"/>
-      <c r="AL2" s="123"/>
-      <c r="AM2" s="129" t="s">
+      <c r="AG2" s="131"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="123"/>
+      <c r="AN2" s="131"/>
     </row>
     <row r="3" spans="1:42" ht="39.75" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -15805,7 +17453,7 @@
         <v>33</v>
       </c>
       <c r="AL3" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AM3" s="16" t="s">
         <v>35</v>
@@ -19602,10 +21250,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:I53"/>
+  <dimension ref="B2:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -19614,47 +21262,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="130"/>
-      <c r="H2" s="131" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="140"/>
+      <c r="H2" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="131"/>
+      <c r="I2" s="141"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="118" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="119" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" s="119" t="s">
+      <c r="C3" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="118" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="119" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" s="119" t="s">
+      <c r="E3" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" s="118" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="119" t="s">
-        <v>228</v>
-      </c>
-      <c r="H3" s="121" t="s">
+      <c r="G3" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="121" t="s">
-        <v>228</v>
+      <c r="I3" s="120" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -19677,11 +21325,9 @@
         <v>11</v>
       </c>
       <c r="H4" s="60">
-        <f>'Duplo (Raw)'!P4</f>
         <v>64</v>
       </c>
       <c r="I4" s="60">
-        <f>'ROY (Raw)'!P4</f>
         <v>24</v>
       </c>
     </row>
@@ -19705,11 +21351,9 @@
         <v>3</v>
       </c>
       <c r="H5" s="60">
-        <f>'Duplo (Raw)'!P5</f>
         <v>36</v>
       </c>
       <c r="I5" s="60">
-        <f>'ROY (Raw)'!P5</f>
         <v>33</v>
       </c>
     </row>
@@ -19733,11 +21377,9 @@
         <v>0</v>
       </c>
       <c r="H6" s="60">
-        <f>'Duplo (Raw)'!P6</f>
         <v>53</v>
       </c>
       <c r="I6" s="60">
-        <f>'ROY (Raw)'!P6</f>
         <v>47</v>
       </c>
     </row>
@@ -19761,11 +21403,9 @@
         <v>3</v>
       </c>
       <c r="H7" s="60">
-        <f>'Duplo (Raw)'!P7</f>
         <v>29</v>
       </c>
       <c r="I7" s="60">
-        <f>'ROY (Raw)'!P7</f>
         <v>50</v>
       </c>
     </row>
@@ -19789,11 +21429,9 @@
         <v>5</v>
       </c>
       <c r="H8" s="60">
-        <f>'Duplo (Raw)'!P8</f>
         <v>23</v>
       </c>
       <c r="I8" s="60">
-        <f>'ROY (Raw)'!P8</f>
         <v>22</v>
       </c>
     </row>
@@ -19817,11 +21455,9 @@
         <v>0</v>
       </c>
       <c r="H9" s="60">
-        <f>'Duplo (Raw)'!P9</f>
         <v>66</v>
       </c>
       <c r="I9" s="60">
-        <f>'ROY (Raw)'!P9</f>
         <v>25</v>
       </c>
     </row>
@@ -19845,11 +21481,9 @@
         <v>0</v>
       </c>
       <c r="H10" s="60">
-        <f>'Duplo (Raw)'!P10</f>
         <v>34</v>
       </c>
       <c r="I10" s="60">
-        <f>'ROY (Raw)'!P10</f>
         <v>46</v>
       </c>
     </row>
@@ -19873,11 +21507,9 @@
         <v>1</v>
       </c>
       <c r="H11" s="60">
-        <f>'Duplo (Raw)'!P11</f>
         <v>36</v>
       </c>
       <c r="I11" s="60">
-        <f>'ROY (Raw)'!P11</f>
         <v>37</v>
       </c>
     </row>
@@ -19901,11 +21533,9 @@
         <v>0</v>
       </c>
       <c r="H12" s="60">
-        <f>'Duplo (Raw)'!P12</f>
         <v>46</v>
       </c>
       <c r="I12" s="60">
-        <f>'ROY (Raw)'!P12</f>
         <v>38</v>
       </c>
     </row>
@@ -19929,11 +21559,9 @@
         <v>3</v>
       </c>
       <c r="H13" s="60">
-        <f>'Duplo (Raw)'!P13</f>
         <v>29</v>
       </c>
       <c r="I13" s="60">
-        <f>'ROY (Raw)'!P13</f>
         <v>34</v>
       </c>
     </row>
@@ -19957,15 +21585,13 @@
         <v>2</v>
       </c>
       <c r="H14" s="60">
-        <f>'Duplo (Raw)'!P14</f>
         <v>47</v>
       </c>
       <c r="I14" s="60">
-        <f>'ROY (Raw)'!P14</f>
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" ht="15.75">
       <c r="B15" s="60">
         <v>17</v>
       </c>
@@ -19985,11 +21611,9 @@
         <v>3</v>
       </c>
       <c r="H15" s="60">
-        <f>'Duplo (Raw)'!P15</f>
         <v>46</v>
       </c>
-      <c r="I15" s="60">
-        <f>'ROY (Raw)'!P15</f>
+      <c r="I15" s="72">
         <v>54</v>
       </c>
     </row>
@@ -20013,11 +21637,9 @@
         <v>1</v>
       </c>
       <c r="H16" s="60">
-        <f>'Duplo (Raw)'!P16</f>
         <v>9</v>
       </c>
       <c r="I16" s="60">
-        <f>'ROY (Raw)'!P16</f>
         <v>64</v>
       </c>
     </row>
@@ -20041,11 +21663,9 @@
         <v>0</v>
       </c>
       <c r="H17" s="60">
-        <f>'Duplo (Raw)'!P17</f>
         <v>27</v>
       </c>
       <c r="I17" s="60">
-        <f>'ROY (Raw)'!P17</f>
         <v>24</v>
       </c>
     </row>
@@ -20069,11 +21689,9 @@
         <v>0</v>
       </c>
       <c r="H18" s="60">
-        <f>'Duplo (Raw)'!P18</f>
         <v>35</v>
       </c>
       <c r="I18" s="60">
-        <f>'ROY (Raw)'!P18</f>
         <v>27</v>
       </c>
     </row>
@@ -20097,11 +21715,9 @@
         <v>0</v>
       </c>
       <c r="H19" s="60">
-        <f>'Duplo (Raw)'!P19</f>
         <v>24</v>
       </c>
       <c r="I19" s="60">
-        <f>'ROY (Raw)'!P19</f>
         <v>47</v>
       </c>
     </row>
@@ -20126,11 +21742,9 @@
         <v>4</v>
       </c>
       <c r="H20" s="60">
-        <f>'Duplo (Raw)'!P20</f>
         <v>23</v>
       </c>
       <c r="I20" s="60">
-        <f>'ROY (Raw)'!P20</f>
         <v>40</v>
       </c>
     </row>
@@ -20154,11 +21768,9 @@
         <v>1</v>
       </c>
       <c r="H21" s="60">
-        <f>'Duplo (Raw)'!P21</f>
         <v>22</v>
       </c>
       <c r="I21" s="60">
-        <f>'ROY (Raw)'!P21</f>
         <v>34</v>
       </c>
     </row>
@@ -20183,11 +21795,9 @@
         <v>0</v>
       </c>
       <c r="H22" s="60">
-        <f>'Duplo (Raw)'!P22</f>
         <v>67</v>
       </c>
       <c r="I22" s="60">
-        <f>'ROY (Raw)'!P22</f>
         <v>24</v>
       </c>
     </row>
@@ -20211,11 +21821,9 @@
         <v>0</v>
       </c>
       <c r="H23" s="60">
-        <f>'Duplo (Raw)'!P23</f>
         <v>85</v>
       </c>
       <c r="I23" s="60">
-        <f>'ROY (Raw)'!P23</f>
         <v>19</v>
       </c>
     </row>
@@ -20240,11 +21848,9 @@
         <v>0</v>
       </c>
       <c r="H24" s="60">
-        <f>'Duplo (Raw)'!P24</f>
         <v>21</v>
       </c>
       <c r="I24" s="60">
-        <f>'ROY (Raw)'!P24</f>
         <v>24</v>
       </c>
     </row>
@@ -20268,12 +21874,10 @@
       <c r="G25" s="60">
         <v>0</v>
       </c>
-      <c r="H25" s="60">
-        <f>'Duplo (Raw)'!P25</f>
+      <c r="H25" s="80">
         <v>38</v>
       </c>
       <c r="I25" s="60">
-        <f>'ROY (Raw)'!P25</f>
         <v>45</v>
       </c>
     </row>
@@ -20298,11 +21902,9 @@
         <v>1</v>
       </c>
       <c r="H26" s="60">
-        <f>'Duplo (Raw)'!P26</f>
         <v>41</v>
       </c>
       <c r="I26" s="60">
-        <f>'ROY (Raw)'!P26</f>
         <v>33</v>
       </c>
     </row>
@@ -20326,11 +21928,9 @@
         <v>0</v>
       </c>
       <c r="H27" s="60">
-        <f>'Duplo (Raw)'!P27</f>
         <v>25</v>
       </c>
       <c r="I27" s="60">
-        <f>'ROY (Raw)'!P27</f>
         <v>51</v>
       </c>
     </row>
@@ -20355,11 +21955,9 @@
         <v>0</v>
       </c>
       <c r="H28" s="60">
-        <f>'Duplo (Raw)'!P28</f>
         <v>9</v>
       </c>
       <c r="I28" s="60">
-        <f>'ROY (Raw)'!P28</f>
         <v>31</v>
       </c>
     </row>
@@ -20382,214 +21980,714 @@
       <c r="G29" s="60">
         <v>5</v>
       </c>
+      <c r="H29" s="60">
+        <v>13</v>
+      </c>
+      <c r="I29" s="60">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="129">
+        <f>STDEV(B4:B29)</f>
+        <v>4.7660659474439306</v>
+      </c>
+      <c r="C30">
+        <f>STDEV(C4:C29)</f>
+        <v>18.535952591154803</v>
+      </c>
+      <c r="D30" s="129">
+        <f t="shared" ref="D30:E30" si="0">STDEV(D4:D29)</f>
+        <v>6.4263879075621917</v>
+      </c>
+      <c r="E30" s="129">
+        <f t="shared" si="0"/>
+        <v>36.618364455346928</v>
+      </c>
+      <c r="F30" s="150"/>
+      <c r="G30" s="151"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" t="s">
+      <c r="B34" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="C34" s="144">
+      <c r="C34" s="123">
         <v>2.2000000000000002</v>
       </c>
+      <c r="D34" s="123"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="123"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="C36" s="145" t="str">
+      <c r="B36" s="123"/>
+      <c r="C36" s="123" t="str">
         <f>B3</f>
         <v>Duplo</v>
       </c>
-      <c r="D36" s="145" t="str">
+      <c r="D36" s="123" t="str">
         <f>C3</f>
         <v>ROY</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" t="s">
+      <c r="B37" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="146">
+      <c r="C37" s="123">
         <f>C44-$C51</f>
         <v>8</v>
       </c>
-      <c r="D37" s="147">
+      <c r="D37" s="123">
         <f>D44-$C51</f>
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" t="s">
+      <c r="B38" s="123" t="s">
         <v>183</v>
       </c>
-      <c r="C38" s="148">
+      <c r="C38" s="123">
         <f>MAX(C45-C44,0)</f>
         <v>5.25</v>
       </c>
-      <c r="D38" s="149">
+      <c r="D38" s="123">
         <f>MAX(D45-D44,0)</f>
         <v>6.75</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" t="s">
+      <c r="B39" s="123" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="148">
-        <f t="shared" ref="C39:D41" si="0">MAX(C46-C45,0)</f>
+      <c r="C39" s="123">
+        <f t="shared" ref="C39:D41" si="1">MAX(C46-C45,0)</f>
         <v>1.75</v>
       </c>
-      <c r="D39" s="149">
-        <f t="shared" si="0"/>
+      <c r="D39" s="123">
+        <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" t="s">
+      <c r="B40" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="148">
-        <f t="shared" si="0"/>
+      <c r="C40" s="123">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D40" s="149">
-        <f t="shared" si="0"/>
+      <c r="D40" s="123">
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" t="s">
+      <c r="B41" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="C41" s="148">
-        <f t="shared" si="0"/>
+      <c r="C41" s="123">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D41" s="149">
-        <f t="shared" si="0"/>
+      <c r="D41" s="123">
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" t="s">
+      <c r="B42" s="123" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="150">
+      <c r="C42" s="123">
         <f>C49-$C51</f>
         <v>16.346153846153847</v>
       </c>
-      <c r="D42" s="151">
+      <c r="D42" s="123">
         <f>D49-$C51</f>
         <v>24.307692307692307</v>
       </c>
     </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="123"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+    </row>
     <row r="44" spans="2:4">
-      <c r="B44" t="s">
+      <c r="B44" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="146">
+      <c r="C44" s="123">
         <f t="array" ref="C44">MIN(IF(ISBLANK(B4:B29),"",IF(B4:B29&gt;=C45-$C34*(C47-C45),B4:B29,"")))</f>
         <v>8</v>
       </c>
-      <c r="D44" s="147">
+      <c r="D44" s="123">
         <f t="array" ref="D44">MIN(IF(ISBLANK(C4:C29),"",IF(C4:C29&gt;=D45-$C34*(D47-D45),C4:C29,"")))</f>
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" t="s">
+      <c r="B45" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="148">
+      <c r="C45" s="123">
         <f>_xlfn.QUARTILE.INC(B4:B29,1)</f>
         <v>13.25</v>
       </c>
-      <c r="D45" s="149">
+      <c r="D45" s="123">
         <f>_xlfn.QUARTILE.INC(C4:C29,1)</f>
         <v>14.75</v>
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" t="s">
+      <c r="B46" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="148">
+      <c r="C46" s="123">
         <f>MEDIAN(B4:B29)</f>
         <v>15</v>
       </c>
-      <c r="D46" s="149">
+      <c r="D46" s="123">
         <f>MEDIAN(C4:C29)</f>
         <v>21</v>
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" t="s">
+      <c r="B47" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="C47" s="148">
+      <c r="C47" s="123">
         <f>_xlfn.QUARTILE.INC(B4:B29,3)</f>
         <v>19</v>
       </c>
-      <c r="D47" s="149">
+      <c r="D47" s="123">
         <f>_xlfn.QUARTILE.INC(C4:C29,3)</f>
         <v>26.5</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" t="s">
+      <c r="B48" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="C48" s="148">
+      <c r="C48" s="123">
         <f t="array" ref="C48">MAX(IF(ISBLANK(B4:B29),"",IF(B4:B29&lt;=C47+$C34*(C47-C45),B4:B29,"")))</f>
         <v>29</v>
       </c>
-      <c r="D48" s="149">
+      <c r="D48" s="123">
         <f t="array" ref="D48">MAX(IF(ISBLANK(C4:C29),"",IF(C4:C29&lt;=D47+$C34*(D47-D45),C4:C29,"")))</f>
         <v>39</v>
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" t="s">
+      <c r="B49" s="123" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="150">
+      <c r="C49" s="123">
         <f>AVERAGE(B4:B29)</f>
         <v>16.346153846153847</v>
       </c>
-      <c r="D49" s="151">
+      <c r="D49" s="123">
         <f>AVERAGE(C4:C29)</f>
         <v>24.307692307692307</v>
       </c>
     </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="123"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="123"/>
+    </row>
     <row r="51" spans="2:5">
-      <c r="B51" t="s">
+      <c r="B51" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="C51" s="144">
+      <c r="C51" s="123">
         <f>IF(MIN(C44:D44)&gt;=0,0,MIN(C44:D44))</f>
         <v>0</v>
       </c>
+      <c r="D51" s="123"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="123"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="123"/>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" t="s">
+      <c r="B53" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="123">
         <f>C22</f>
         <v>106</v>
       </c>
-      <c r="E53" s="152" t="s">
-        <v>235</v>
+      <c r="E53" s="122" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="140" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" s="140"/>
+      <c r="D55" s="140"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="111" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="111">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D56" s="111"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="111"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="111"/>
+      <c r="C58" s="112" t="str">
+        <f>D3</f>
+        <v>Duplo</v>
+      </c>
+      <c r="D58" s="112" t="str">
+        <f>E3</f>
+        <v>ROY</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="111">
+        <f>C66-$C73</f>
+        <v>22</v>
+      </c>
+      <c r="D59" s="111">
+        <f>D66-$C73</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="111">
+        <f>MAX(C67-C66,0)</f>
+        <v>8.5</v>
+      </c>
+      <c r="D60" s="111">
+        <f>MAX(D67-D66,0)</f>
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="111">
+        <f t="shared" ref="C61:D63" si="2">MAX(C68-C67,0)</f>
+        <v>3.5</v>
+      </c>
+      <c r="D61" s="111">
+        <f t="shared" si="2"/>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="111" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="111">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D62" s="111">
+        <f t="shared" si="2"/>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="111">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D63" s="111">
+        <f t="shared" si="2"/>
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="111" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="111">
+        <f>C71-$C73</f>
+        <v>33.53846153846154</v>
+      </c>
+      <c r="D64" s="111">
+        <f>D71-$C73</f>
+        <v>45.769230769230766</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="111"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="111"/>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="111">
+        <f t="array" ref="C66">MIN(IF(ISBLANK(D4:D29),"",IF(D4:D29&gt;=C67-$C56*(C69-C67),D4:D29,"")))</f>
+        <v>22</v>
+      </c>
+      <c r="D66" s="111">
+        <f t="array" ref="D66">MIN(IF(ISBLANK(E4:E29),"",IF(E4:E29&gt;=D67-$C56*(D69-D67),E4:E29,"")))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="111" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="111">
+        <f>_xlfn.QUARTILE.INC(D4:D29,1)</f>
+        <v>30.5</v>
+      </c>
+      <c r="D67" s="111">
+        <f>_xlfn.QUARTILE.INC(E4:E29,1)</f>
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="111" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="111">
+        <f>MEDIAN(D4:D29)</f>
+        <v>34</v>
+      </c>
+      <c r="D68" s="111">
+        <f>MEDIAN(E4:E29)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="111" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="111">
+        <f>_xlfn.QUARTILE.INC(D4:D29,3)</f>
+        <v>37</v>
+      </c>
+      <c r="D69" s="111">
+        <f>_xlfn.QUARTILE.INC(E4:E29,3)</f>
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="111">
+        <f t="array" ref="C70">MAX(IF(ISBLANK(D4:D29),"",IF(D4:D29&lt;=C69+$C56*(C69-C67),D4:D29,"")))</f>
+        <v>44</v>
+      </c>
+      <c r="D70" s="111">
+        <f t="array" ref="D70">MAX(IF(ISBLANK(E4:E29),"",IF(E4:E29&lt;=D69+$C56*(D69-D67),E4:E29,"")))</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="111" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" s="111">
+        <f>AVERAGE(D4:D29)</f>
+        <v>33.53846153846154</v>
+      </c>
+      <c r="D71" s="111">
+        <f>AVERAGE(E4:E29)</f>
+        <v>45.769230769230766</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="111"/>
+      <c r="C72" s="111"/>
+      <c r="D72" s="111"/>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="111" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="111">
+        <f>IF(MIN(C66:D66)&gt;=0,0,MIN(C66:D66))</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="111"/>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="111"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="111"/>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="111" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="111">
+        <f>E22</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="141"/>
+      <c r="D77" s="141"/>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="111" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="111">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D78" s="111"/>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="111"/>
+      <c r="C79" s="111"/>
+      <c r="D79" s="111"/>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="111"/>
+      <c r="C80" s="112" t="str">
+        <f>H3</f>
+        <v>Duplo</v>
+      </c>
+      <c r="D80" s="112" t="str">
+        <f>I3</f>
+        <v>ROY</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="111">
+        <f>C88-$C95</f>
+        <v>9</v>
+      </c>
+      <c r="D81" s="111">
+        <f>D88-$C95</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="111">
+        <f>MAX(C89-C88,0)</f>
+        <v>14.25</v>
+      </c>
+      <c r="D82" s="111">
+        <f>MAX(D89-D88,0)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="111">
+        <f t="shared" ref="C83:D85" si="3">MAX(C90-C89,0)</f>
+        <v>11.25</v>
+      </c>
+      <c r="D83" s="111">
+        <f t="shared" si="3"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="111" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" s="111">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+      <c r="D84" s="111">
+        <f t="shared" si="3"/>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="111">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="D85" s="111">
+        <f t="shared" si="3"/>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="111" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" s="111">
+        <f>C93-$C95</f>
+        <v>36.46153846153846</v>
+      </c>
+      <c r="D86" s="111">
+        <f>D93-$C95</f>
+        <v>36.92307692307692</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="111"/>
+      <c r="C87" s="111"/>
+      <c r="D87" s="111"/>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="111">
+        <f t="array" ref="C88">MIN(IF(ISBLANK(H4:H29),"",IF(H4:H29&gt;=C89-$C78*(C91-C89),H4:H29,"")))</f>
+        <v>9</v>
+      </c>
+      <c r="D88" s="111">
+        <f t="array" ref="D88">MIN(IF(ISBLANK(I4:I29),"",IF(I4:I29&gt;=D89-$C78*(D91-D89),I4:I29,"")))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="111" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="111">
+        <f>_xlfn.QUARTILE.INC(H4:H29,1)</f>
+        <v>23.25</v>
+      </c>
+      <c r="D89" s="111">
+        <f>_xlfn.QUARTILE.INC(I4:I29,1)</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="111" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="111">
+        <f>MEDIAN(H4:H29)</f>
+        <v>34.5</v>
+      </c>
+      <c r="D90" s="111">
+        <f>MEDIAN(I4:I29)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="111" t="s">
+        <v>207</v>
+      </c>
+      <c r="C91" s="111">
+        <f>_xlfn.QUARTILE.INC(H4:H29,3)</f>
+        <v>46</v>
+      </c>
+      <c r="D91" s="111">
+        <f>_xlfn.QUARTILE.INC(I4:I29,3)</f>
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="C92" s="111">
+        <f t="array" ref="C92">MAX(IF(ISBLANK(H4:H29),"",IF(H4:H29&lt;=C91+$C78*(C91-C89),H4:H29,"")))</f>
+        <v>85</v>
+      </c>
+      <c r="D92" s="111">
+        <f t="array" ref="D92">MAX(IF(ISBLANK(I4:I29),"",IF(I4:I29&lt;=D91+$C78*(D91-D89),I4:I29,"")))</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="111" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" s="111">
+        <f>AVERAGE(H4:H29)</f>
+        <v>36.46153846153846</v>
+      </c>
+      <c r="D93" s="111">
+        <f>AVERAGE(I4:I29)</f>
+        <v>36.92307692307692</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="111"/>
+      <c r="C94" s="111"/>
+      <c r="D94" s="111"/>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="111" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" s="111">
+        <f>IF(MIN(C88:D88)&gt;=0,0,MIN(C88:D88))</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="111"/>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="111"/>
+      <c r="C96" s="111"/>
+      <c r="D96" s="111"/>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="111" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="D97" s="111" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -20606,10 +22704,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:P105"/>
+  <dimension ref="A2:P106"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -20619,24 +22717,26 @@
     <col min="4" max="4" width="17.59765625" style="99" customWidth="1"/>
     <col min="5" max="5" width="17.59765625" customWidth="1"/>
     <col min="6" max="6" width="17.59765625" style="99" customWidth="1"/>
-    <col min="7" max="12" width="17.59765625" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="12" width="17.59765625" customWidth="1"/>
     <col min="13" max="14" width="17.59765625" style="99" customWidth="1"/>
     <col min="15" max="16" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="39.75" customHeight="1">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134" t="s">
+      <c r="C2" s="139"/>
+      <c r="D2" s="139" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135" t="s">
+      <c r="E2" s="139"/>
+      <c r="F2" s="138" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="135"/>
+      <c r="G2" s="138"/>
       <c r="M2"/>
       <c r="N2"/>
     </row>
@@ -20645,74 +22745,63 @@
         <v>153</v>
       </c>
       <c r="C3" s="109" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D3" s="109" t="s">
         <v>153</v>
       </c>
       <c r="E3" s="109" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F3" s="109" t="s">
         <v>153</v>
       </c>
       <c r="G3" s="109" t="s">
-        <v>228</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="H3" s="124"/>
       <c r="M3"/>
       <c r="N3"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="82">
-        <f>'Duplo (Raw)'!Q4</f>
+      <c r="B4" s="125">
         <v>10</v>
       </c>
-      <c r="C4" s="82">
-        <f>'ROY (Raw)'!Q4</f>
+      <c r="C4" s="125">
         <v>9</v>
       </c>
-      <c r="D4" s="82">
-        <f>'Duplo (Raw)'!R4</f>
+      <c r="D4" s="125">
         <v>9</v>
       </c>
-      <c r="E4" s="82">
-        <f>'ROY (Raw)'!R4</f>
+      <c r="E4" s="125">
         <v>11</v>
       </c>
-      <c r="F4" s="82">
-        <f>'Duplo (Raw)'!S4</f>
+      <c r="F4" s="125">
         <v>5</v>
       </c>
-      <c r="G4" s="82">
-        <f>'ROY (Raw)'!S4</f>
+      <c r="G4" s="125">
         <v>7</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="82">
-        <f>'Duplo (Raw)'!Q5</f>
+      <c r="B5" s="125">
         <v>4</v>
       </c>
-      <c r="C5" s="82">
-        <f>'ROY (Raw)'!Q5</f>
+      <c r="C5" s="125">
         <v>12</v>
       </c>
-      <c r="D5" s="82">
-        <f>'Duplo (Raw)'!R5</f>
+      <c r="D5" s="125">
         <v>10</v>
       </c>
-      <c r="E5" s="82">
-        <f>'ROY (Raw)'!R5</f>
+      <c r="E5" s="125">
         <v>12</v>
       </c>
-      <c r="F5" s="82">
-        <f>'Duplo (Raw)'!S5</f>
+      <c r="F5" s="125">
         <v>1</v>
       </c>
-      <c r="G5" s="82">
-        <f>'ROY (Raw)'!S5</f>
+      <c r="G5" s="125">
         <v>1</v>
       </c>
       <c r="M5"/>
@@ -20721,28 +22810,22 @@
       <c r="P5" s="21"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="82">
-        <f>'Duplo (Raw)'!Q6</f>
+      <c r="B6" s="125">
         <v>14</v>
       </c>
-      <c r="C6" s="82">
-        <f>'ROY (Raw)'!Q6</f>
+      <c r="C6" s="125">
         <v>21</v>
       </c>
-      <c r="D6" s="82">
-        <f>'Duplo (Raw)'!R6</f>
+      <c r="D6" s="125">
         <v>27</v>
       </c>
-      <c r="E6" s="82">
-        <f>'ROY (Raw)'!R6</f>
+      <c r="E6" s="125">
         <v>8</v>
       </c>
-      <c r="F6" s="82">
-        <f>'Duplo (Raw)'!S6</f>
+      <c r="F6" s="125">
         <v>6</v>
       </c>
-      <c r="G6" s="82">
-        <f>'ROY (Raw)'!S6</f>
+      <c r="G6" s="125">
         <v>0</v>
       </c>
       <c r="M6"/>
@@ -20751,28 +22834,22 @@
       <c r="P6" s="21"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="82">
-        <f>'Duplo (Raw)'!Q7</f>
+      <c r="B7" s="125">
         <v>4</v>
       </c>
-      <c r="C7" s="82">
-        <f>'ROY (Raw)'!Q7</f>
+      <c r="C7" s="125">
         <v>19</v>
       </c>
-      <c r="D7" s="82">
-        <f>'Duplo (Raw)'!R7</f>
+      <c r="D7" s="125">
         <v>1</v>
       </c>
-      <c r="E7" s="82">
-        <f>'ROY (Raw)'!R7</f>
+      <c r="E7" s="125">
         <v>20</v>
       </c>
-      <c r="F7" s="82">
-        <f>'Duplo (Raw)'!S7</f>
+      <c r="F7" s="125">
         <v>0</v>
       </c>
-      <c r="G7" s="82">
-        <f>'ROY (Raw)'!S7</f>
+      <c r="G7" s="125">
         <v>1</v>
       </c>
       <c r="M7"/>
@@ -20781,28 +22858,22 @@
       <c r="P7" s="21"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="82">
-        <f>'Duplo (Raw)'!Q8</f>
+      <c r="B8" s="125">
         <v>2</v>
       </c>
-      <c r="C8" s="82">
-        <f>'ROY (Raw)'!Q8</f>
+      <c r="C8" s="125">
         <v>12</v>
       </c>
-      <c r="D8" s="82">
-        <f>'Duplo (Raw)'!R8</f>
+      <c r="D8" s="125">
         <v>8</v>
       </c>
-      <c r="E8" s="82">
-        <f>'ROY (Raw)'!R8</f>
+      <c r="E8" s="125">
         <v>16</v>
       </c>
-      <c r="F8" s="82">
-        <f>'Duplo (Raw)'!S8</f>
+      <c r="F8" s="125">
         <v>0</v>
       </c>
-      <c r="G8" s="82">
-        <f>'ROY (Raw)'!S8</f>
+      <c r="G8" s="125">
         <v>3</v>
       </c>
       <c r="M8"/>
@@ -20811,28 +22882,22 @@
       <c r="P8" s="21"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="82">
-        <f>'Duplo (Raw)'!Q9</f>
+      <c r="B9" s="125">
         <v>8</v>
       </c>
-      <c r="C9" s="82">
-        <f>'ROY (Raw)'!Q9</f>
+      <c r="C9" s="125">
         <v>6</v>
       </c>
-      <c r="D9" s="82">
-        <f>'Duplo (Raw)'!R9</f>
+      <c r="D9" s="125">
         <v>21</v>
       </c>
-      <c r="E9" s="82">
-        <f>'ROY (Raw)'!R9</f>
+      <c r="E9" s="125">
         <v>7</v>
       </c>
-      <c r="F9" s="82">
-        <f>'Duplo (Raw)'!S9</f>
+      <c r="F9" s="125">
         <v>7</v>
       </c>
-      <c r="G9" s="82">
-        <f>'ROY (Raw)'!S9</f>
+      <c r="G9" s="125">
         <v>0</v>
       </c>
       <c r="M9"/>
@@ -20841,28 +22906,22 @@
       <c r="P9" s="21"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="82">
-        <f>'Duplo (Raw)'!Q10</f>
+      <c r="B10" s="125">
         <v>6</v>
       </c>
-      <c r="C10" s="82">
-        <f>'ROY (Raw)'!Q10</f>
+      <c r="C10" s="125">
         <v>4</v>
       </c>
-      <c r="D10" s="82">
-        <f>'Duplo (Raw)'!R10</f>
+      <c r="D10" s="125">
         <v>6</v>
       </c>
-      <c r="E10" s="82">
-        <f>'ROY (Raw)'!R10</f>
+      <c r="E10" s="125">
         <v>14</v>
       </c>
-      <c r="F10" s="82">
-        <f>'Duplo (Raw)'!S10</f>
+      <c r="F10" s="125">
         <v>0</v>
       </c>
-      <c r="G10" s="82">
-        <f>'ROY (Raw)'!S10</f>
+      <c r="G10" s="125">
         <v>3</v>
       </c>
       <c r="M10"/>
@@ -20871,28 +22930,22 @@
       <c r="P10" s="21"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="82">
-        <f>'Duplo (Raw)'!Q11</f>
+      <c r="B11" s="125">
         <v>6</v>
       </c>
-      <c r="C11" s="82">
-        <f>'ROY (Raw)'!Q11</f>
+      <c r="C11" s="125">
         <v>5</v>
       </c>
-      <c r="D11" s="82">
-        <f>'Duplo (Raw)'!R11</f>
+      <c r="D11" s="125">
         <v>17</v>
       </c>
-      <c r="E11" s="82">
-        <f>'ROY (Raw)'!R11</f>
+      <c r="E11" s="125">
         <v>15</v>
       </c>
-      <c r="F11" s="82">
-        <f>'Duplo (Raw)'!S11</f>
+      <c r="F11" s="125">
         <v>0</v>
       </c>
-      <c r="G11" s="82">
-        <f>'ROY (Raw)'!S11</f>
+      <c r="G11" s="125">
         <v>3</v>
       </c>
       <c r="M11"/>
@@ -20901,28 +22954,22 @@
       <c r="P11" s="21"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="82">
-        <f>'Duplo (Raw)'!Q12</f>
+      <c r="B12" s="125">
         <v>7</v>
       </c>
-      <c r="C12" s="82">
-        <f>'ROY (Raw)'!Q12</f>
+      <c r="C12" s="125">
         <v>9</v>
       </c>
-      <c r="D12" s="82">
-        <f>'Duplo (Raw)'!R12</f>
+      <c r="D12" s="125">
         <v>19</v>
       </c>
-      <c r="E12" s="82">
-        <f>'ROY (Raw)'!R12</f>
+      <c r="E12" s="125">
         <v>10</v>
       </c>
-      <c r="F12" s="82">
-        <f>'Duplo (Raw)'!S12</f>
+      <c r="F12" s="125">
         <v>0</v>
       </c>
-      <c r="G12" s="82">
-        <f>'ROY (Raw)'!S12</f>
+      <c r="G12" s="125">
         <v>9</v>
       </c>
       <c r="M12"/>
@@ -20931,28 +22978,22 @@
       <c r="P12" s="21"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="82">
-        <f>'Duplo (Raw)'!Q13</f>
+      <c r="B13" s="125">
         <v>3</v>
       </c>
-      <c r="C13" s="82">
-        <f>'ROY (Raw)'!Q13</f>
+      <c r="C13" s="125">
         <v>2</v>
       </c>
-      <c r="D13" s="82">
-        <f>'Duplo (Raw)'!R13</f>
+      <c r="D13" s="125">
         <v>11</v>
       </c>
-      <c r="E13" s="82">
-        <f>'ROY (Raw)'!R13</f>
+      <c r="E13" s="125">
         <v>7</v>
       </c>
-      <c r="F13" s="82">
-        <f>'Duplo (Raw)'!S13</f>
+      <c r="F13" s="125">
         <v>0</v>
       </c>
-      <c r="G13" s="82">
-        <f>'ROY (Raw)'!S13</f>
+      <c r="G13" s="125">
         <v>4</v>
       </c>
       <c r="M13"/>
@@ -20961,28 +23002,22 @@
       <c r="P13" s="21"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="82">
-        <f>'Duplo (Raw)'!Q14</f>
+      <c r="B14" s="125">
         <v>15</v>
       </c>
-      <c r="C14" s="82">
-        <f>'ROY (Raw)'!Q14</f>
+      <c r="C14" s="125">
         <v>9</v>
       </c>
-      <c r="D14" s="82">
-        <f>'Duplo (Raw)'!R14</f>
+      <c r="D14" s="125">
         <v>10</v>
       </c>
-      <c r="E14" s="82">
-        <f>'ROY (Raw)'!R14</f>
+      <c r="E14" s="125">
         <v>24</v>
       </c>
-      <c r="F14" s="82">
-        <f>'Duplo (Raw)'!S14</f>
+      <c r="F14" s="125">
         <v>4</v>
       </c>
-      <c r="G14" s="82">
-        <f>'ROY (Raw)'!S14</f>
+      <c r="G14" s="125">
         <v>0</v>
       </c>
       <c r="M14"/>
@@ -20990,29 +23025,23 @@
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
     </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="82">
-        <f>'Duplo (Raw)'!Q15</f>
+    <row r="15" spans="2:16" ht="15.75">
+      <c r="B15" s="125">
         <v>12</v>
       </c>
-      <c r="C15" s="82">
-        <f>'ROY (Raw)'!Q15</f>
+      <c r="C15" s="126">
         <v>9</v>
       </c>
-      <c r="D15" s="82">
-        <f>'Duplo (Raw)'!R15</f>
+      <c r="D15" s="125">
         <v>5</v>
       </c>
-      <c r="E15" s="82">
-        <f>'ROY (Raw)'!R15</f>
+      <c r="E15" s="126">
         <v>33</v>
       </c>
-      <c r="F15" s="82">
-        <f>'Duplo (Raw)'!S15</f>
+      <c r="F15" s="125">
         <v>8</v>
       </c>
-      <c r="G15" s="82">
-        <f>'ROY (Raw)'!S15</f>
+      <c r="G15" s="125">
         <v>1</v>
       </c>
       <c r="M15"/>
@@ -21021,28 +23050,22 @@
       <c r="P15" s="21"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="82">
-        <f>'Duplo (Raw)'!Q16</f>
+      <c r="B16" s="125">
         <v>0</v>
       </c>
-      <c r="C16" s="82">
-        <f>'ROY (Raw)'!Q16</f>
+      <c r="C16" s="125">
         <v>2</v>
       </c>
-      <c r="D16" s="82">
-        <f>'Duplo (Raw)'!R16</f>
+      <c r="D16" s="125">
         <v>4</v>
       </c>
-      <c r="E16" s="82">
-        <f>'ROY (Raw)'!R16</f>
+      <c r="E16" s="125">
         <v>21</v>
       </c>
-      <c r="F16" s="82">
-        <f>'Duplo (Raw)'!S16</f>
+      <c r="F16" s="125">
         <v>0</v>
       </c>
-      <c r="G16" s="82">
-        <f>'ROY (Raw)'!S16</f>
+      <c r="G16" s="125">
         <v>4</v>
       </c>
       <c r="M16"/>
@@ -21050,29 +23073,23 @@
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
     </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="82">
-        <f>'Duplo (Raw)'!Q17</f>
+    <row r="17" spans="1:16">
+      <c r="B17" s="125">
         <v>7</v>
       </c>
-      <c r="C17" s="82">
-        <f>'ROY (Raw)'!Q17</f>
+      <c r="C17" s="125">
         <v>7</v>
       </c>
-      <c r="D17" s="82">
-        <f>'Duplo (Raw)'!R17</f>
+      <c r="D17" s="125">
         <v>4</v>
       </c>
-      <c r="E17" s="82">
-        <f>'ROY (Raw)'!R17</f>
+      <c r="E17" s="125">
         <v>12</v>
       </c>
-      <c r="F17" s="82">
-        <f>'Duplo (Raw)'!S17</f>
+      <c r="F17" s="125">
         <v>1</v>
       </c>
-      <c r="G17" s="82">
-        <f>'ROY (Raw)'!S17</f>
+      <c r="G17" s="125">
         <v>0</v>
       </c>
       <c r="M17"/>
@@ -21080,29 +23097,23 @@
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
     </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="82">
-        <f>'Duplo (Raw)'!Q18</f>
+    <row r="18" spans="1:16">
+      <c r="B18" s="125">
         <v>4</v>
       </c>
-      <c r="C18" s="82">
-        <f>'ROY (Raw)'!Q18</f>
+      <c r="C18" s="125">
         <v>9</v>
       </c>
-      <c r="D18" s="82">
-        <f>'Duplo (Raw)'!R18</f>
+      <c r="D18" s="125">
         <v>2</v>
       </c>
-      <c r="E18" s="82">
-        <f>'ROY (Raw)'!R18</f>
+      <c r="E18" s="125">
         <v>19</v>
       </c>
-      <c r="F18" s="82">
-        <f>'Duplo (Raw)'!S18</f>
+      <c r="F18" s="125">
         <v>0</v>
       </c>
-      <c r="G18" s="82">
-        <f>'ROY (Raw)'!S18</f>
+      <c r="G18" s="125">
         <v>0</v>
       </c>
       <c r="M18"/>
@@ -21110,29 +23121,23 @@
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
     </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="82">
-        <f>'Duplo (Raw)'!Q19</f>
+    <row r="19" spans="1:16">
+      <c r="B19" s="125">
         <v>2</v>
       </c>
-      <c r="C19" s="82">
-        <f>'ROY (Raw)'!Q19</f>
+      <c r="C19" s="125">
         <v>11</v>
       </c>
-      <c r="D19" s="82">
-        <f>'Duplo (Raw)'!R19</f>
+      <c r="D19" s="125">
         <v>12</v>
       </c>
-      <c r="E19" s="82">
-        <f>'ROY (Raw)'!R19</f>
+      <c r="E19" s="125">
         <v>25</v>
       </c>
-      <c r="F19" s="82">
-        <f>'Duplo (Raw)'!S19</f>
+      <c r="F19" s="125">
         <v>0</v>
       </c>
-      <c r="G19" s="82">
-        <f>'ROY (Raw)'!S19</f>
+      <c r="G19" s="125">
         <v>1</v>
       </c>
       <c r="M19"/>
@@ -21140,29 +23145,23 @@
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
     </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="82">
-        <f>'Duplo (Raw)'!Q20</f>
+    <row r="20" spans="1:16">
+      <c r="B20" s="125">
         <v>1</v>
       </c>
-      <c r="C20" s="82">
-        <f>'ROY (Raw)'!Q20</f>
+      <c r="C20" s="125">
         <v>2</v>
       </c>
-      <c r="D20" s="82">
-        <f>'Duplo (Raw)'!R20</f>
+      <c r="D20" s="125">
         <v>2</v>
       </c>
-      <c r="E20" s="82">
-        <f>'ROY (Raw)'!R20</f>
+      <c r="E20" s="125">
         <v>15</v>
       </c>
-      <c r="F20" s="82">
-        <f>'Duplo (Raw)'!S20</f>
+      <c r="F20" s="125">
         <v>3</v>
       </c>
-      <c r="G20" s="82">
-        <f>'ROY (Raw)'!S20</f>
+      <c r="G20" s="125">
         <v>1</v>
       </c>
       <c r="M20"/>
@@ -21170,29 +23169,23 @@
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
     </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="82">
-        <f>'Duplo (Raw)'!Q21</f>
+    <row r="21" spans="1:16">
+      <c r="B21" s="125">
         <v>3</v>
       </c>
-      <c r="C21" s="82">
-        <f>'ROY (Raw)'!Q21</f>
+      <c r="C21" s="125">
         <v>1</v>
       </c>
-      <c r="D21" s="82">
-        <f>'Duplo (Raw)'!R21</f>
+      <c r="D21" s="125">
         <v>8</v>
       </c>
-      <c r="E21" s="82">
-        <f>'ROY (Raw)'!R21</f>
+      <c r="E21" s="125">
         <v>14</v>
       </c>
-      <c r="F21" s="82">
-        <f>'Duplo (Raw)'!S21</f>
+      <c r="F21" s="125">
         <v>0</v>
       </c>
-      <c r="G21" s="82">
-        <f>'ROY (Raw)'!S21</f>
+      <c r="G21" s="125">
         <v>0</v>
       </c>
       <c r="M21"/>
@@ -21200,29 +23193,23 @@
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
     </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="82">
-        <f>'Duplo (Raw)'!Q22</f>
+    <row r="22" spans="1:16">
+      <c r="B22" s="125">
         <v>2</v>
       </c>
-      <c r="C22" s="82">
-        <f>'ROY (Raw)'!Q22</f>
+      <c r="C22" s="125">
         <v>2</v>
       </c>
-      <c r="D22" s="82">
-        <f>'Duplo (Raw)'!R22</f>
+      <c r="D22" s="125">
         <v>37</v>
       </c>
-      <c r="E22" s="82">
-        <f>'ROY (Raw)'!R22</f>
+      <c r="E22" s="125">
         <v>16</v>
       </c>
-      <c r="F22" s="82">
-        <f>'Duplo (Raw)'!S22</f>
+      <c r="F22" s="125">
         <v>8</v>
       </c>
-      <c r="G22" s="82">
-        <f>'ROY (Raw)'!S22</f>
+      <c r="G22" s="125">
         <v>0</v>
       </c>
       <c r="M22"/>
@@ -21230,29 +23217,23 @@
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
     </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="82">
-        <f>'Duplo (Raw)'!Q23</f>
+    <row r="23" spans="1:16">
+      <c r="B23" s="125">
         <v>3</v>
       </c>
-      <c r="C23" s="82">
-        <f>'ROY (Raw)'!Q23</f>
+      <c r="C23" s="125">
         <v>4</v>
       </c>
-      <c r="D23" s="82">
-        <f>'Duplo (Raw)'!R23</f>
+      <c r="D23" s="125">
         <v>23</v>
       </c>
-      <c r="E23" s="82">
-        <f>'ROY (Raw)'!R23</f>
+      <c r="E23" s="125">
         <v>11</v>
       </c>
-      <c r="F23" s="82">
-        <f>'Duplo (Raw)'!S23</f>
+      <c r="F23" s="125">
         <v>7</v>
       </c>
-      <c r="G23" s="82">
-        <f>'ROY (Raw)'!S23</f>
+      <c r="G23" s="125">
         <v>0</v>
       </c>
       <c r="M23"/>
@@ -21260,29 +23241,23 @@
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
     </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="82">
-        <f>'Duplo (Raw)'!Q24</f>
+    <row r="24" spans="1:16">
+      <c r="B24" s="125">
         <v>0</v>
       </c>
-      <c r="C24" s="82">
-        <f>'ROY (Raw)'!Q24</f>
+      <c r="C24" s="125">
         <v>1</v>
       </c>
-      <c r="D24" s="82">
-        <f>'Duplo (Raw)'!R24</f>
+      <c r="D24" s="125">
         <v>6</v>
       </c>
-      <c r="E24" s="82">
-        <f>'ROY (Raw)'!R24</f>
+      <c r="E24" s="125">
         <v>8</v>
       </c>
-      <c r="F24" s="82">
-        <f>'Duplo (Raw)'!S24</f>
+      <c r="F24" s="125">
         <v>0</v>
       </c>
-      <c r="G24" s="82">
-        <f>'ROY (Raw)'!S24</f>
+      <c r="G24" s="125">
         <v>2</v>
       </c>
       <c r="M24"/>
@@ -21290,29 +23265,23 @@
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
     </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="82">
-        <f>'Duplo (Raw)'!Q25</f>
+    <row r="25" spans="1:16">
+      <c r="B25" s="127">
         <v>2</v>
       </c>
-      <c r="C25" s="82">
-        <f>'ROY (Raw)'!Q25</f>
+      <c r="C25" s="125">
         <v>3</v>
       </c>
-      <c r="D25" s="82">
-        <f>'Duplo (Raw)'!R25</f>
+      <c r="D25" s="127">
         <v>11</v>
       </c>
-      <c r="E25" s="82">
-        <f>'ROY (Raw)'!R25</f>
+      <c r="E25" s="125">
         <v>19</v>
       </c>
-      <c r="F25" s="82">
-        <f>'Duplo (Raw)'!S25</f>
+      <c r="F25" s="127">
         <v>1</v>
       </c>
-      <c r="G25" s="82">
-        <f>'ROY (Raw)'!S25</f>
+      <c r="G25" s="125">
         <v>0</v>
       </c>
       <c r="M25"/>
@@ -21320,29 +23289,23 @@
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
     </row>
-    <row r="26" spans="2:16">
-      <c r="B26" s="82">
-        <f>'Duplo (Raw)'!Q26</f>
+    <row r="26" spans="1:16">
+      <c r="B26" s="125">
         <v>1</v>
       </c>
-      <c r="C26" s="82">
-        <f>'ROY (Raw)'!Q26</f>
+      <c r="C26" s="125">
         <v>6</v>
       </c>
-      <c r="D26" s="82">
-        <f>'Duplo (Raw)'!R26</f>
+      <c r="D26" s="125">
         <v>9</v>
       </c>
-      <c r="E26" s="82">
-        <f>'ROY (Raw)'!R26</f>
+      <c r="E26" s="125">
         <v>15</v>
       </c>
-      <c r="F26" s="82">
-        <f>'Duplo (Raw)'!S26</f>
+      <c r="F26" s="125">
         <v>7</v>
       </c>
-      <c r="G26" s="82">
-        <f>'ROY (Raw)'!S26</f>
+      <c r="G26" s="125">
         <v>0</v>
       </c>
       <c r="M26"/>
@@ -21350,29 +23313,23 @@
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
     </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="82">
-        <f>'Duplo (Raw)'!Q27</f>
+    <row r="27" spans="1:16">
+      <c r="B27" s="125">
         <v>1</v>
       </c>
-      <c r="C27" s="82">
-        <f>'ROY (Raw)'!Q27</f>
+      <c r="C27" s="125">
         <v>4</v>
       </c>
-      <c r="D27" s="82">
-        <f>'Duplo (Raw)'!R27</f>
+      <c r="D27" s="125">
         <v>4</v>
       </c>
-      <c r="E27" s="82">
-        <f>'ROY (Raw)'!R27</f>
+      <c r="E27" s="125">
         <v>18</v>
       </c>
-      <c r="F27" s="82">
-        <f>'Duplo (Raw)'!S27</f>
+      <c r="F27" s="125">
         <v>0</v>
       </c>
-      <c r="G27" s="82">
-        <f>'ROY (Raw)'!S27</f>
+      <c r="G27" s="125">
         <v>7</v>
       </c>
       <c r="M27"/>
@@ -21380,29 +23337,23 @@
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
     </row>
-    <row r="28" spans="2:16">
-      <c r="B28" s="82">
-        <f>'Duplo (Raw)'!Q28</f>
+    <row r="28" spans="1:16">
+      <c r="B28" s="125">
         <v>1</v>
       </c>
-      <c r="C28" s="82">
-        <f>'ROY (Raw)'!Q28</f>
+      <c r="C28" s="125">
         <v>4</v>
       </c>
-      <c r="D28" s="82">
-        <f>'Duplo (Raw)'!R28</f>
+      <c r="D28" s="125">
         <v>2</v>
       </c>
-      <c r="E28" s="82">
-        <f>'ROY (Raw)'!R28</f>
+      <c r="E28" s="125">
         <v>8</v>
       </c>
-      <c r="F28" s="82">
-        <f>'Duplo (Raw)'!S28</f>
+      <c r="F28" s="125">
         <v>0</v>
       </c>
-      <c r="G28" s="82">
-        <f>'ROY (Raw)'!S28</f>
+      <c r="G28" s="125">
         <v>2</v>
       </c>
       <c r="M28"/>
@@ -21410,533 +23361,367 @@
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
     </row>
-    <row r="29" spans="2:16">
-      <c r="B29"/>
-      <c r="D29"/>
-      <c r="F29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-    </row>
-    <row r="30" spans="2:16" s="105" customFormat="1">
-      <c r="B30" s="132" t="s">
+    <row r="29" spans="1:16" s="121" customFormat="1">
+      <c r="A29"/>
+      <c r="B29" s="125">
+        <v>0</v>
+      </c>
+      <c r="C29" s="125">
+        <v>3</v>
+      </c>
+      <c r="D29" s="125">
+        <v>1</v>
+      </c>
+      <c r="E29" s="125">
+        <v>8</v>
+      </c>
+      <c r="F29" s="125">
+        <v>0</v>
+      </c>
+      <c r="G29" s="125">
+        <v>3</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="B30"/>
+      <c r="D30"/>
+      <c r="F30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:16" s="105" customFormat="1">
+      <c r="A31"/>
+      <c r="B31" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="I30" s="133" t="s">
-        <v>211</v>
-      </c>
-      <c r="J30" s="133"/>
-      <c r="K30" s="133"/>
-    </row>
-    <row r="31" spans="2:16" s="105" customFormat="1">
-      <c r="B31" s="111" t="s">
-        <v>203</v>
-      </c>
-      <c r="C31" s="111">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D31" s="111"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="I31" s="111" t="s">
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:16" s="105" customFormat="1">
+      <c r="A32"/>
+      <c r="B32" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="J31" s="111">
+      <c r="C32" s="111">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K31" s="111"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
       <c r="D32" s="111"/>
+      <c r="E32"/>
       <c r="F32"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="111"/>
-      <c r="C33" s="112" t="str">
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="F33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="111"/>
+      <c r="C34" s="112" t="str">
         <f>B3</f>
         <v>Duplo</v>
       </c>
-      <c r="D33" s="112" t="str">
+      <c r="D34" s="112" t="str">
         <f>C3</f>
         <v>ROY</v>
       </c>
-      <c r="F33"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="112" t="str">
-        <f>F3</f>
-        <v>Duplo</v>
-      </c>
-      <c r="K33" s="112" t="str">
-        <f>G3</f>
-        <v>ROY</v>
-      </c>
-      <c r="M33"/>
-      <c r="N33"/>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="111" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" s="111">
-        <f>C41-$C48</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="111">
-        <f>D41-$C48</f>
-        <v>1</v>
-      </c>
       <c r="F34"/>
-      <c r="I34" s="111" t="s">
-        <v>182</v>
-      </c>
-      <c r="J34" s="111">
-        <f>J41-$J48</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="111">
-        <f>K41-$J48</f>
-        <v>0</v>
-      </c>
       <c r="M34"/>
       <c r="N34"/>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="111" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C35" s="111">
-        <f>MAX(C42-C41,0)</f>
-        <v>2</v>
+        <f>C42-$C49</f>
+        <v>0</v>
       </c>
       <c r="D35" s="111">
-        <f>MAX(D42-D41,0)</f>
-        <v>2</v>
+        <f>D42-$C49</f>
+        <v>1</v>
       </c>
       <c r="F35"/>
-      <c r="I35" s="111" t="s">
-        <v>183</v>
-      </c>
-      <c r="J35" s="111">
-        <f>MAX(J42-J41,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="111">
-        <f>MAX(K42-K41,0)</f>
-        <v>0</v>
-      </c>
       <c r="M35"/>
       <c r="N35"/>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="111" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C36" s="111">
-        <f t="shared" ref="C36:D38" si="0">MAX(C43-C42,0)</f>
-        <v>1</v>
+        <f>MAX(C43-C42,0)</f>
+        <v>1.25</v>
       </c>
       <c r="D36" s="111">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>MAX(D43-D42,0)</f>
+        <v>2</v>
       </c>
       <c r="F36"/>
-      <c r="I36" s="111" t="s">
-        <v>184</v>
-      </c>
-      <c r="J36" s="111">
-        <f t="shared" ref="J36:K38" si="1">MAX(J43-J42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="111">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="M36"/>
       <c r="N36"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="111" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C37" s="111">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="C37:D39" si="0">MAX(C44-C43,0)</f>
+        <v>1.75</v>
       </c>
       <c r="D37" s="111">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F37"/>
-      <c r="I37" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="J37" s="111">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="K37" s="111">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="M37"/>
       <c r="N37"/>
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="111" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C38" s="111">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="D38" s="111">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="F38"/>
-      <c r="I38" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="J38" s="111">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K38" s="111">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
       <c r="M38"/>
       <c r="N38"/>
     </row>
     <row r="39" spans="2:14">
       <c r="B39" s="111" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C39" s="111">
-        <f>C46-$C48</f>
-        <v>4.72</v>
+        <f t="shared" si="0"/>
+        <v>8.25</v>
       </c>
       <c r="D39" s="111">
-        <f>D46-$C48</f>
-        <v>6.92</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="F39"/>
-      <c r="I39" s="111" t="s">
-        <v>180</v>
-      </c>
-      <c r="J39" s="111">
-        <f>J46-$J48</f>
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="K39" s="111">
-        <f>K46-$J48</f>
-        <v>1.96</v>
-      </c>
       <c r="M39"/>
       <c r="N39"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="111"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
+      <c r="B40" s="111" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="111">
+        <f>C47-$C49</f>
+        <v>4.5384615384615383</v>
+      </c>
+      <c r="D40" s="111">
+        <f>D47-$C49</f>
+        <v>6.7692307692307692</v>
+      </c>
       <c r="F40"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
       <c r="M40"/>
       <c r="N40"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="111" t="s">
-        <v>182</v>
-      </c>
-      <c r="C41" s="111">
-        <f t="array" ref="C41">MIN(IF(ISBLANK(B4:B28),"",IF(B4:B28&gt;=C42-$C31*(C44-C42),B4:B28,"")))</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="111">
-        <f t="array" ref="D41">MIN(IF(ISBLANK(C4:C28),"",IF(C4:C28&gt;=D42-$C31*(D44-D42),C4:C28,"")))</f>
-        <v>1</v>
-      </c>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
       <c r="F41"/>
-      <c r="I41" s="111" t="s">
-        <v>182</v>
-      </c>
-      <c r="J41" s="111">
-        <f t="array" ref="J41">MIN(IF(ISBLANK(F4:F28),"",IF(F4:F28&gt;=J42-$J31*(J44-J42),F4:F28,"")))</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="111">
-        <f t="array" ref="K41">MIN(IF(ISBLANK(G4:G28),"",IF(G4:G28&gt;=K42-$J31*(K44-K42),G4:G28,"")))</f>
-        <v>0</v>
-      </c>
       <c r="M41"/>
       <c r="N41"/>
     </row>
     <row r="42" spans="2:14">
       <c r="B42" s="111" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C42" s="111">
-        <f>_xlfn.QUARTILE.INC(B4:B28,1)</f>
-        <v>2</v>
+        <f t="array" ref="C42">MIN(IF(ISBLANK(B4:B29),"",IF(B4:B29&gt;=C43-$C32*(C45-C43),B4:B29,"")))</f>
+        <v>0</v>
       </c>
       <c r="D42" s="111">
-        <f>_xlfn.QUARTILE.INC(C4:C28,1)</f>
-        <v>3</v>
+        <f t="array" ref="D42">MIN(IF(ISBLANK(C4:C29),"",IF(C4:C29&gt;=D43-$C32*(D45-D43),C4:C29,"")))</f>
+        <v>1</v>
       </c>
       <c r="F42"/>
-      <c r="I42" s="111" t="s">
-        <v>206</v>
-      </c>
-      <c r="J42" s="111">
-        <f>_xlfn.QUARTILE.INC(F4:F28,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="111">
-        <f>_xlfn.QUARTILE.INC(G4:G28,1)</f>
-        <v>0</v>
-      </c>
       <c r="M42"/>
       <c r="N42"/>
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="111" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C43" s="111">
-        <f>MEDIAN(B4:B28)</f>
+        <f>_xlfn.QUARTILE.INC(B4:B29,1)</f>
+        <v>1.25</v>
+      </c>
+      <c r="D43" s="111">
+        <f>_xlfn.QUARTILE.INC(C4:C29,1)</f>
         <v>3</v>
       </c>
-      <c r="D43" s="111">
-        <f>MEDIAN(C4:C28)</f>
-        <v>6</v>
-      </c>
       <c r="F43"/>
-      <c r="I43" s="111" t="s">
-        <v>181</v>
-      </c>
-      <c r="J43" s="111">
-        <f>MEDIAN(F4:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="111">
-        <f>MEDIAN(G4:G28)</f>
-        <v>1</v>
-      </c>
       <c r="M43"/>
       <c r="N43"/>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" s="111" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="C44" s="111">
-        <f>_xlfn.QUARTILE.INC(B4:B28,3)</f>
-        <v>7</v>
+        <f>MEDIAN(B4:B29)</f>
+        <v>3</v>
       </c>
       <c r="D44" s="111">
-        <f>_xlfn.QUARTILE.INC(C4:C28,3)</f>
-        <v>9</v>
+        <f>MEDIAN(C4:C29)</f>
+        <v>5.5</v>
       </c>
       <c r="F44"/>
-      <c r="I44" s="111" t="s">
-        <v>207</v>
-      </c>
-      <c r="J44" s="111">
-        <f>_xlfn.QUARTILE.INC(F4:F28,3)</f>
-        <v>5</v>
-      </c>
-      <c r="K44" s="111">
-        <f>_xlfn.QUARTILE.INC(G4:G28,3)</f>
-        <v>3</v>
-      </c>
       <c r="M44"/>
       <c r="N44"/>
     </row>
     <row r="45" spans="2:14">
       <c r="B45" s="111" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C45" s="111">
-        <f t="array" ref="C45">MAX(IF(ISBLANK(B4:B28),"",IF(B4:B28&lt;=C44+$C31*(C44-C42),B4:B28,"")))</f>
-        <v>15</v>
+        <f>_xlfn.QUARTILE.INC(B4:B29,3)</f>
+        <v>6.75</v>
       </c>
       <c r="D45" s="111">
-        <f t="array" ref="D45">MAX(IF(ISBLANK(C4:C28),"",IF(C4:C28&lt;=D44+$C31*(D44-D42),C4:C28,"")))</f>
-        <v>21</v>
+        <f>_xlfn.QUARTILE.INC(C4:C29,3)</f>
+        <v>9</v>
       </c>
       <c r="F45"/>
-      <c r="I45" s="111" t="s">
-        <v>208</v>
-      </c>
-      <c r="J45" s="111">
-        <f t="array" ref="J45">MAX(IF(ISBLANK(F4:F28),"",IF(F4:F28&lt;=J44+$J31*(J44-J42),F4:F28,"")))</f>
-        <v>8</v>
-      </c>
-      <c r="K45" s="111">
-        <f t="array" ref="K45">MAX(IF(ISBLANK(G4:G28),"",IF(G4:G28&lt;=K44+$J31*(K44-K42),G4:G28,"")))</f>
-        <v>9</v>
-      </c>
       <c r="M45"/>
       <c r="N45"/>
     </row>
     <row r="46" spans="2:14">
       <c r="B46" s="111" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C46" s="111">
-        <f>AVERAGE(B4:B28)</f>
-        <v>4.72</v>
+        <f t="array" ref="C46">MAX(IF(ISBLANK(B4:B29),"",IF(B4:B29&lt;=C45+$C32*(C45-C43),B4:B29,"")))</f>
+        <v>15</v>
       </c>
       <c r="D46" s="111">
-        <f>AVERAGE(C4:C28)</f>
-        <v>6.92</v>
+        <f t="array" ref="D46">MAX(IF(ISBLANK(C4:C29),"",IF(C4:C29&lt;=D45+$C32*(D45-D43),C4:C29,"")))</f>
+        <v>21</v>
       </c>
       <c r="F46"/>
-      <c r="I46" s="111" t="s">
-        <v>180</v>
-      </c>
-      <c r="J46" s="111">
-        <f>AVERAGE(F4:F28)</f>
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="K46" s="111">
-        <f>AVERAGE(G4:G28)</f>
-        <v>1.96</v>
-      </c>
       <c r="M46"/>
       <c r="N46"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="115" t="s">
-        <v>227</v>
+      <c r="B47" s="111" t="s">
+        <v>180</v>
       </c>
       <c r="C47" s="111">
-        <f>STDEV(B4:B28)</f>
-        <v>4.2673176586703736</v>
+        <f>AVERAGE(B4:B29)</f>
+        <v>4.5384615384615383</v>
       </c>
       <c r="D47" s="111">
-        <f>STDEV(C4:C28)</f>
-        <v>5.2274914315249399</v>
+        <f>AVERAGE(C4:C29)</f>
+        <v>6.7692307692307692</v>
       </c>
       <c r="F47"/>
-      <c r="I47" s="115" t="s">
-        <v>227</v>
-      </c>
-      <c r="J47" s="111">
-        <f>STDEV(F4:F28)</f>
-        <v>3.0919249667480613</v>
-      </c>
-      <c r="K47" s="111">
-        <f>STDEV(G4:G28)</f>
-        <v>2.5409971795865234</v>
-      </c>
       <c r="M47"/>
       <c r="N47"/>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="C48" s="111">
-        <f>IF(MIN(C41:D41)&gt;=0,0,MIN(C41:D41))</f>
-        <v>0</v>
-      </c>
+      <c r="B48" s="111"/>
+      <c r="C48" s="111"/>
       <c r="D48" s="111"/>
       <c r="F48"/>
-      <c r="I48" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="J48" s="111">
-        <f>IF(MIN(J41:K41)&gt;=0,0,MIN(J41:K41))</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="111"/>
       <c r="M48"/>
       <c r="N48"/>
     </row>
     <row r="49" spans="2:14">
-      <c r="B49" s="111"/>
-      <c r="C49" s="111"/>
+      <c r="B49" s="111" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="111">
+        <f>IF(MIN(C42:D42)&gt;=0,0,MIN(C42:D42))</f>
+        <v>0</v>
+      </c>
       <c r="D49" s="111"/>
       <c r="F49"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="111"/>
       <c r="M49"/>
       <c r="N49"/>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="C50" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="D50" s="111" t="s">
-        <v>155</v>
-      </c>
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
       <c r="F50"/>
-      <c r="I50" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="J50" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="K50" s="111" t="s">
-        <v>155</v>
-      </c>
       <c r="M50"/>
       <c r="N50"/>
     </row>
     <row r="51" spans="2:14">
-      <c r="B51"/>
-      <c r="D51"/>
+      <c r="B51" s="111" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="111" t="s">
+        <v>155</v>
+      </c>
       <c r="F51"/>
       <c r="M51"/>
       <c r="N51"/>
     </row>
     <row r="52" spans="2:14">
-      <c r="B52" s="132" t="s">
-        <v>212</v>
-      </c>
-      <c r="C52" s="132"/>
-      <c r="D52" s="132"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
       <c r="F52"/>
       <c r="M52"/>
       <c r="N52"/>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="111" t="s">
-        <v>203</v>
-      </c>
-      <c r="C53" s="111">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D53" s="111"/>
+      <c r="B53" s="139" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
       <c r="F53"/>
       <c r="M53"/>
       <c r="N53"/>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="111"/>
-      <c r="C54" s="111"/>
+      <c r="B54" s="111" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="111">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="D54" s="111"/>
       <c r="F54"/>
       <c r="M54"/>
@@ -21944,29 +23729,21 @@
     </row>
     <row r="55" spans="2:14">
       <c r="B55" s="111"/>
-      <c r="C55" s="112" t="str">
-        <f>D3</f>
-        <v>Duplo</v>
-      </c>
-      <c r="D55" s="112" t="str">
-        <f>E3</f>
-        <v>ROY</v>
-      </c>
+      <c r="C55" s="111"/>
+      <c r="D55" s="111"/>
       <c r="F55"/>
       <c r="M55"/>
       <c r="N55"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="111" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" s="111">
-        <f>C63-$C70</f>
-        <v>1</v>
-      </c>
-      <c r="D56" s="111">
-        <f>D63-$C70</f>
-        <v>7</v>
+      <c r="B56" s="111"/>
+      <c r="C56" s="112" t="str">
+        <f>D3</f>
+        <v>Duplo</v>
+      </c>
+      <c r="D56" s="112" t="str">
+        <f>E3</f>
+        <v>ROY</v>
       </c>
       <c r="F56"/>
       <c r="M56"/>
@@ -21974,15 +23751,15 @@
     </row>
     <row r="57" spans="2:14">
       <c r="B57" s="111" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C57" s="111">
-        <f>MAX(C64-C63,0)</f>
-        <v>3</v>
+        <f>C64-$C71</f>
+        <v>1</v>
       </c>
       <c r="D57" s="111">
-        <f>MAX(D64-D63,0)</f>
-        <v>4</v>
+        <f>D64-$C71</f>
+        <v>7</v>
       </c>
       <c r="F57"/>
       <c r="M57"/>
@@ -21990,15 +23767,15 @@
     </row>
     <row r="58" spans="2:14">
       <c r="B58" s="111" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C58" s="111">
-        <f t="shared" ref="C58:D60" si="2">MAX(C65-C64,0)</f>
-        <v>5</v>
+        <f>MAX(C65-C64,0)</f>
+        <v>3</v>
       </c>
       <c r="D58" s="111">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>MAX(D65-D64,0)</f>
+        <v>3.25</v>
       </c>
       <c r="F58"/>
       <c r="M58"/>
@@ -22006,15 +23783,15 @@
     </row>
     <row r="59" spans="2:14">
       <c r="B59" s="111" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C59" s="111">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" ref="C59:D61" si="1">MAX(C66-C65,0)</f>
+        <v>4.5</v>
       </c>
       <c r="D59" s="111">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>4.25</v>
       </c>
       <c r="F59"/>
       <c r="M59"/>
@@ -22022,15 +23799,15 @@
     </row>
     <row r="60" spans="2:14">
       <c r="B60" s="111" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C60" s="111">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>3.25</v>
       </c>
       <c r="D60" s="111">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>4.25</v>
       </c>
       <c r="F60"/>
       <c r="M60"/>
@@ -22038,55 +23815,55 @@
     </row>
     <row r="61" spans="2:14">
       <c r="B61" s="111" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C61" s="111">
-        <f>C68-$C70</f>
-        <v>10.72</v>
+        <f t="shared" si="1"/>
+        <v>15.25</v>
       </c>
       <c r="D61" s="111">
-        <f>D68-$C70</f>
-        <v>15.12</v>
+        <f t="shared" si="1"/>
+        <v>14.25</v>
       </c>
       <c r="F61"/>
       <c r="M61"/>
       <c r="N61"/>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="111"/>
-      <c r="C62" s="111"/>
-      <c r="D62" s="111"/>
+      <c r="B62" s="111" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="111">
+        <f>C69-$C71</f>
+        <v>10.346153846153847</v>
+      </c>
+      <c r="D62" s="111">
+        <f>D69-$C71</f>
+        <v>14.846153846153847</v>
+      </c>
       <c r="F62"/>
       <c r="M62"/>
       <c r="N62"/>
     </row>
     <row r="63" spans="2:14">
-      <c r="B63" s="111" t="s">
-        <v>182</v>
-      </c>
-      <c r="C63" s="111">
-        <f t="array" ref="C63">MIN(IF(ISBLANK(D4:D28),"",IF(D4:D28&gt;=C64-$C53*(C66-C64),D4:D28,"")))</f>
-        <v>1</v>
-      </c>
-      <c r="D63" s="111">
-        <f t="array" ref="D63">MIN(IF(ISBLANK(E4:E28),"",IF(E4:E28&gt;=D64-$C53*(D66-D64),E4:E28,"")))</f>
-        <v>7</v>
-      </c>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
       <c r="F63"/>
       <c r="M63"/>
       <c r="N63"/>
     </row>
     <row r="64" spans="2:14">
       <c r="B64" s="111" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C64" s="111">
-        <f>_xlfn.QUARTILE.INC(D4:D28,1)</f>
-        <v>4</v>
+        <f t="array" ref="C64">MIN(IF(ISBLANK(D4:D29),"",IF(D4:D29&gt;=C65-$C54*(C67-C65),D4:D29,"")))</f>
+        <v>1</v>
       </c>
       <c r="D64" s="111">
-        <f>_xlfn.QUARTILE.INC(E4:E28,1)</f>
-        <v>11</v>
+        <f t="array" ref="D64">MIN(IF(ISBLANK(E4:E29),"",IF(E4:E29&gt;=D65-$C54*(D67-D65),E4:E29,"")))</f>
+        <v>7</v>
       </c>
       <c r="F64"/>
       <c r="M64"/>
@@ -22094,15 +23871,15 @@
     </row>
     <row r="65" spans="2:14">
       <c r="B65" s="111" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C65" s="111">
-        <f>MEDIAN(D4:D28)</f>
-        <v>9</v>
+        <f>_xlfn.QUARTILE.INC(D4:D29,1)</f>
+        <v>4</v>
       </c>
       <c r="D65" s="111">
-        <f>MEDIAN(E4:E28)</f>
-        <v>15</v>
+        <f>_xlfn.QUARTILE.INC(E4:E29,1)</f>
+        <v>10.25</v>
       </c>
       <c r="F65"/>
       <c r="M65"/>
@@ -22110,15 +23887,15 @@
     </row>
     <row r="66" spans="2:14">
       <c r="B66" s="111" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="C66" s="111">
-        <f>_xlfn.QUARTILE.INC(D4:D28,3)</f>
-        <v>12</v>
+        <f>MEDIAN(D4:D29)</f>
+        <v>8.5</v>
       </c>
       <c r="D66" s="111">
-        <f>_xlfn.QUARTILE.INC(E4:E28,3)</f>
-        <v>19</v>
+        <f>MEDIAN(E4:E29)</f>
+        <v>14.5</v>
       </c>
       <c r="F66"/>
       <c r="M66"/>
@@ -22126,15 +23903,15 @@
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="111" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C67" s="111">
-        <f t="array" ref="C67">MAX(IF(ISBLANK(D4:D28),"",IF(D4:D28&lt;=C66+$C53*(C66-C64),D4:D28,"")))</f>
-        <v>27</v>
+        <f>_xlfn.QUARTILE.INC(D4:D29,3)</f>
+        <v>11.75</v>
       </c>
       <c r="D67" s="111">
-        <f t="array" ref="D67">MAX(IF(ISBLANK(E4:E28),"",IF(E4:E28&lt;=D66+$C53*(D66-D64),E4:E28,"")))</f>
-        <v>33</v>
+        <f>_xlfn.QUARTILE.INC(E4:E29,3)</f>
+        <v>18.75</v>
       </c>
       <c r="F67"/>
       <c r="M67"/>
@@ -22142,74 +23919,76 @@
     </row>
     <row r="68" spans="2:14">
       <c r="B68" s="111" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C68" s="111">
-        <f>AVERAGE(D4:D28)</f>
-        <v>10.72</v>
+        <f t="array" ref="C68">MAX(IF(ISBLANK(D4:D29),"",IF(D4:D29&lt;=C67+$C54*(C67-C65),D4:D29,"")))</f>
+        <v>27</v>
       </c>
       <c r="D68" s="111">
-        <f>AVERAGE(E4:E28)</f>
-        <v>15.12</v>
+        <f t="array" ref="D68">MAX(IF(ISBLANK(E4:E29),"",IF(E4:E29&lt;=D67+$C54*(D67-D65),E4:E29,"")))</f>
+        <v>33</v>
       </c>
       <c r="F68"/>
       <c r="M68"/>
       <c r="N68"/>
     </row>
     <row r="69" spans="2:14">
-      <c r="B69" s="115" t="s">
-        <v>227</v>
+      <c r="B69" s="111" t="s">
+        <v>180</v>
       </c>
       <c r="C69" s="111">
-        <f>STDEV(D4:D28)</f>
-        <v>8.8483520122864316</v>
+        <f>AVERAGE(D4:D29)</f>
+        <v>10.346153846153847</v>
       </c>
       <c r="D69" s="111">
-        <f>STDEV(E4:E28)</f>
-        <v>6.3266631541964262</v>
+        <f>AVERAGE(E4:E29)</f>
+        <v>14.846153846153847</v>
       </c>
       <c r="F69"/>
       <c r="M69"/>
       <c r="N69"/>
     </row>
     <row r="70" spans="2:14">
-      <c r="B70" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70" s="111">
-        <f>IF(MIN(C63:D63)&gt;=0,0,MIN(C63:D63))</f>
-        <v>0</v>
-      </c>
+      <c r="B70" s="111"/>
+      <c r="C70" s="111"/>
       <c r="D70" s="111"/>
       <c r="F70"/>
       <c r="M70"/>
       <c r="N70"/>
     </row>
     <row r="71" spans="2:14">
-      <c r="B71" s="111"/>
-      <c r="C71" s="111"/>
+      <c r="B71" s="111" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="111">
+        <f>IF(MIN(C64:D64)&gt;=0,0,MIN(C64:D64))</f>
+        <v>0</v>
+      </c>
       <c r="D71" s="111"/>
       <c r="F71"/>
       <c r="M71"/>
       <c r="N71"/>
     </row>
     <row r="72" spans="2:14">
-      <c r="B72" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="C72" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="D72" s="111" t="s">
-        <v>155</v>
-      </c>
+      <c r="B72" s="111"/>
+      <c r="C72" s="111"/>
+      <c r="D72" s="111"/>
       <c r="F72"/>
       <c r="M72"/>
       <c r="N72"/>
     </row>
     <row r="73" spans="2:14">
-      <c r="B73"/>
-      <c r="D73"/>
+      <c r="B73" s="111" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="111">
+        <f>D22</f>
+        <v>37</v>
+      </c>
+      <c r="D73" s="111" t="s">
+        <v>155</v>
+      </c>
       <c r="F73"/>
       <c r="M73"/>
       <c r="N73"/>
@@ -22221,149 +24000,289 @@
       <c r="M74"/>
       <c r="N74"/>
     </row>
-    <row r="75" spans="2:14">
-      <c r="B75"/>
-      <c r="D75"/>
+    <row r="75" spans="2:14" ht="14.55" customHeight="1">
+      <c r="B75" s="138" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="138"/>
+      <c r="D75" s="138"/>
       <c r="F75"/>
       <c r="M75"/>
       <c r="N75"/>
     </row>
     <row r="76" spans="2:14">
-      <c r="B76"/>
-      <c r="D76"/>
+      <c r="B76" s="111" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" s="111">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D76" s="111"/>
       <c r="F76"/>
       <c r="M76"/>
       <c r="N76"/>
     </row>
     <row r="77" spans="2:14">
-      <c r="B77"/>
-      <c r="D77"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="111"/>
       <c r="F77"/>
       <c r="M77"/>
       <c r="N77"/>
     </row>
     <row r="78" spans="2:14">
-      <c r="B78"/>
-      <c r="D78"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="112" t="str">
+        <f>F3</f>
+        <v>Duplo</v>
+      </c>
+      <c r="D78" s="112" t="str">
+        <f>G3</f>
+        <v>ROY</v>
+      </c>
       <c r="F78"/>
       <c r="M78"/>
       <c r="N78"/>
     </row>
     <row r="79" spans="2:14">
-      <c r="B79"/>
-      <c r="D79"/>
+      <c r="B79" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" s="111">
+        <f>C86-$C93</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="111">
+        <f>D86-$C93</f>
+        <v>0</v>
+      </c>
       <c r="F79"/>
       <c r="M79"/>
       <c r="N79"/>
     </row>
     <row r="80" spans="2:14">
-      <c r="B80"/>
-      <c r="D80"/>
+      <c r="B80" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" s="111">
+        <f>MAX(C87-C86,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="111">
+        <f>MAX(D87-D86,0)</f>
+        <v>0</v>
+      </c>
       <c r="F80"/>
       <c r="M80"/>
       <c r="N80"/>
     </row>
     <row r="81" spans="2:14">
-      <c r="B81"/>
-      <c r="D81"/>
+      <c r="B81" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" s="111">
+        <f t="shared" ref="C81:D83" si="2">MAX(C88-C87,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="111">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="F81"/>
       <c r="M81"/>
       <c r="N81"/>
     </row>
     <row r="82" spans="2:14">
-      <c r="B82"/>
-      <c r="D82"/>
+      <c r="B82" s="111" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" s="111">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="D82" s="111">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="F82"/>
       <c r="M82"/>
       <c r="N82"/>
     </row>
     <row r="83" spans="2:14">
-      <c r="B83"/>
-      <c r="D83"/>
+      <c r="B83" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="111">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="D83" s="111">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="F83"/>
       <c r="M83"/>
       <c r="N83"/>
     </row>
     <row r="84" spans="2:14">
-      <c r="B84"/>
-      <c r="D84"/>
+      <c r="B84" s="111" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="111">
+        <f>C91-$C93</f>
+        <v>2.2307692307692308</v>
+      </c>
+      <c r="D84" s="111">
+        <f>D91-$C93</f>
+        <v>2</v>
+      </c>
       <c r="F84"/>
       <c r="M84"/>
       <c r="N84"/>
     </row>
     <row r="85" spans="2:14">
-      <c r="B85"/>
-      <c r="D85"/>
+      <c r="B85" s="111"/>
+      <c r="C85" s="111"/>
+      <c r="D85" s="111"/>
       <c r="F85"/>
       <c r="M85"/>
       <c r="N85"/>
     </row>
     <row r="86" spans="2:14">
-      <c r="B86"/>
-      <c r="D86"/>
+      <c r="B86" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="111">
+        <f t="array" ref="C86">MIN(IF(ISBLANK(F4:F29),"",IF(F4:F29&gt;=C87-$C76*(C89-C87),F4:F29,"")))</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="111">
+        <f t="array" ref="D86">MIN(IF(ISBLANK(G4:G29),"",IF(G4:G29&gt;=D87-$C76*(D89-D87),G4:G29,"")))</f>
+        <v>0</v>
+      </c>
       <c r="F86"/>
       <c r="M86"/>
       <c r="N86"/>
     </row>
     <row r="87" spans="2:14">
-      <c r="B87"/>
-      <c r="D87"/>
+      <c r="B87" s="111" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="111">
+        <f>_xlfn.QUARTILE.INC(F4:F29,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="111">
+        <f>_xlfn.QUARTILE.INC(G4:G29,1)</f>
+        <v>0</v>
+      </c>
       <c r="F87"/>
       <c r="M87"/>
       <c r="N87"/>
     </row>
     <row r="88" spans="2:14">
-      <c r="B88"/>
-      <c r="D88"/>
+      <c r="B88" s="111" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="111">
+        <f>MEDIAN(F4:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="111">
+        <f>MEDIAN(G4:G29)</f>
+        <v>1</v>
+      </c>
       <c r="F88"/>
       <c r="M88"/>
       <c r="N88"/>
     </row>
     <row r="89" spans="2:14">
-      <c r="B89"/>
-      <c r="D89"/>
+      <c r="B89" s="111" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="111">
+        <f>_xlfn.QUARTILE.INC(F4:F29,3)</f>
+        <v>4.75</v>
+      </c>
+      <c r="D89" s="111">
+        <f>_xlfn.QUARTILE.INC(G4:G29,3)</f>
+        <v>3</v>
+      </c>
       <c r="F89"/>
       <c r="M89"/>
       <c r="N89"/>
     </row>
     <row r="90" spans="2:14">
-      <c r="B90"/>
-      <c r="D90"/>
+      <c r="B90" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" s="111">
+        <f t="array" ref="C90">MAX(IF(ISBLANK(F4:F29),"",IF(F4:F29&lt;=C89+$C76*(C89-C87),F4:F29,"")))</f>
+        <v>8</v>
+      </c>
+      <c r="D90" s="111">
+        <f t="array" ref="D90">MAX(IF(ISBLANK(G4:G29),"",IF(G4:G29&lt;=D89+$C76*(D89-D87),G4:G29,"")))</f>
+        <v>9</v>
+      </c>
       <c r="F90"/>
       <c r="M90"/>
       <c r="N90"/>
     </row>
     <row r="91" spans="2:14">
-      <c r="B91"/>
-      <c r="D91"/>
+      <c r="B91" s="111" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="111">
+        <f>AVERAGE(F4:F29)</f>
+        <v>2.2307692307692308</v>
+      </c>
+      <c r="D91" s="111">
+        <f>AVERAGE(G4:G29)</f>
+        <v>2</v>
+      </c>
       <c r="F91"/>
       <c r="M91"/>
       <c r="N91"/>
     </row>
     <row r="92" spans="2:14">
-      <c r="B92"/>
-      <c r="D92"/>
+      <c r="B92" s="111"/>
+      <c r="C92" s="111"/>
+      <c r="D92" s="111"/>
       <c r="F92"/>
       <c r="M92"/>
       <c r="N92"/>
     </row>
     <row r="93" spans="2:14">
-      <c r="B93"/>
-      <c r="D93"/>
+      <c r="B93" s="111" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" s="111">
+        <f>IF(MIN(C86:D86)&gt;=0,0,MIN(C86:D86))</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="111"/>
       <c r="F93"/>
       <c r="M93"/>
       <c r="N93"/>
     </row>
     <row r="94" spans="2:14">
-      <c r="B94"/>
-      <c r="D94"/>
+      <c r="B94" s="111"/>
+      <c r="C94" s="111"/>
+      <c r="D94" s="111"/>
       <c r="F94"/>
       <c r="M94"/>
       <c r="N94"/>
     </row>
     <row r="95" spans="2:14">
-      <c r="B95"/>
-      <c r="D95"/>
+      <c r="B95" s="111" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="D95" s="111" t="s">
+        <v>155</v>
+      </c>
       <c r="F95"/>
       <c r="M95"/>
       <c r="N95"/>
@@ -22438,14 +24357,21 @@
       <c r="M105"/>
       <c r="N105"/>
     </row>
+    <row r="106" spans="2:14">
+      <c r="B106"/>
+      <c r="D106"/>
+      <c r="F106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B75:D75"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22460,8 +24386,8 @@
   </sheetPr>
   <dimension ref="B2:O103"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -22470,26 +24396,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="146" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="138" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
+      <c r="B3" s="144" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="93"/>
@@ -22571,15 +24497,15 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="145" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="95"/>
@@ -22661,26 +24587,26 @@
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="147" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="138" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
+      <c r="B13" s="144" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="100"/>
@@ -22750,15 +24676,15 @@
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="104"/>
@@ -22832,20 +24758,20 @@
       <c r="G21" s="110"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="142" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="136"/>
+      <c r="C22" s="142"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="116" t="s">
-        <v>228</v>
+      <c r="C23" s="115" t="s">
+        <v>226</v>
       </c>
       <c r="E23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -22908,7 +24834,7 @@
         <v>74.000000000000057</v>
       </c>
       <c r="E27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F27">
         <f>_xlfn.STDEV.S(B24:B49)/SQRT(COUNT(B24:B49))</f>
@@ -22950,7 +24876,7 @@
         <v>81.000000000000028</v>
       </c>
       <c r="E29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F29">
         <f>MODE(B24:B49)</f>
@@ -22992,7 +24918,7 @@
         <v>87.000000000000014</v>
       </c>
       <c r="E31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F31">
         <f>_xlfn.VAR.S(B24:B49)</f>
@@ -23013,7 +24939,7 @@
         <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F32">
         <f>KURT(B24:B49)</f>
@@ -23034,7 +24960,7 @@
         <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F33">
         <f>SKEW(B24:B49)</f>
@@ -23055,7 +24981,7 @@
         <v>92.000000000000071</v>
       </c>
       <c r="E34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F34">
         <f>F35-F36</f>
@@ -23118,7 +25044,7 @@
         <v>104.99999999999994</v>
       </c>
       <c r="E37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F37" s="89">
         <f>SUM(B24:B49)</f>
@@ -23139,7 +25065,7 @@
         <v>104.99999999999994</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F38">
         <f>COUNT(B24:B49)</f>
@@ -23160,7 +25086,7 @@
         <v>104.99999999999994</v>
       </c>
       <c r="E39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F39">
         <f>GEOMEAN(B24:B49)</f>
@@ -23181,7 +25107,7 @@
         <v>104.99999999999994</v>
       </c>
       <c r="E40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F40">
         <f>HARMEAN(B24:B49)</f>
@@ -23202,7 +25128,7 @@
         <v>104.99999999999994</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F41">
         <f>AVEDEV(B24:B49)</f>
@@ -23223,7 +25149,7 @@
         <v>104.99999999999994</v>
       </c>
       <c r="E42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F42">
         <f>[1]!MAD(B24:B49)</f>
@@ -23244,7 +25170,7 @@
         <v>105.00000000000003</v>
       </c>
       <c r="E43" s="113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F43" s="113">
         <f>[1]!IQR(B24:B49,FALSE)</f>
@@ -23316,29 +25242,29 @@
       </c>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="118" t="s">
-        <v>230</v>
-      </c>
-      <c r="C51" s="118" t="s">
+      <c r="B51" s="117" t="s">
+        <v>228</v>
+      </c>
+      <c r="C51" s="117" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="117" t="s">
         <v>229</v>
       </c>
-      <c r="D51" s="118" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="52" spans="2:15">
-      <c r="B52" s="117" t="s">
+      <c r="B52" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="117">
+      <c r="C52" s="116">
         <v>28.00000000000006</v>
       </c>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" s="117" t="s">
+      <c r="B53" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="117">
+      <c r="C53" s="116">
         <v>31.00000000000005</v>
       </c>
       <c r="O53" s="110" t="s">
@@ -23346,460 +25272,460 @@
       </c>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="117" t="s">
+      <c r="B54" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="117">
+      <c r="C54" s="116">
         <v>32.000000000000043</v>
       </c>
     </row>
     <row r="55" spans="2:15">
-      <c r="B55" s="117" t="s">
+      <c r="B55" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="117">
+      <c r="C55" s="116">
         <v>34.000000000000043</v>
       </c>
     </row>
     <row r="56" spans="2:15">
-      <c r="B56" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C56" s="117">
+      <c r="B56" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="116">
         <v>34.999999999999957</v>
       </c>
     </row>
     <row r="57" spans="2:15">
-      <c r="B57" s="117" t="s">
+      <c r="B57" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C57" s="117">
+      <c r="C57" s="116">
         <v>36.000000000000028</v>
       </c>
     </row>
     <row r="58" spans="2:15">
-      <c r="B58" s="117" t="s">
+      <c r="B58" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="117">
+      <c r="C58" s="116">
         <v>42.000000000000014</v>
       </c>
     </row>
     <row r="59" spans="2:15">
-      <c r="B59" s="117" t="s">
+      <c r="B59" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="117">
+      <c r="C59" s="116">
         <v>43.000000000000007</v>
       </c>
     </row>
     <row r="60" spans="2:15">
-      <c r="B60" s="117" t="s">
+      <c r="B60" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="117">
+      <c r="C60" s="116">
         <v>47.999999999999986</v>
       </c>
     </row>
     <row r="61" spans="2:15">
-      <c r="B61" s="117" t="s">
+      <c r="B61" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="117">
+      <c r="C61" s="116">
         <v>47.999999999999986</v>
       </c>
     </row>
     <row r="62" spans="2:15">
-      <c r="B62" s="117" t="s">
+      <c r="B62" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <v>48.999999999999986</v>
       </c>
     </row>
     <row r="63" spans="2:15">
-      <c r="B63" s="117" t="s">
+      <c r="B63" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="117">
+      <c r="C63" s="116">
         <v>52.999999999999972</v>
       </c>
     </row>
     <row r="64" spans="2:15">
-      <c r="B64" s="117" t="s">
+      <c r="B64" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="117">
+      <c r="C64" s="116">
         <v>54.999999999999964</v>
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C65" s="117">
+      <c r="B65" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" s="116">
         <v>57.000000000000036</v>
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="117" t="s">
+      <c r="B66" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C66" s="117">
+      <c r="C66" s="116">
         <v>61.000000000000099</v>
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="117" t="s">
+      <c r="B67" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C67" s="117">
+      <c r="C67" s="116">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="117" t="s">
+      <c r="B68" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C68" s="117">
+      <c r="C68" s="116">
         <v>69.999999999999986</v>
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C69" s="117">
+      <c r="B69" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C69" s="116">
         <v>70.000000000000071</v>
       </c>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="117" t="s">
+      <c r="B70" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="117">
+      <c r="C70" s="116">
         <v>74.000000000000057</v>
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C71" s="117">
+      <c r="B71" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" s="116">
         <v>74.000000000000057</v>
       </c>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C72" s="117">
+      <c r="B72" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" s="116">
         <v>74.999999999999972</v>
       </c>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="117" t="s">
+      <c r="B73" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="117">
+      <c r="C73" s="116">
         <v>78.000000000000043</v>
       </c>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C74" s="117">
+      <c r="B74" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" s="116">
         <v>81.000000000000028</v>
       </c>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="117" t="s">
+      <c r="B75" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C75" s="117">
+      <c r="C75" s="116">
         <v>84.999999999999943</v>
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C76" s="117">
+      <c r="B76" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" s="116">
         <v>86.000000000000014</v>
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C77" s="117">
+      <c r="B77" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="116">
         <v>87.000000000000014</v>
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C78" s="117">
+      <c r="B78" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="116">
         <v>89</v>
       </c>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" s="117">
+      <c r="B79" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" s="116">
         <v>89</v>
       </c>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="117" t="s">
+      <c r="B80" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="117">
+      <c r="C80" s="116">
         <v>92</v>
       </c>
     </row>
     <row r="81" spans="2:4">
-      <c r="B81" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C81" s="117">
+      <c r="B81" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" s="116">
         <v>92.000000000000071</v>
       </c>
     </row>
     <row r="82" spans="2:4">
-      <c r="B82" s="117" t="s">
+      <c r="B82" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C82" s="117">
+      <c r="C82" s="116">
         <v>93.999999999999986</v>
       </c>
     </row>
     <row r="83" spans="2:4">
-      <c r="B83" s="117" t="s">
+      <c r="B83" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="117">
+      <c r="C83" s="116">
         <v>96.999999999999972</v>
       </c>
     </row>
     <row r="84" spans="2:4">
-      <c r="B84" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C84" s="117">
+      <c r="B84" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" s="116">
         <v>104.99999999999994</v>
       </c>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="117" t="s">
+      <c r="B85" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C85" s="117">
+      <c r="C85" s="116">
         <v>104.99999999999994</v>
       </c>
-      <c r="D85" s="120" t="s">
-        <v>234</v>
+      <c r="D85" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="117" t="s">
+      <c r="B86" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="117">
+      <c r="C86" s="116">
         <v>104.99999999999994</v>
       </c>
-      <c r="D86" s="120" t="s">
-        <v>234</v>
+      <c r="D86" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="2:4">
-      <c r="B87" s="117" t="s">
+      <c r="B87" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="117">
+      <c r="C87" s="116">
         <v>104.99999999999994</v>
       </c>
-      <c r="D87" s="120" t="s">
-        <v>234</v>
+      <c r="D87" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C88" s="117">
+      <c r="B88" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C88" s="116">
         <v>104.99999999999994</v>
       </c>
-      <c r="D88" s="120" t="s">
-        <v>234</v>
+      <c r="D88" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="2:4">
-      <c r="B89" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C89" s="117">
+      <c r="B89" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C89" s="116">
         <v>104.99999999999994</v>
       </c>
-      <c r="D89" s="120" t="s">
-        <v>234</v>
+      <c r="D89" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="2:4">
-      <c r="B90" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C90" s="117">
+      <c r="B90" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" s="116">
         <v>104.99999999999994</v>
       </c>
-      <c r="D90" s="120" t="s">
-        <v>234</v>
+      <c r="D90" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="2:4">
-      <c r="B91" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C91" s="117">
+      <c r="B91" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" s="116">
         <v>104.99999999999994</v>
       </c>
-      <c r="D91" s="120" t="s">
-        <v>234</v>
+      <c r="D91" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="2:4">
-      <c r="B92" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C92" s="117">
+      <c r="B92" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92" s="116">
         <v>104.99999999999994</v>
       </c>
-      <c r="D92" s="120" t="s">
-        <v>234</v>
+      <c r="D92" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="2:4">
-      <c r="B93" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C93" s="117">
+      <c r="B93" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" s="116">
         <v>104.99999999999994</v>
       </c>
-      <c r="D93" s="120" t="s">
-        <v>234</v>
+      <c r="D93" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="2:4">
-      <c r="B94" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C94" s="117">
+      <c r="B94" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" s="116">
         <v>104.99999999999994</v>
       </c>
-      <c r="D94" s="120" t="s">
-        <v>234</v>
+      <c r="D94" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="2:4">
-      <c r="B95" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C95" s="117">
+      <c r="B95" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C95" s="116">
         <v>105.00000000000003</v>
       </c>
-      <c r="D95" s="120" t="s">
-        <v>234</v>
+      <c r="D95" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="2:4">
-      <c r="B96" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C96" s="117">
+      <c r="B96" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" s="116">
         <v>105.00000000000003</v>
       </c>
-      <c r="D96" s="120" t="s">
-        <v>234</v>
+      <c r="D96" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="2:4">
-      <c r="B97" s="117" t="s">
+      <c r="B97" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C97" s="117">
+      <c r="C97" s="116">
         <v>105.00000000000011</v>
       </c>
-      <c r="D97" s="120" t="s">
-        <v>234</v>
+      <c r="D97" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="117" t="s">
+      <c r="B98" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C98" s="117">
+      <c r="C98" s="116">
         <v>105.00000000000011</v>
       </c>
-      <c r="D98" s="120" t="s">
-        <v>234</v>
+      <c r="D98" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="2:4">
-      <c r="B99" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C99" s="117">
+      <c r="B99" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C99" s="116">
         <v>105.00000000000011</v>
       </c>
-      <c r="D99" s="120" t="s">
-        <v>234</v>
+      <c r="D99" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C100" s="117">
+      <c r="B100" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" s="116">
         <v>105.00000000000011</v>
       </c>
-      <c r="D100" s="120" t="s">
-        <v>234</v>
+      <c r="D100" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C101" s="117">
+      <c r="B101" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C101" s="116">
         <v>105.00000000000011</v>
       </c>
-      <c r="D101" s="120" t="s">
-        <v>234</v>
+      <c r="D101" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="102" spans="2:4">
-      <c r="B102" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C102" s="117">
+      <c r="B102" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C102" s="116">
         <v>105.00000000000011</v>
       </c>
-      <c r="D102" s="120" t="s">
-        <v>234</v>
+      <c r="D102" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="2:4">
-      <c r="B103" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C103" s="117">
+      <c r="B103" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" s="116">
         <v>105.00000000000011</v>
       </c>
-      <c r="D103" s="120" t="s">
-        <v>234</v>
+      <c r="D103" s="119" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -23837,25 +25763,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="E4" s="143" t="s">
+      <c r="B4" s="131"/>
+      <c r="E4" s="149" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="L4" s="143" t="s">
+      <c r="F4" s="131"/>
+      <c r="L4" s="149" t="s">
         <v>159</v>
       </c>
-      <c r="M4" s="123"/>
+      <c r="M4" s="131"/>
     </row>
     <row r="5" spans="1:29">
       <c r="G5" s="22"/>
